--- a/BackTest/2020-01-21 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-21 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>255</v>
       </c>
       <c r="C2" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D2" t="n">
         <v>255</v>
       </c>
       <c r="E2" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="F2" t="n">
-        <v>7294.3766</v>
+        <v>389.1237</v>
       </c>
       <c r="G2" t="n">
-        <v>260.02</v>
+        <v>260.0783333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>255</v>
       </c>
       <c r="C3" t="n">
-        <v>255</v>
+        <v>254.5</v>
       </c>
       <c r="D3" t="n">
         <v>255</v>
       </c>
       <c r="E3" t="n">
-        <v>255</v>
+        <v>254.5</v>
       </c>
       <c r="F3" t="n">
-        <v>67.0177</v>
+        <v>7294.3766</v>
       </c>
       <c r="G3" t="n">
-        <v>259.895</v>
+        <v>260.02</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D4" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="E4" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="F4" t="n">
-        <v>52.0899</v>
+        <v>67.0177</v>
       </c>
       <c r="G4" t="n">
-        <v>259.8</v>
+        <v>259.895</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>254.3</v>
+        <v>254.5</v>
       </c>
       <c r="C5" t="n">
-        <v>254.3</v>
+        <v>254.5</v>
       </c>
       <c r="D5" t="n">
-        <v>254.3</v>
+        <v>254.5</v>
       </c>
       <c r="E5" t="n">
-        <v>254.3</v>
+        <v>254.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1019.921</v>
+        <v>52.0899</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6683333333334</v>
+        <v>259.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>254.5</v>
+        <v>254.3</v>
       </c>
       <c r="C6" t="n">
-        <v>254.5</v>
+        <v>254.3</v>
       </c>
       <c r="D6" t="n">
-        <v>254.5</v>
+        <v>254.3</v>
       </c>
       <c r="E6" t="n">
-        <v>254.5</v>
+        <v>254.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2568.1368</v>
+        <v>1019.921</v>
       </c>
       <c r="G6" t="n">
-        <v>259.5933333333334</v>
+        <v>259.6683333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>254.5</v>
       </c>
       <c r="C7" t="n">
-        <v>261.9</v>
+        <v>254.5</v>
       </c>
       <c r="D7" t="n">
-        <v>261.9</v>
+        <v>254.5</v>
       </c>
       <c r="E7" t="n">
         <v>254.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1486.7895</v>
+        <v>2568.1368</v>
       </c>
       <c r="G7" t="n">
-        <v>259.6583333333334</v>
+        <v>259.5933333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>258</v>
+        <v>254.5</v>
       </c>
       <c r="C8" t="n">
-        <v>258</v>
+        <v>261.9</v>
       </c>
       <c r="D8" t="n">
-        <v>258</v>
+        <v>261.9</v>
       </c>
       <c r="E8" t="n">
-        <v>258</v>
+        <v>254.5</v>
       </c>
       <c r="F8" t="n">
-        <v>460.6959</v>
+        <v>1486.7895</v>
       </c>
       <c r="G8" t="n">
         <v>259.6583333333334</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C9" t="n">
         <v>258</v>
@@ -687,13 +687,13 @@
         <v>258</v>
       </c>
       <c r="E9" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F9" t="n">
-        <v>341.3353</v>
+        <v>460.6959</v>
       </c>
       <c r="G9" t="n">
-        <v>259.675</v>
+        <v>259.6583333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>257</v>
       </c>
       <c r="C10" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E10" t="n">
         <v>257</v>
       </c>
       <c r="F10" t="n">
-        <v>224.8</v>
+        <v>341.3353</v>
       </c>
       <c r="G10" t="n">
-        <v>259.6966666666667</v>
+        <v>259.675</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>257</v>
       </c>
       <c r="C11" t="n">
-        <v>265.6</v>
+        <v>257</v>
       </c>
       <c r="D11" t="n">
-        <v>267.9</v>
+        <v>257</v>
       </c>
       <c r="E11" t="n">
         <v>257</v>
       </c>
       <c r="F11" t="n">
-        <v>705</v>
+        <v>224.8</v>
       </c>
       <c r="G11" t="n">
-        <v>259.7916666666667</v>
+        <v>259.6966666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>256.1</v>
+        <v>257</v>
       </c>
       <c r="C12" t="n">
-        <v>254.6</v>
+        <v>265.6</v>
       </c>
       <c r="D12" t="n">
-        <v>256.1</v>
+        <v>267.9</v>
       </c>
       <c r="E12" t="n">
-        <v>254.6</v>
+        <v>257</v>
       </c>
       <c r="F12" t="n">
-        <v>7561.7733</v>
+        <v>705</v>
       </c>
       <c r="G12" t="n">
-        <v>259.7033333333333</v>
+        <v>259.7916666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>259</v>
+        <v>256.1</v>
       </c>
       <c r="C13" t="n">
-        <v>259</v>
+        <v>254.6</v>
       </c>
       <c r="D13" t="n">
-        <v>259</v>
+        <v>256.1</v>
       </c>
       <c r="E13" t="n">
-        <v>259</v>
+        <v>254.6</v>
       </c>
       <c r="F13" t="n">
-        <v>126.0037</v>
+        <v>7561.7733</v>
       </c>
       <c r="G13" t="n">
-        <v>259.6866666666667</v>
+        <v>259.7033333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>259</v>
       </c>
       <c r="F14" t="n">
-        <v>1315.0787</v>
+        <v>126.0037</v>
       </c>
       <c r="G14" t="n">
-        <v>259.6716666666667</v>
+        <v>259.6866666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>259</v>
       </c>
       <c r="C15" t="n">
-        <v>259.8</v>
+        <v>259</v>
       </c>
       <c r="D15" t="n">
-        <v>259.8</v>
+        <v>259</v>
       </c>
       <c r="E15" t="n">
         <v>259</v>
       </c>
       <c r="F15" t="n">
-        <v>2500.2929</v>
+        <v>1315.0787</v>
       </c>
       <c r="G15" t="n">
-        <v>259.67</v>
+        <v>259.6716666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>259.8</v>
+        <v>259</v>
       </c>
       <c r="C16" t="n">
         <v>259.8</v>
@@ -932,13 +932,13 @@
         <v>259.8</v>
       </c>
       <c r="E16" t="n">
-        <v>259.8</v>
+        <v>259</v>
       </c>
       <c r="F16" t="n">
-        <v>1080.527614703618</v>
+        <v>2500.2929</v>
       </c>
       <c r="G16" t="n">
-        <v>259.6683333333334</v>
+        <v>259.67</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>259.8</v>
       </c>
       <c r="F17" t="n">
-        <v>400</v>
+        <v>1080.527614703618</v>
       </c>
       <c r="G17" t="n">
-        <v>259.625</v>
+        <v>259.6683333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>259.8</v>
       </c>
       <c r="F18" t="n">
-        <v>680.3649</v>
+        <v>400</v>
       </c>
       <c r="G18" t="n">
-        <v>259.695</v>
+        <v>259.625</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>255</v>
+        <v>259.8</v>
       </c>
       <c r="C19" t="n">
-        <v>254</v>
+        <v>259.8</v>
       </c>
       <c r="D19" t="n">
-        <v>255</v>
+        <v>259.8</v>
       </c>
       <c r="E19" t="n">
-        <v>254</v>
+        <v>259.8</v>
       </c>
       <c r="F19" t="n">
-        <v>8283.824699999999</v>
+        <v>680.3649</v>
       </c>
       <c r="G19" t="n">
-        <v>259.6683333333333</v>
+        <v>259.695</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>254</v>
       </c>
       <c r="F20" t="n">
-        <v>500</v>
+        <v>8283.824699999999</v>
       </c>
       <c r="G20" t="n">
-        <v>259.5733333333333</v>
+        <v>259.6683333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C21" t="n">
         <v>254</v>
       </c>
       <c r="D21" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E21" t="n">
         <v>254</v>
       </c>
       <c r="F21" t="n">
-        <v>2808.912</v>
+        <v>500</v>
       </c>
       <c r="G21" t="n">
-        <v>259.5466666666666</v>
+        <v>259.5733333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>254</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>2808.912</v>
       </c>
       <c r="G22" t="n">
-        <v>259.4516666666666</v>
+        <v>259.5466666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>252.9</v>
+        <v>254</v>
       </c>
       <c r="C23" t="n">
-        <v>252.8</v>
+        <v>254</v>
       </c>
       <c r="D23" t="n">
-        <v>252.9</v>
+        <v>254</v>
       </c>
       <c r="E23" t="n">
-        <v>252.8</v>
+        <v>254</v>
       </c>
       <c r="F23" t="n">
-        <v>704.2910000000001</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>259.3149999999999</v>
+        <v>259.4516666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>252</v>
+        <v>252.9</v>
       </c>
       <c r="C24" t="n">
-        <v>252</v>
+        <v>252.8</v>
       </c>
       <c r="D24" t="n">
-        <v>252</v>
+        <v>252.9</v>
       </c>
       <c r="E24" t="n">
-        <v>252</v>
+        <v>252.8</v>
       </c>
       <c r="F24" t="n">
-        <v>2909.4224</v>
+        <v>704.2910000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>259.1649999999999</v>
+        <v>259.3149999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>251.1</v>
+        <v>252</v>
       </c>
       <c r="C25" t="n">
-        <v>251.1</v>
+        <v>252</v>
       </c>
       <c r="D25" t="n">
-        <v>251.1</v>
+        <v>252</v>
       </c>
       <c r="E25" t="n">
-        <v>251.1</v>
+        <v>252</v>
       </c>
       <c r="F25" t="n">
-        <v>244.49</v>
+        <v>2909.4224</v>
       </c>
       <c r="G25" t="n">
-        <v>258.9783333333333</v>
+        <v>259.1649999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>252.5</v>
+        <v>251.1</v>
       </c>
       <c r="C26" t="n">
-        <v>252.5</v>
+        <v>251.1</v>
       </c>
       <c r="D26" t="n">
-        <v>252.5</v>
+        <v>251.1</v>
       </c>
       <c r="E26" t="n">
-        <v>252.5</v>
+        <v>251.1</v>
       </c>
       <c r="F26" t="n">
-        <v>118.7727</v>
+        <v>244.49</v>
       </c>
       <c r="G26" t="n">
-        <v>258.6583333333332</v>
+        <v>258.9783333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,23 +1320,19 @@
         <v>252.5</v>
       </c>
       <c r="F27" t="n">
-        <v>281.2273</v>
+        <v>118.7727</v>
       </c>
       <c r="G27" t="n">
-        <v>258.3216666666666</v>
+        <v>258.6583333333332</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>252.5</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1347,40 +1343,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>252</v>
+        <v>252.5</v>
       </c>
       <c r="C28" t="n">
-        <v>252</v>
+        <v>252.5</v>
       </c>
       <c r="D28" t="n">
-        <v>252</v>
+        <v>252.5</v>
       </c>
       <c r="E28" t="n">
-        <v>252</v>
+        <v>252.5</v>
       </c>
       <c r="F28" t="n">
-        <v>75.09099999999999</v>
+        <v>281.2273</v>
       </c>
       <c r="G28" t="n">
-        <v>258.0816666666666</v>
+        <v>258.3216666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,40 +1378,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>252.5</v>
+        <v>252</v>
       </c>
       <c r="C29" t="n">
-        <v>252.5</v>
+        <v>252</v>
       </c>
       <c r="D29" t="n">
-        <v>252.5</v>
+        <v>252</v>
       </c>
       <c r="E29" t="n">
-        <v>252.5</v>
+        <v>252</v>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>75.09099999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>257.8483333333332</v>
+        <v>258.0816666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1433,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>252.1</v>
+        <v>252.5</v>
       </c>
       <c r="C30" t="n">
-        <v>259</v>
+        <v>252.5</v>
       </c>
       <c r="D30" t="n">
-        <v>259</v>
+        <v>252.5</v>
       </c>
       <c r="E30" t="n">
-        <v>252.1</v>
+        <v>252.5</v>
       </c>
       <c r="F30" t="n">
-        <v>928.9638</v>
+        <v>80</v>
       </c>
       <c r="G30" t="n">
-        <v>257.7233333333332</v>
+        <v>257.8483333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1468,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>253.1</v>
+        <v>252.1</v>
       </c>
       <c r="C31" t="n">
-        <v>253.1</v>
+        <v>259</v>
       </c>
       <c r="D31" t="n">
-        <v>253.1</v>
+        <v>259</v>
       </c>
       <c r="E31" t="n">
-        <v>253.1</v>
+        <v>252.1</v>
       </c>
       <c r="F31" t="n">
-        <v>748.9639</v>
+        <v>928.9638</v>
       </c>
       <c r="G31" t="n">
-        <v>257.5016666666666</v>
+        <v>257.7233333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1503,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>256</v>
+        <v>253.1</v>
       </c>
       <c r="C32" t="n">
-        <v>256</v>
+        <v>253.1</v>
       </c>
       <c r="D32" t="n">
-        <v>256</v>
+        <v>253.1</v>
       </c>
       <c r="E32" t="n">
-        <v>256</v>
+        <v>253.1</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>748.9639</v>
       </c>
       <c r="G32" t="n">
-        <v>257.4183333333333</v>
+        <v>257.5016666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1538,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33" t="n">
-        <v>258.9</v>
+        <v>256</v>
       </c>
       <c r="D33" t="n">
-        <v>258.9</v>
+        <v>256</v>
       </c>
       <c r="E33" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F33" t="n">
-        <v>2780.8423</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>257.3666666666666</v>
+        <v>257.4183333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1573,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C34" t="n">
-        <v>257</v>
+        <v>258.9</v>
       </c>
       <c r="D34" t="n">
-        <v>257</v>
+        <v>258.9</v>
       </c>
       <c r="E34" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F34" t="n">
-        <v>125.0485</v>
+        <v>2780.8423</v>
       </c>
       <c r="G34" t="n">
-        <v>257.3166666666666</v>
+        <v>257.3666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1608,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>258.9</v>
+        <v>257</v>
       </c>
       <c r="C35" t="n">
-        <v>259.9</v>
+        <v>257</v>
       </c>
       <c r="D35" t="n">
-        <v>265.4</v>
+        <v>257</v>
       </c>
       <c r="E35" t="n">
-        <v>258.9</v>
+        <v>257</v>
       </c>
       <c r="F35" t="n">
-        <v>405</v>
+        <v>125.0485</v>
       </c>
       <c r="G35" t="n">
-        <v>257.3149999999999</v>
+        <v>257.3166666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1643,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>259.9</v>
+        <v>258.9</v>
       </c>
       <c r="C36" t="n">
         <v>259.9</v>
       </c>
       <c r="D36" t="n">
-        <v>259.9</v>
+        <v>265.4</v>
       </c>
       <c r="E36" t="n">
-        <v>259.9</v>
+        <v>258.9</v>
       </c>
       <c r="F36" t="n">
-        <v>570.9932</v>
+        <v>405</v>
       </c>
       <c r="G36" t="n">
-        <v>257.2133333333333</v>
+        <v>257.3149999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1678,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
       <c r="C37" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
       <c r="D37" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
       <c r="E37" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>570.9932</v>
       </c>
       <c r="G37" t="n">
-        <v>257.1099999999999</v>
+        <v>257.2133333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1716,19 +1696,19 @@
         <v>259.8</v>
       </c>
       <c r="C38" t="n">
-        <v>260</v>
+        <v>259.8</v>
       </c>
       <c r="D38" t="n">
-        <v>260</v>
+        <v>259.8</v>
       </c>
       <c r="E38" t="n">
         <v>259.8</v>
       </c>
       <c r="F38" t="n">
-        <v>5951.251317653846</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>256.9783333333332</v>
+        <v>257.1099999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1748,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>258</v>
+        <v>259.8</v>
       </c>
       <c r="C39" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D39" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E39" t="n">
-        <v>258</v>
+        <v>259.8</v>
       </c>
       <c r="F39" t="n">
-        <v>788.0116</v>
+        <v>5951.251317653846</v>
       </c>
       <c r="G39" t="n">
-        <v>256.8449999999999</v>
+        <v>256.9783333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1783,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C40" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D40" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E40" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F40" t="n">
-        <v>627.3434</v>
+        <v>788.0116</v>
       </c>
       <c r="G40" t="n">
-        <v>256.6949999999999</v>
+        <v>256.8449999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1818,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>259.9</v>
+        <v>257</v>
       </c>
       <c r="C41" t="n">
-        <v>259.9</v>
+        <v>260</v>
       </c>
       <c r="D41" t="n">
-        <v>259.9</v>
+        <v>260</v>
       </c>
       <c r="E41" t="n">
-        <v>259.9</v>
+        <v>257</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>627.3434</v>
       </c>
       <c r="G41" t="n">
-        <v>256.6766666666666</v>
+        <v>256.6949999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1853,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
       <c r="C42" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
       <c r="D42" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
       <c r="E42" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
       <c r="F42" t="n">
         <v>20</v>
       </c>
       <c r="G42" t="n">
-        <v>256.6733333333332</v>
+        <v>256.6766666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1888,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>258</v>
+        <v>259.8</v>
       </c>
       <c r="C43" t="n">
-        <v>258</v>
+        <v>259.8</v>
       </c>
       <c r="D43" t="n">
-        <v>258</v>
+        <v>259.8</v>
       </c>
       <c r="E43" t="n">
-        <v>258</v>
+        <v>259.8</v>
       </c>
       <c r="F43" t="n">
-        <v>132.365</v>
+        <v>20</v>
       </c>
       <c r="G43" t="n">
-        <v>256.6066666666666</v>
+        <v>256.6733333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1923,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C44" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D44" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E44" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F44" t="n">
-        <v>16.8719</v>
+        <v>132.365</v>
       </c>
       <c r="G44" t="n">
-        <v>256.7033333333332</v>
+        <v>256.6066666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1958,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C45" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D45" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E45" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F45" t="n">
-        <v>17740.6638</v>
+        <v>16.8719</v>
       </c>
       <c r="G45" t="n">
-        <v>256.7499999999999</v>
+        <v>256.7033333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1993,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C46" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E46" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F46" t="n">
-        <v>68.2884</v>
+        <v>17740.6638</v>
       </c>
       <c r="G46" t="n">
-        <v>256.8133333333332</v>
+        <v>256.7499999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2028,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>256.5</v>
+        <v>257</v>
       </c>
       <c r="C47" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D47" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E47" t="n">
-        <v>256.5</v>
+        <v>257</v>
       </c>
       <c r="F47" t="n">
-        <v>8762.7852</v>
+        <v>68.2884</v>
       </c>
       <c r="G47" t="n">
-        <v>256.9266666666665</v>
+        <v>256.8133333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2063,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>260</v>
+        <v>256.5</v>
       </c>
       <c r="C48" t="n">
         <v>260</v>
@@ -2072,13 +2052,13 @@
         <v>260</v>
       </c>
       <c r="E48" t="n">
-        <v>260</v>
+        <v>256.5</v>
       </c>
       <c r="F48" t="n">
-        <v>3360.0145</v>
+        <v>8762.7852</v>
       </c>
       <c r="G48" t="n">
-        <v>256.9099999999999</v>
+        <v>256.9266666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2104,16 +2084,16 @@
         <v>260</v>
       </c>
       <c r="D49" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E49" t="n">
         <v>260</v>
       </c>
       <c r="F49" t="n">
-        <v>13934.5776</v>
+        <v>3360.0145</v>
       </c>
       <c r="G49" t="n">
-        <v>256.8949999999999</v>
+        <v>256.9099999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2136,19 +2116,19 @@
         <v>260</v>
       </c>
       <c r="C50" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D50" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E50" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F50" t="n">
-        <v>1563.8368</v>
+        <v>13934.5776</v>
       </c>
       <c r="G50" t="n">
-        <v>256.9916666666665</v>
+        <v>256.8949999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2168,19 +2148,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>260</v>
+      </c>
+      <c r="C51" t="n">
         <v>259</v>
       </c>
-      <c r="C51" t="n">
-        <v>260</v>
-      </c>
       <c r="D51" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E51" t="n">
         <v>259</v>
       </c>
       <c r="F51" t="n">
-        <v>69</v>
+        <v>1563.8368</v>
       </c>
       <c r="G51" t="n">
         <v>256.9916666666665</v>
@@ -2203,10 +2183,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>259</v>
+      </c>
+      <c r="C52" t="n">
         <v>260</v>
-      </c>
-      <c r="C52" t="n">
-        <v>259</v>
       </c>
       <c r="D52" t="n">
         <v>260</v>
@@ -2215,10 +2195,10 @@
         <v>259</v>
       </c>
       <c r="F52" t="n">
-        <v>3899.0934</v>
+        <v>69</v>
       </c>
       <c r="G52" t="n">
-        <v>256.9583333333332</v>
+        <v>256.9916666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2238,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>260</v>
+      </c>
+      <c r="C53" t="n">
         <v>259</v>
       </c>
-      <c r="C53" t="n">
-        <v>268.9</v>
-      </c>
       <c r="D53" t="n">
-        <v>268.9</v>
+        <v>260</v>
       </c>
       <c r="E53" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F53" t="n">
-        <v>7964.661</v>
+        <v>3899.0934</v>
       </c>
       <c r="G53" t="n">
-        <v>257.1999999999999</v>
+        <v>256.9583333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2273,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>268.8</v>
+        <v>259</v>
       </c>
       <c r="C54" t="n">
-        <v>255.5</v>
+        <v>268.9</v>
       </c>
       <c r="D54" t="n">
-        <v>268.8</v>
+        <v>268.9</v>
       </c>
       <c r="E54" t="n">
-        <v>255.5</v>
+        <v>252</v>
       </c>
       <c r="F54" t="n">
-        <v>15767.8256</v>
+        <v>7964.661</v>
       </c>
       <c r="G54" t="n">
-        <v>257.2149999999999</v>
+        <v>257.1999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2308,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>264.8</v>
+        <v>268.8</v>
       </c>
       <c r="C55" t="n">
-        <v>264.8</v>
+        <v>255.5</v>
       </c>
       <c r="D55" t="n">
-        <v>264.8</v>
+        <v>268.8</v>
       </c>
       <c r="E55" t="n">
-        <v>264.8</v>
+        <v>255.5</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>15767.8256</v>
       </c>
       <c r="G55" t="n">
-        <v>257.3849999999998</v>
+        <v>257.2149999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2343,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>255.1</v>
+        <v>264.8</v>
       </c>
       <c r="C56" t="n">
-        <v>262.9</v>
+        <v>264.8</v>
       </c>
       <c r="D56" t="n">
-        <v>262.9</v>
+        <v>264.8</v>
       </c>
       <c r="E56" t="n">
-        <v>255.1</v>
+        <v>264.8</v>
       </c>
       <c r="F56" t="n">
-        <v>1221.355</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>257.3833333333332</v>
+        <v>257.3849999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2378,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>261.9</v>
+        <v>255.1</v>
       </c>
       <c r="C57" t="n">
-        <v>259</v>
+        <v>262.9</v>
       </c>
       <c r="D57" t="n">
-        <v>261.9</v>
+        <v>262.9</v>
       </c>
       <c r="E57" t="n">
-        <v>259</v>
+        <v>255.1</v>
       </c>
       <c r="F57" t="n">
-        <v>11.7416</v>
+        <v>1221.355</v>
       </c>
       <c r="G57" t="n">
-        <v>257.4499999999998</v>
+        <v>257.3833333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2413,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>257</v>
+        <v>261.9</v>
       </c>
       <c r="C58" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D58" t="n">
-        <v>257</v>
+        <v>261.9</v>
       </c>
       <c r="E58" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F58" t="n">
-        <v>491.1399</v>
+        <v>11.7416</v>
       </c>
       <c r="G58" t="n">
-        <v>257.4649999999998</v>
+        <v>257.4499999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2448,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C59" t="n">
-        <v>260.9</v>
+        <v>256</v>
       </c>
       <c r="D59" t="n">
-        <v>260.9</v>
+        <v>257</v>
       </c>
       <c r="E59" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F59" t="n">
-        <v>54</v>
+        <v>491.1399</v>
       </c>
       <c r="G59" t="n">
-        <v>257.5633333333332</v>
+        <v>257.4649999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2483,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>260.5</v>
+        <v>260</v>
       </c>
       <c r="C60" t="n">
-        <v>261</v>
+        <v>260.9</v>
       </c>
       <c r="D60" t="n">
-        <v>261</v>
+        <v>260.9</v>
       </c>
       <c r="E60" t="n">
-        <v>260.5</v>
+        <v>260</v>
       </c>
       <c r="F60" t="n">
-        <v>7461.3881</v>
+        <v>54</v>
       </c>
       <c r="G60" t="n">
-        <v>257.6633333333331</v>
+        <v>257.5633333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2518,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>260.9</v>
+        <v>260.5</v>
       </c>
       <c r="C61" t="n">
-        <v>262.5</v>
+        <v>261</v>
       </c>
       <c r="D61" t="n">
-        <v>264.7</v>
+        <v>261</v>
       </c>
       <c r="E61" t="n">
-        <v>260.9</v>
+        <v>260.5</v>
       </c>
       <c r="F61" t="n">
-        <v>4681.8256</v>
+        <v>7461.3881</v>
       </c>
       <c r="G61" t="n">
-        <v>257.7883333333331</v>
+        <v>257.6633333333331</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2553,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>262</v>
+        <v>260.9</v>
       </c>
       <c r="C62" t="n">
-        <v>266</v>
+        <v>262.5</v>
       </c>
       <c r="D62" t="n">
-        <v>266</v>
+        <v>264.7</v>
       </c>
       <c r="E62" t="n">
-        <v>262</v>
+        <v>260.9</v>
       </c>
       <c r="F62" t="n">
-        <v>421</v>
+        <v>4681.8256</v>
       </c>
       <c r="G62" t="n">
-        <v>257.9799999999998</v>
+        <v>257.7883333333331</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2588,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C63" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D63" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E63" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F63" t="n">
-        <v>2216.39</v>
+        <v>421</v>
       </c>
       <c r="G63" t="n">
-        <v>258.0633333333332</v>
+        <v>257.9799999999998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2623,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>264.9</v>
+        <v>260</v>
       </c>
       <c r="C64" t="n">
-        <v>263.9</v>
+        <v>260</v>
       </c>
       <c r="D64" t="n">
-        <v>264.9</v>
+        <v>260</v>
       </c>
       <c r="E64" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F64" t="n">
-        <v>1963.969</v>
+        <v>2216.39</v>
       </c>
       <c r="G64" t="n">
-        <v>258.2199999999998</v>
+        <v>258.0633333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2658,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>264.9</v>
+      </c>
+      <c r="C65" t="n">
         <v>263.9</v>
       </c>
-      <c r="C65" t="n">
-        <v>265</v>
-      </c>
       <c r="D65" t="n">
-        <v>265</v>
+        <v>264.9</v>
       </c>
       <c r="E65" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F65" t="n">
-        <v>5575.937</v>
+        <v>1963.969</v>
       </c>
       <c r="G65" t="n">
-        <v>258.3983333333331</v>
+        <v>258.2199999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2693,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>264</v>
+        <v>263.9</v>
       </c>
       <c r="C66" t="n">
-        <v>265.4</v>
+        <v>265</v>
       </c>
       <c r="D66" t="n">
-        <v>265.4</v>
+        <v>265</v>
       </c>
       <c r="E66" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F66" t="n">
-        <v>111</v>
+        <v>5575.937</v>
       </c>
       <c r="G66" t="n">
-        <v>258.5799999999998</v>
+        <v>258.3983333333331</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2728,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C67" t="n">
-        <v>265.3</v>
+        <v>265.4</v>
       </c>
       <c r="D67" t="n">
-        <v>265.3</v>
+        <v>265.4</v>
       </c>
       <c r="E67" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F67" t="n">
-        <v>735</v>
+        <v>111</v>
       </c>
       <c r="G67" t="n">
-        <v>258.6366666666665</v>
+        <v>258.5799999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2766,19 +2746,19 @@
         <v>262</v>
       </c>
       <c r="C68" t="n">
-        <v>261</v>
+        <v>265.3</v>
       </c>
       <c r="D68" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="E68" t="n">
         <v>262</v>
       </c>
-      <c r="E68" t="n">
-        <v>261</v>
-      </c>
       <c r="F68" t="n">
-        <v>2503.2787</v>
+        <v>735</v>
       </c>
       <c r="G68" t="n">
-        <v>258.6866666666664</v>
+        <v>258.6366666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2801,19 +2781,19 @@
         <v>262</v>
       </c>
       <c r="C69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D69" t="n">
         <v>262</v>
       </c>
       <c r="E69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2503.2787</v>
       </c>
       <c r="G69" t="n">
-        <v>258.7533333333332</v>
+        <v>258.6866666666664</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2836,19 +2816,19 @@
         <v>262</v>
       </c>
       <c r="C70" t="n">
-        <v>260.1</v>
+        <v>262</v>
       </c>
       <c r="D70" t="n">
         <v>262</v>
       </c>
       <c r="E70" t="n">
-        <v>260.1</v>
+        <v>262</v>
       </c>
       <c r="F70" t="n">
-        <v>2156.3118</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>258.8049999999998</v>
+        <v>258.7533333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2871,19 +2851,19 @@
         <v>262</v>
       </c>
       <c r="C71" t="n">
-        <v>262</v>
+        <v>260.1</v>
       </c>
       <c r="D71" t="n">
         <v>262</v>
       </c>
       <c r="E71" t="n">
-        <v>262</v>
+        <v>260.1</v>
       </c>
       <c r="F71" t="n">
-        <v>4.5988</v>
+        <v>2156.3118</v>
       </c>
       <c r="G71" t="n">
-        <v>258.7449999999998</v>
+        <v>258.8049999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2903,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>261.1</v>
+        <v>262</v>
       </c>
       <c r="C72" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D72" t="n">
-        <v>261.1</v>
+        <v>262</v>
       </c>
       <c r="E72" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F72" t="n">
-        <v>21496.2055</v>
+        <v>4.5988</v>
       </c>
       <c r="G72" t="n">
-        <v>258.8016666666664</v>
+        <v>258.7449999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2938,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>260.1</v>
+        <v>261.1</v>
       </c>
       <c r="C73" t="n">
-        <v>260.1</v>
+        <v>258</v>
       </c>
       <c r="D73" t="n">
-        <v>260.1</v>
+        <v>261.1</v>
       </c>
       <c r="E73" t="n">
-        <v>260.1</v>
+        <v>258</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>21496.2055</v>
       </c>
       <c r="G73" t="n">
-        <v>258.8199999999998</v>
+        <v>258.8016666666664</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2973,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>256</v>
+        <v>260.1</v>
       </c>
       <c r="C74" t="n">
-        <v>260</v>
+        <v>260.1</v>
       </c>
       <c r="D74" t="n">
-        <v>260</v>
+        <v>260.1</v>
       </c>
       <c r="E74" t="n">
-        <v>255</v>
+        <v>260.1</v>
       </c>
       <c r="F74" t="n">
-        <v>1863.2916</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>258.8366666666665</v>
+        <v>258.8199999999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3008,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>256</v>
+      </c>
+      <c r="C75" t="n">
         <v>260</v>
-      </c>
-      <c r="C75" t="n">
-        <v>256.2</v>
       </c>
       <c r="D75" t="n">
         <v>260</v>
       </c>
       <c r="E75" t="n">
-        <v>256.2</v>
+        <v>255</v>
       </c>
       <c r="F75" t="n">
-        <v>1880.468</v>
+        <v>1863.2916</v>
       </c>
       <c r="G75" t="n">
-        <v>258.7766666666665</v>
+        <v>258.8366666666665</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3043,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C76" t="n">
-        <v>259</v>
+        <v>256.2</v>
       </c>
       <c r="D76" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E76" t="n">
-        <v>256.1</v>
+        <v>256.2</v>
       </c>
       <c r="F76" t="n">
-        <v>1137.7477</v>
+        <v>1880.468</v>
       </c>
       <c r="G76" t="n">
-        <v>258.7633333333332</v>
+        <v>258.7766666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3081,19 +3061,19 @@
         <v>257</v>
       </c>
       <c r="C77" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D77" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E77" t="n">
-        <v>257</v>
+        <v>256.1</v>
       </c>
       <c r="F77" t="n">
-        <v>125.8721</v>
+        <v>1137.7477</v>
       </c>
       <c r="G77" t="n">
-        <v>258.7166666666665</v>
+        <v>258.7633333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3113,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>255.3</v>
+        <v>257</v>
       </c>
       <c r="C78" t="n">
-        <v>256.7</v>
+        <v>257</v>
       </c>
       <c r="D78" t="n">
-        <v>256.7</v>
+        <v>257</v>
       </c>
       <c r="E78" t="n">
-        <v>251.8</v>
+        <v>257</v>
       </c>
       <c r="F78" t="n">
-        <v>21741.9537</v>
+        <v>125.8721</v>
       </c>
       <c r="G78" t="n">
-        <v>258.6649999999998</v>
+        <v>258.7166666666665</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3148,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>256.9</v>
+        <v>255.3</v>
       </c>
       <c r="C79" t="n">
-        <v>252.8</v>
+        <v>256.7</v>
       </c>
       <c r="D79" t="n">
-        <v>256.9</v>
+        <v>256.7</v>
       </c>
       <c r="E79" t="n">
-        <v>251.7</v>
+        <v>251.8</v>
       </c>
       <c r="F79" t="n">
-        <v>27976.328</v>
+        <v>21741.9537</v>
       </c>
       <c r="G79" t="n">
-        <v>258.6449999999999</v>
+        <v>258.6649999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3183,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>252.8</v>
+        <v>256.9</v>
       </c>
       <c r="C80" t="n">
         <v>252.8</v>
       </c>
       <c r="D80" t="n">
-        <v>252.8</v>
+        <v>256.9</v>
       </c>
       <c r="E80" t="n">
-        <v>252.8</v>
+        <v>251.7</v>
       </c>
       <c r="F80" t="n">
-        <v>4531.7674</v>
+        <v>27976.328</v>
       </c>
       <c r="G80" t="n">
-        <v>258.6249999999998</v>
+        <v>258.6449999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3218,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>252.7</v>
+        <v>252.8</v>
       </c>
       <c r="C81" t="n">
-        <v>251.7</v>
+        <v>252.8</v>
       </c>
       <c r="D81" t="n">
-        <v>252.7</v>
+        <v>252.8</v>
       </c>
       <c r="E81" t="n">
-        <v>251.7</v>
+        <v>252.8</v>
       </c>
       <c r="F81" t="n">
-        <v>9243.7415</v>
+        <v>4531.7674</v>
       </c>
       <c r="G81" t="n">
-        <v>258.5866666666665</v>
+        <v>258.6249999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3253,32 +3233,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9243.7415</v>
+      </c>
+      <c r="G82" t="n">
+        <v>258.5866666666665</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>252.8</v>
       </c>
-      <c r="C82" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="D82" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="E82" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1393.0889</v>
-      </c>
-      <c r="G82" t="n">
-        <v>258.5666666666665</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3288,32 +3274,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>253</v>
+        <v>252.8</v>
       </c>
       <c r="C83" t="n">
-        <v>252.9</v>
+        <v>252.8</v>
       </c>
       <c r="D83" t="n">
-        <v>253</v>
+        <v>252.8</v>
       </c>
       <c r="E83" t="n">
-        <v>252.9</v>
+        <v>252.8</v>
       </c>
       <c r="F83" t="n">
-        <v>5098.4658</v>
+        <v>1393.0889</v>
       </c>
       <c r="G83" t="n">
-        <v>258.5683333333332</v>
+        <v>258.5666666666665</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>251.7</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3326,29 +3318,35 @@
         <v>253</v>
       </c>
       <c r="C84" t="n">
-        <v>251.6</v>
+        <v>252.9</v>
       </c>
       <c r="D84" t="n">
         <v>253</v>
       </c>
       <c r="E84" t="n">
-        <v>251.6</v>
+        <v>252.9</v>
       </c>
       <c r="F84" t="n">
-        <v>20615.0056</v>
+        <v>5098.4658</v>
       </c>
       <c r="G84" t="n">
-        <v>258.5616666666666</v>
+        <v>258.5683333333332</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>252.8</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3358,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>251.6</v>
+        <v>253</v>
       </c>
       <c r="C85" t="n">
         <v>251.6</v>
       </c>
       <c r="D85" t="n">
-        <v>251.6</v>
+        <v>253</v>
       </c>
       <c r="E85" t="n">
         <v>251.6</v>
       </c>
       <c r="F85" t="n">
-        <v>2023.9882</v>
+        <v>20615.0056</v>
       </c>
       <c r="G85" t="n">
-        <v>258.5699999999999</v>
+        <v>258.5616666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3383,7 +3381,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3393,22 +3395,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>252.2</v>
+        <v>251.6</v>
       </c>
       <c r="C86" t="n">
-        <v>252.2</v>
+        <v>251.6</v>
       </c>
       <c r="D86" t="n">
-        <v>252.2</v>
+        <v>251.6</v>
       </c>
       <c r="E86" t="n">
-        <v>252.2</v>
+        <v>251.6</v>
       </c>
       <c r="F86" t="n">
-        <v>114.192</v>
+        <v>2023.9882</v>
       </c>
       <c r="G86" t="n">
-        <v>258.5649999999999</v>
+        <v>258.5699999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,7 +3420,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3428,22 +3434,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>252.1</v>
+        <v>252.2</v>
       </c>
       <c r="C87" t="n">
-        <v>251.8</v>
+        <v>252.2</v>
       </c>
       <c r="D87" t="n">
-        <v>252.1</v>
+        <v>252.2</v>
       </c>
       <c r="E87" t="n">
-        <v>251.8</v>
+        <v>252.2</v>
       </c>
       <c r="F87" t="n">
-        <v>2952.4348</v>
+        <v>114.192</v>
       </c>
       <c r="G87" t="n">
-        <v>258.5533333333332</v>
+        <v>258.5649999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,7 +3459,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3463,22 +3473,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>253.1</v>
+        <v>252.1</v>
       </c>
       <c r="C88" t="n">
-        <v>254.9</v>
+        <v>251.8</v>
       </c>
       <c r="D88" t="n">
-        <v>254.9</v>
+        <v>252.1</v>
       </c>
       <c r="E88" t="n">
         <v>251.8</v>
       </c>
       <c r="F88" t="n">
-        <v>4588.245</v>
+        <v>2952.4348</v>
       </c>
       <c r="G88" t="n">
-        <v>258.6016666666665</v>
+        <v>258.5533333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3488,7 +3498,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3512,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>254.7</v>
+        <v>253.1</v>
       </c>
       <c r="C89" t="n">
-        <v>254.7</v>
+        <v>254.9</v>
       </c>
       <c r="D89" t="n">
-        <v>254.7</v>
+        <v>254.9</v>
       </c>
       <c r="E89" t="n">
-        <v>254.7</v>
+        <v>251.8</v>
       </c>
       <c r="F89" t="n">
-        <v>131.495</v>
+        <v>4588.245</v>
       </c>
       <c r="G89" t="n">
-        <v>258.6383333333332</v>
+        <v>258.6016666666665</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3523,7 +3537,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3533,22 +3551,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>254.8</v>
+        <v>254.7</v>
       </c>
       <c r="C90" t="n">
-        <v>254.8</v>
+        <v>254.7</v>
       </c>
       <c r="D90" t="n">
-        <v>254.8</v>
+        <v>254.7</v>
       </c>
       <c r="E90" t="n">
-        <v>254.8</v>
+        <v>254.7</v>
       </c>
       <c r="F90" t="n">
-        <v>178.7614</v>
+        <v>131.495</v>
       </c>
       <c r="G90" t="n">
-        <v>258.5683333333332</v>
+        <v>258.6383333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3558,7 +3576,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3590,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>255.4</v>
+        <v>254.8</v>
       </c>
       <c r="C91" t="n">
-        <v>255.6</v>
+        <v>254.8</v>
       </c>
       <c r="D91" t="n">
-        <v>255.6</v>
+        <v>254.8</v>
       </c>
       <c r="E91" t="n">
-        <v>255.4</v>
+        <v>254.8</v>
       </c>
       <c r="F91" t="n">
-        <v>712.4325</v>
+        <v>178.7614</v>
       </c>
       <c r="G91" t="n">
-        <v>258.6099999999998</v>
+        <v>258.5683333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3593,7 +3615,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3603,22 +3629,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>255.7</v>
+        <v>255.4</v>
       </c>
       <c r="C92" t="n">
-        <v>255.7</v>
+        <v>255.6</v>
       </c>
       <c r="D92" t="n">
-        <v>255.7</v>
+        <v>255.6</v>
       </c>
       <c r="E92" t="n">
-        <v>255.7</v>
+        <v>255.4</v>
       </c>
       <c r="F92" t="n">
-        <v>78.4658</v>
+        <v>712.4325</v>
       </c>
       <c r="G92" t="n">
-        <v>258.6049999999998</v>
+        <v>258.6099999999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3628,7 +3654,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3638,22 +3668,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>256</v>
+        <v>255.7</v>
       </c>
       <c r="C93" t="n">
-        <v>252</v>
+        <v>255.7</v>
       </c>
       <c r="D93" t="n">
-        <v>256</v>
+        <v>255.7</v>
       </c>
       <c r="E93" t="n">
-        <v>252</v>
+        <v>255.7</v>
       </c>
       <c r="F93" t="n">
-        <v>15852.5197</v>
+        <v>78.4658</v>
       </c>
       <c r="G93" t="n">
-        <v>258.4899999999999</v>
+        <v>258.6049999999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3663,7 +3693,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3673,22 +3707,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C94" t="n">
         <v>252</v>
       </c>
       <c r="D94" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E94" t="n">
         <v>252</v>
       </c>
       <c r="F94" t="n">
-        <v>6309.2214</v>
+        <v>15852.5197</v>
       </c>
       <c r="G94" t="n">
-        <v>258.4066666666665</v>
+        <v>258.4899999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,7 +3732,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3708,22 +3746,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C95" t="n">
         <v>252</v>
       </c>
       <c r="D95" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E95" t="n">
         <v>252</v>
       </c>
       <c r="F95" t="n">
-        <v>4130.5344</v>
+        <v>6309.2214</v>
       </c>
       <c r="G95" t="n">
-        <v>258.2749999999999</v>
+        <v>258.4066666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3733,7 +3771,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3743,22 +3785,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>252.4</v>
+        <v>252</v>
       </c>
       <c r="C96" t="n">
-        <v>252.4</v>
+        <v>252</v>
       </c>
       <c r="D96" t="n">
-        <v>252.4</v>
+        <v>252</v>
       </c>
       <c r="E96" t="n">
-        <v>252.4</v>
+        <v>252</v>
       </c>
       <c r="F96" t="n">
-        <v>2281.2785</v>
+        <v>4130.5344</v>
       </c>
       <c r="G96" t="n">
-        <v>258.1499999999999</v>
+        <v>258.2749999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,7 +3810,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +3824,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>255.9</v>
+        <v>252.4</v>
       </c>
       <c r="C97" t="n">
-        <v>259.9</v>
+        <v>252.4</v>
       </c>
       <c r="D97" t="n">
-        <v>259.9</v>
+        <v>252.4</v>
       </c>
       <c r="E97" t="n">
-        <v>255.9</v>
+        <v>252.4</v>
       </c>
       <c r="F97" t="n">
-        <v>11615.63087029627</v>
+        <v>2281.2785</v>
       </c>
       <c r="G97" t="n">
-        <v>258.1516666666665</v>
+        <v>258.1499999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3803,7 +3849,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3813,22 +3863,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>258.7</v>
+        <v>255.9</v>
       </c>
       <c r="C98" t="n">
-        <v>258.7</v>
+        <v>259.9</v>
       </c>
       <c r="D98" t="n">
-        <v>258.7</v>
+        <v>259.9</v>
       </c>
       <c r="E98" t="n">
-        <v>258.7</v>
+        <v>255.9</v>
       </c>
       <c r="F98" t="n">
-        <v>80.2731</v>
+        <v>11615.63087029627</v>
       </c>
       <c r="G98" t="n">
-        <v>258.1299999999999</v>
+        <v>258.1516666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,7 +3888,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3860,10 +3914,10 @@
         <v>258.7</v>
       </c>
       <c r="F99" t="n">
-        <v>1089.2384</v>
+        <v>80.2731</v>
       </c>
       <c r="G99" t="n">
-        <v>258.1416666666666</v>
+        <v>258.1299999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3873,7 +3927,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3895,10 +3953,10 @@
         <v>258.7</v>
       </c>
       <c r="F100" t="n">
-        <v>4776.5931</v>
+        <v>1089.2384</v>
       </c>
       <c r="G100" t="n">
-        <v>258.1199999999999</v>
+        <v>258.1416666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,7 +3966,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3918,22 +3980,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>259</v>
+        <v>258.7</v>
       </c>
       <c r="C101" t="n">
-        <v>259</v>
+        <v>258.7</v>
       </c>
       <c r="D101" t="n">
-        <v>259</v>
+        <v>258.7</v>
       </c>
       <c r="E101" t="n">
-        <v>259</v>
+        <v>258.7</v>
       </c>
       <c r="F101" t="n">
-        <v>54.05405405405406</v>
+        <v>4776.5931</v>
       </c>
       <c r="G101" t="n">
-        <v>258.1049999999999</v>
+        <v>258.1199999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,7 +4005,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3965,10 +4031,10 @@
         <v>259</v>
       </c>
       <c r="F102" t="n">
-        <v>607.9877</v>
+        <v>54.05405405405406</v>
       </c>
       <c r="G102" t="n">
-        <v>258.0916666666666</v>
+        <v>258.1049999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3978,7 +4044,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +4058,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C103" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D103" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E103" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F103" t="n">
-        <v>1583.1398</v>
+        <v>607.9877</v>
       </c>
       <c r="G103" t="n">
-        <v>258.0583333333333</v>
+        <v>258.0916666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,7 +4083,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4023,22 +4097,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>257.9</v>
+        <v>256</v>
       </c>
       <c r="C104" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D104" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E104" t="n">
-        <v>257.9</v>
+        <v>256</v>
       </c>
       <c r="F104" t="n">
-        <v>4961.5893</v>
+        <v>1583.1398</v>
       </c>
       <c r="G104" t="n">
-        <v>258.0749999999999</v>
+        <v>258.0583333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4048,7 +4122,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +4136,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>259.5</v>
+        <v>257.9</v>
       </c>
       <c r="C105" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="D105" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="E105" t="n">
-        <v>259.5</v>
+        <v>257.9</v>
       </c>
       <c r="F105" t="n">
-        <v>778.2034</v>
+        <v>4961.5893</v>
       </c>
       <c r="G105" t="n">
-        <v>258.1333333333333</v>
+        <v>258.0749999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4083,7 +4161,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4096,19 +4178,19 @@
         <v>259.5</v>
       </c>
       <c r="C106" t="n">
-        <v>260</v>
+        <v>259.5</v>
       </c>
       <c r="D106" t="n">
-        <v>260</v>
+        <v>259.5</v>
       </c>
       <c r="E106" t="n">
         <v>259.5</v>
       </c>
       <c r="F106" t="n">
-        <v>3954.5364</v>
+        <v>778.2034</v>
       </c>
       <c r="G106" t="n">
-        <v>258.1833333333333</v>
+        <v>258.1333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4118,7 +4200,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4128,7 +4214,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>260</v>
+        <v>259.5</v>
       </c>
       <c r="C107" t="n">
         <v>260</v>
@@ -4137,10 +4223,10 @@
         <v>260</v>
       </c>
       <c r="E107" t="n">
-        <v>260</v>
+        <v>259.5</v>
       </c>
       <c r="F107" t="n">
-        <v>2869.5035</v>
+        <v>3954.5364</v>
       </c>
       <c r="G107" t="n">
         <v>258.1833333333333</v>
@@ -4153,7 +4239,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4175,7 +4265,7 @@
         <v>260</v>
       </c>
       <c r="F108" t="n">
-        <v>825</v>
+        <v>2869.5035</v>
       </c>
       <c r="G108" t="n">
         <v>258.1833333333333</v>
@@ -4188,7 +4278,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4201,19 +4295,19 @@
         <v>260</v>
       </c>
       <c r="C109" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D109" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E109" t="n">
         <v>260</v>
       </c>
       <c r="F109" t="n">
-        <v>9534.407800000001</v>
+        <v>825</v>
       </c>
       <c r="G109" t="n">
-        <v>258.1999999999999</v>
+        <v>258.1833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4223,7 +4317,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4233,7 +4331,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C110" t="n">
         <v>261</v>
@@ -4242,13 +4340,13 @@
         <v>261</v>
       </c>
       <c r="E110" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F110" t="n">
-        <v>0.08954594594594595</v>
+        <v>9534.407800000001</v>
       </c>
       <c r="G110" t="n">
-        <v>258.2333333333333</v>
+        <v>258.1999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4258,7 +4356,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4268,22 +4370,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>261.1</v>
+        <v>261</v>
       </c>
       <c r="C111" t="n">
         <v>261</v>
       </c>
       <c r="D111" t="n">
-        <v>261.1</v>
+        <v>261</v>
       </c>
       <c r="E111" t="n">
         <v>261</v>
       </c>
       <c r="F111" t="n">
-        <v>1707.694754054054</v>
+        <v>0.08954594594594595</v>
       </c>
       <c r="G111" t="n">
-        <v>258.2499999999999</v>
+        <v>258.2333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4293,7 +4395,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4303,10 +4409,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C112" t="n">
         <v>261</v>
-      </c>
-      <c r="C112" t="n">
-        <v>261.1</v>
       </c>
       <c r="D112" t="n">
         <v>261.1</v>
@@ -4315,10 +4421,10 @@
         <v>261</v>
       </c>
       <c r="F112" t="n">
-        <v>1280.853734201455</v>
+        <v>1707.694754054054</v>
       </c>
       <c r="G112" t="n">
-        <v>258.285</v>
+        <v>258.2499999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4328,7 +4434,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4338,22 +4448,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C113" t="n">
-        <v>258</v>
+        <v>261.1</v>
       </c>
       <c r="D113" t="n">
-        <v>258</v>
+        <v>261.1</v>
       </c>
       <c r="E113" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F113" t="n">
-        <v>6.6878</v>
+        <v>1280.853734201455</v>
       </c>
       <c r="G113" t="n">
-        <v>258.1033333333333</v>
+        <v>258.285</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4363,7 +4473,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4373,22 +4487,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>260.5</v>
+        <v>258</v>
       </c>
       <c r="C114" t="n">
-        <v>260.5</v>
+        <v>258</v>
       </c>
       <c r="D114" t="n">
-        <v>260.5</v>
+        <v>258</v>
       </c>
       <c r="E114" t="n">
-        <v>260.5</v>
+        <v>258</v>
       </c>
       <c r="F114" t="n">
-        <v>3.2657</v>
+        <v>6.6878</v>
       </c>
       <c r="G114" t="n">
-        <v>258.1866666666666</v>
+        <v>258.1033333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4398,7 +4512,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4408,22 +4526,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>258</v>
+        <v>260.5</v>
       </c>
       <c r="C115" t="n">
-        <v>258</v>
+        <v>260.5</v>
       </c>
       <c r="D115" t="n">
-        <v>258</v>
+        <v>260.5</v>
       </c>
       <c r="E115" t="n">
-        <v>258</v>
+        <v>260.5</v>
       </c>
       <c r="F115" t="n">
-        <v>2634.3705</v>
+        <v>3.2657</v>
       </c>
       <c r="G115" t="n">
-        <v>258.0733333333333</v>
+        <v>258.1866666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4433,7 +4551,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4455,10 +4577,10 @@
         <v>258</v>
       </c>
       <c r="F116" t="n">
-        <v>1975.7779</v>
+        <v>2634.3705</v>
       </c>
       <c r="G116" t="n">
-        <v>257.9916666666666</v>
+        <v>258.0733333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4468,7 +4590,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4478,22 +4604,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C117" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D117" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E117" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F117" t="n">
-        <v>1614.7472</v>
+        <v>1975.7779</v>
       </c>
       <c r="G117" t="n">
-        <v>258.0083333333333</v>
+        <v>257.9916666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4503,7 +4629,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4513,22 +4643,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>260.5</v>
+        <v>260</v>
       </c>
       <c r="C118" t="n">
-        <v>261.1</v>
+        <v>260</v>
       </c>
       <c r="D118" t="n">
-        <v>261.1</v>
+        <v>260</v>
       </c>
       <c r="E118" t="n">
-        <v>260.5</v>
+        <v>260</v>
       </c>
       <c r="F118" t="n">
-        <v>4109.9399</v>
+        <v>1614.7472</v>
       </c>
       <c r="G118" t="n">
-        <v>258.0933333333333</v>
+        <v>258.0083333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4538,7 +4668,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4548,7 +4682,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>261.1</v>
+        <v>260.5</v>
       </c>
       <c r="C119" t="n">
         <v>261.1</v>
@@ -4557,13 +4691,13 @@
         <v>261.1</v>
       </c>
       <c r="E119" t="n">
-        <v>261.1</v>
+        <v>260.5</v>
       </c>
       <c r="F119" t="n">
-        <v>10889.57936579855</v>
+        <v>4109.9399</v>
       </c>
       <c r="G119" t="n">
-        <v>258.0966666666666</v>
+        <v>258.0933333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4573,7 +4707,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4583,22 +4721,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>261.2</v>
+        <v>261.1</v>
       </c>
       <c r="C120" t="n">
         <v>261.1</v>
       </c>
       <c r="D120" t="n">
-        <v>261.2</v>
+        <v>261.1</v>
       </c>
       <c r="E120" t="n">
         <v>261.1</v>
       </c>
       <c r="F120" t="n">
-        <v>1280.8538</v>
+        <v>10889.57936579855</v>
       </c>
       <c r="G120" t="n">
-        <v>258.0983333333333</v>
+        <v>258.0966666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4608,7 +4746,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4621,19 +4763,19 @@
         <v>261.2</v>
       </c>
       <c r="C121" t="n">
-        <v>260</v>
+        <v>261.1</v>
       </c>
       <c r="D121" t="n">
         <v>261.2</v>
       </c>
       <c r="E121" t="n">
-        <v>260</v>
+        <v>261.1</v>
       </c>
       <c r="F121" t="n">
-        <v>3458.540734201456</v>
+        <v>1280.8538</v>
       </c>
       <c r="G121" t="n">
-        <v>258.0566666666667</v>
+        <v>258.0983333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4643,7 +4785,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4653,22 +4799,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>260</v>
+        <v>261.2</v>
       </c>
       <c r="C122" t="n">
         <v>260</v>
       </c>
       <c r="D122" t="n">
-        <v>260</v>
+        <v>261.2</v>
       </c>
       <c r="E122" t="n">
         <v>260</v>
       </c>
       <c r="F122" t="n">
-        <v>427.6412</v>
+        <v>3458.540734201456</v>
       </c>
       <c r="G122" t="n">
-        <v>257.9566666666666</v>
+        <v>258.0566666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4678,7 +4824,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4688,22 +4838,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>261.1</v>
+        <v>260</v>
       </c>
       <c r="C123" t="n">
-        <v>261.1</v>
+        <v>260</v>
       </c>
       <c r="D123" t="n">
-        <v>261.1</v>
+        <v>260</v>
       </c>
       <c r="E123" t="n">
-        <v>261.1</v>
+        <v>260</v>
       </c>
       <c r="F123" t="n">
-        <v>3254.346165798544</v>
+        <v>427.6412</v>
       </c>
       <c r="G123" t="n">
-        <v>257.975</v>
+        <v>257.9566666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4713,7 +4863,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4735,10 +4889,10 @@
         <v>261.1</v>
       </c>
       <c r="F124" t="n">
-        <v>1296.896134201455</v>
+        <v>3254.346165798544</v>
       </c>
       <c r="G124" t="n">
-        <v>257.9283333333333</v>
+        <v>257.975</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4748,7 +4902,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4758,22 +4916,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>263</v>
+        <v>261.1</v>
       </c>
       <c r="C125" t="n">
-        <v>263</v>
+        <v>261.1</v>
       </c>
       <c r="D125" t="n">
-        <v>263</v>
+        <v>261.1</v>
       </c>
       <c r="E125" t="n">
-        <v>263</v>
+        <v>261.1</v>
       </c>
       <c r="F125" t="n">
-        <v>1775.9705</v>
+        <v>1296.896134201455</v>
       </c>
       <c r="G125" t="n">
-        <v>257.895</v>
+        <v>257.9283333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4783,7 +4941,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4805,10 +4967,10 @@
         <v>263</v>
       </c>
       <c r="F126" t="n">
-        <v>2541.578</v>
+        <v>1775.9705</v>
       </c>
       <c r="G126" t="n">
-        <v>257.855</v>
+        <v>257.895</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4818,7 +4980,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4828,22 +4994,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C127" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D127" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E127" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F127" t="n">
-        <v>115.6215</v>
+        <v>2541.578</v>
       </c>
       <c r="G127" t="n">
-        <v>257.7833333333334</v>
+        <v>257.855</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4853,7 +5019,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4863,22 +5033,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C128" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D128" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E128" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F128" t="n">
-        <v>12683.1616</v>
+        <v>115.6215</v>
       </c>
       <c r="G128" t="n">
-        <v>257.8333333333334</v>
+        <v>257.7833333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4888,7 +5058,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4898,22 +5072,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C129" t="n">
+        <v>264</v>
+      </c>
+      <c r="D129" t="n">
+        <v>265</v>
+      </c>
+      <c r="E129" t="n">
         <v>263</v>
       </c>
-      <c r="D129" t="n">
-        <v>263</v>
-      </c>
-      <c r="E129" t="n">
-        <v>262</v>
-      </c>
       <c r="F129" t="n">
-        <v>36.7144</v>
+        <v>12683.1616</v>
       </c>
       <c r="G129" t="n">
-        <v>257.85</v>
+        <v>257.8333333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4923,7 +5097,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4933,7 +5111,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C130" t="n">
         <v>263</v>
@@ -4942,13 +5120,13 @@
         <v>263</v>
       </c>
       <c r="E130" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F130" t="n">
-        <v>767.6428</v>
+        <v>36.7144</v>
       </c>
       <c r="G130" t="n">
-        <v>257.8983333333334</v>
+        <v>257.85</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4958,7 +5136,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4968,22 +5150,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C131" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D131" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E131" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F131" t="n">
-        <v>2453.9435</v>
+        <v>767.6428</v>
       </c>
       <c r="G131" t="n">
-        <v>257.9316666666667</v>
+        <v>257.8983333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4993,7 +5175,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5003,22 +5189,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C132" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D132" t="n">
-        <v>268.5</v>
+        <v>264</v>
       </c>
       <c r="E132" t="n">
         <v>264</v>
       </c>
       <c r="F132" t="n">
-        <v>9660.690489348231</v>
+        <v>2453.9435</v>
       </c>
       <c r="G132" t="n">
-        <v>258.0483333333333</v>
+        <v>257.9316666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5028,7 +5214,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5038,22 +5228,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C133" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D133" t="n">
-        <v>264</v>
+        <v>268.5</v>
       </c>
       <c r="E133" t="n">
         <v>264</v>
       </c>
       <c r="F133" t="n">
-        <v>8.9312</v>
+        <v>9660.690489348231</v>
       </c>
       <c r="G133" t="n">
-        <v>258.1133333333333</v>
+        <v>258.0483333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5063,7 +5253,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5073,22 +5267,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="C134" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="D134" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="E134" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="F134" t="n">
-        <v>881.3</v>
+        <v>8.9312</v>
       </c>
       <c r="G134" t="n">
-        <v>258.22</v>
+        <v>258.1133333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5098,7 +5292,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5108,22 +5306,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>266.5</v>
+        <v>266.4</v>
       </c>
       <c r="C135" t="n">
-        <v>268.5</v>
+        <v>266.4</v>
       </c>
       <c r="D135" t="n">
-        <v>268.8</v>
+        <v>266.4</v>
       </c>
       <c r="E135" t="n">
-        <v>266.5</v>
+        <v>266.4</v>
       </c>
       <c r="F135" t="n">
-        <v>4950.079410651769</v>
+        <v>881.3</v>
       </c>
       <c r="G135" t="n">
-        <v>258.425</v>
+        <v>258.22</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5133,7 +5331,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5143,22 +5345,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="C136" t="n">
         <v>268.5</v>
       </c>
-      <c r="C136" t="n">
-        <v>270.9</v>
-      </c>
       <c r="D136" t="n">
-        <v>270.9</v>
+        <v>268.8</v>
       </c>
       <c r="E136" t="n">
-        <v>268.5</v>
+        <v>266.5</v>
       </c>
       <c r="F136" t="n">
-        <v>8293.9863</v>
+        <v>4950.079410651769</v>
       </c>
       <c r="G136" t="n">
-        <v>258.6233333333333</v>
+        <v>258.425</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5168,7 +5370,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5178,22 +5384,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>269</v>
+        <v>268.5</v>
       </c>
       <c r="C137" t="n">
-        <v>269</v>
+        <v>270.9</v>
       </c>
       <c r="D137" t="n">
-        <v>269</v>
+        <v>270.9</v>
       </c>
       <c r="E137" t="n">
-        <v>269</v>
+        <v>268.5</v>
       </c>
       <c r="F137" t="n">
-        <v>2667.3583</v>
+        <v>8293.9863</v>
       </c>
       <c r="G137" t="n">
-        <v>258.8233333333333</v>
+        <v>258.6233333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5203,7 +5409,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5213,22 +5423,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>270.8</v>
+        <v>269</v>
       </c>
       <c r="C138" t="n">
-        <v>272.4</v>
+        <v>269</v>
       </c>
       <c r="D138" t="n">
-        <v>272.4</v>
+        <v>269</v>
       </c>
       <c r="E138" t="n">
-        <v>270.8</v>
+        <v>269</v>
       </c>
       <c r="F138" t="n">
-        <v>6136.4167</v>
+        <v>2667.3583</v>
       </c>
       <c r="G138" t="n">
-        <v>259.085</v>
+        <v>258.8233333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5238,7 +5448,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5248,22 +5462,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>270</v>
+        <v>270.8</v>
       </c>
       <c r="C139" t="n">
-        <v>270</v>
+        <v>272.4</v>
       </c>
       <c r="D139" t="n">
-        <v>270</v>
+        <v>272.4</v>
       </c>
       <c r="E139" t="n">
-        <v>270</v>
+        <v>270.8</v>
       </c>
       <c r="F139" t="n">
-        <v>2033.0999</v>
+        <v>6136.4167</v>
       </c>
       <c r="G139" t="n">
-        <v>259.3716666666667</v>
+        <v>259.085</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5273,7 +5487,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5283,22 +5501,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>271.4</v>
+        <v>270</v>
       </c>
       <c r="C140" t="n">
-        <v>274.9</v>
+        <v>270</v>
       </c>
       <c r="D140" t="n">
-        <v>274.9</v>
+        <v>270</v>
       </c>
       <c r="E140" t="n">
-        <v>271.4</v>
+        <v>270</v>
       </c>
       <c r="F140" t="n">
-        <v>11274.0795</v>
+        <v>2033.0999</v>
       </c>
       <c r="G140" t="n">
-        <v>259.74</v>
+        <v>259.3716666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5308,7 +5526,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5318,57 +5540,59 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="C141" t="n">
         <v>274.9</v>
       </c>
-      <c r="C141" t="n">
-        <v>275</v>
-      </c>
       <c r="D141" t="n">
-        <v>275</v>
+        <v>274.9</v>
       </c>
       <c r="E141" t="n">
-        <v>274.9</v>
+        <v>271.4</v>
       </c>
       <c r="F141" t="n">
-        <v>1915.0178</v>
+        <v>11274.0795</v>
       </c>
       <c r="G141" t="n">
-        <v>260.1283333333333</v>
+        <v>259.74</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>273</v>
+        <v>274.9</v>
       </c>
       <c r="C142" t="n">
-        <v>272.1</v>
+        <v>275</v>
       </c>
       <c r="D142" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E142" t="n">
-        <v>272.1</v>
+        <v>274.9</v>
       </c>
       <c r="F142" t="n">
-        <v>3130.7452</v>
+        <v>1915.0178</v>
       </c>
       <c r="G142" t="n">
-        <v>260.45</v>
+        <v>260.1283333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5388,22 +5612,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C143" t="n">
-        <v>266.6</v>
+        <v>272.1</v>
       </c>
       <c r="D143" t="n">
+        <v>273</v>
+      </c>
+      <c r="E143" t="n">
         <v>272.1</v>
       </c>
-      <c r="E143" t="n">
-        <v>266.6</v>
-      </c>
       <c r="F143" t="n">
-        <v>23628.7569</v>
+        <v>3130.7452</v>
       </c>
       <c r="G143" t="n">
-        <v>260.6783333333333</v>
+        <v>260.45</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5423,28 +5647,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C144" t="n">
         <v>266.6</v>
       </c>
       <c r="D144" t="n">
-        <v>268</v>
+        <v>272.1</v>
       </c>
       <c r="E144" t="n">
         <v>266.6</v>
       </c>
       <c r="F144" t="n">
-        <v>1455.5801</v>
+        <v>23628.7569</v>
       </c>
       <c r="G144" t="n">
-        <v>260.9283333333333</v>
+        <v>260.6783333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5461,19 +5685,19 @@
         <v>268</v>
       </c>
       <c r="C145" t="n">
-        <v>268</v>
+        <v>266.6</v>
       </c>
       <c r="D145" t="n">
         <v>268</v>
       </c>
       <c r="E145" t="n">
-        <v>268</v>
+        <v>266.6</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>1455.5801</v>
       </c>
       <c r="G145" t="n">
-        <v>261.2016666666667</v>
+        <v>260.9283333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5496,19 +5720,19 @@
         <v>268</v>
       </c>
       <c r="C146" t="n">
-        <v>266.4</v>
+        <v>268</v>
       </c>
       <c r="D146" t="n">
         <v>268</v>
       </c>
       <c r="E146" t="n">
-        <v>266.4</v>
+        <v>268</v>
       </c>
       <c r="F146" t="n">
-        <v>9282.0591</v>
+        <v>2</v>
       </c>
       <c r="G146" t="n">
-        <v>261.4383333333333</v>
+        <v>261.2016666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5528,22 +5752,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>266.4</v>
+        <v>268</v>
       </c>
       <c r="C147" t="n">
         <v>266.4</v>
       </c>
       <c r="D147" t="n">
-        <v>266.4</v>
+        <v>268</v>
       </c>
       <c r="E147" t="n">
         <v>266.4</v>
       </c>
       <c r="F147" t="n">
-        <v>344.1333</v>
+        <v>9282.0591</v>
       </c>
       <c r="G147" t="n">
-        <v>261.6816666666667</v>
+        <v>261.4383333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5563,22 +5787,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>265</v>
+        <v>266.4</v>
       </c>
       <c r="C148" t="n">
-        <v>264</v>
+        <v>266.4</v>
       </c>
       <c r="D148" t="n">
-        <v>265</v>
+        <v>266.4</v>
       </c>
       <c r="E148" t="n">
-        <v>264</v>
+        <v>266.4</v>
       </c>
       <c r="F148" t="n">
-        <v>4</v>
+        <v>344.1333</v>
       </c>
       <c r="G148" t="n">
-        <v>261.8333333333333</v>
+        <v>261.6816666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5601,19 +5825,19 @@
         <v>265</v>
       </c>
       <c r="C149" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D149" t="n">
         <v>265</v>
       </c>
       <c r="E149" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G149" t="n">
-        <v>262.005</v>
+        <v>261.8333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5633,22 +5857,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>264.9</v>
+        <v>265</v>
       </c>
       <c r="C150" t="n">
-        <v>263.8</v>
+        <v>265</v>
       </c>
       <c r="D150" t="n">
-        <v>264.9</v>
+        <v>265</v>
       </c>
       <c r="E150" t="n">
-        <v>263.8</v>
+        <v>265</v>
       </c>
       <c r="F150" t="n">
-        <v>3213.2815</v>
+        <v>2</v>
       </c>
       <c r="G150" t="n">
-        <v>262.155</v>
+        <v>262.005</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5668,22 +5892,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>263.7</v>
+        <v>264.9</v>
       </c>
       <c r="C151" t="n">
-        <v>263.7</v>
+        <v>263.8</v>
       </c>
       <c r="D151" t="n">
-        <v>263.7</v>
+        <v>264.9</v>
       </c>
       <c r="E151" t="n">
-        <v>263.7</v>
+        <v>263.8</v>
       </c>
       <c r="F151" t="n">
-        <v>644.598</v>
+        <v>3213.2815</v>
       </c>
       <c r="G151" t="n">
-        <v>262.29</v>
+        <v>262.155</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5703,22 +5927,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>263.8</v>
+        <v>263.7</v>
       </c>
       <c r="C152" t="n">
-        <v>263.8</v>
+        <v>263.7</v>
       </c>
       <c r="D152" t="n">
-        <v>263.8</v>
+        <v>263.7</v>
       </c>
       <c r="E152" t="n">
-        <v>263.8</v>
+        <v>263.7</v>
       </c>
       <c r="F152" t="n">
-        <v>665.3638</v>
+        <v>644.598</v>
       </c>
       <c r="G152" t="n">
-        <v>262.425</v>
+        <v>262.29</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5750,10 +5974,10 @@
         <v>263.8</v>
       </c>
       <c r="F153" t="n">
-        <v>1310.2062</v>
+        <v>665.3638</v>
       </c>
       <c r="G153" t="n">
-        <v>262.6216666666666</v>
+        <v>262.425</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5773,22 +5997,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>262.4</v>
+        <v>263.8</v>
       </c>
       <c r="C154" t="n">
-        <v>260</v>
+        <v>263.8</v>
       </c>
       <c r="D154" t="n">
-        <v>262.4</v>
+        <v>263.8</v>
       </c>
       <c r="E154" t="n">
-        <v>260</v>
+        <v>263.8</v>
       </c>
       <c r="F154" t="n">
-        <v>3000</v>
+        <v>1310.2062</v>
       </c>
       <c r="G154" t="n">
-        <v>262.7549999999999</v>
+        <v>262.6216666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5808,22 +6032,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>261</v>
+        <v>262.4</v>
       </c>
       <c r="C155" t="n">
-        <v>257.1</v>
+        <v>260</v>
       </c>
       <c r="D155" t="n">
-        <v>261</v>
+        <v>262.4</v>
       </c>
       <c r="E155" t="n">
-        <v>257.1</v>
+        <v>260</v>
       </c>
       <c r="F155" t="n">
-        <v>4127.8634</v>
+        <v>3000</v>
       </c>
       <c r="G155" t="n">
-        <v>262.84</v>
+        <v>262.7549999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5843,22 +6067,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>257.1</v>
+        <v>261</v>
       </c>
       <c r="C156" t="n">
         <v>257.1</v>
       </c>
       <c r="D156" t="n">
-        <v>257.1</v>
+        <v>261</v>
       </c>
       <c r="E156" t="n">
         <v>257.1</v>
       </c>
       <c r="F156" t="n">
-        <v>613.6344</v>
+        <v>4127.8634</v>
       </c>
       <c r="G156" t="n">
-        <v>262.9183333333333</v>
+        <v>262.84</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5890,10 +6114,10 @@
         <v>257.1</v>
       </c>
       <c r="F157" t="n">
-        <v>5000</v>
+        <v>613.6344</v>
       </c>
       <c r="G157" t="n">
-        <v>262.8716666666667</v>
+        <v>262.9183333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5913,22 +6137,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>259.3</v>
+        <v>257.1</v>
       </c>
       <c r="C158" t="n">
-        <v>259.3</v>
+        <v>257.1</v>
       </c>
       <c r="D158" t="n">
-        <v>259.3</v>
+        <v>257.1</v>
       </c>
       <c r="E158" t="n">
-        <v>259.3</v>
+        <v>257.1</v>
       </c>
       <c r="F158" t="n">
-        <v>177.2337</v>
+        <v>5000</v>
       </c>
       <c r="G158" t="n">
-        <v>262.8816666666666</v>
+        <v>262.8716666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5948,22 +6172,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>259.4</v>
+        <v>259.3</v>
       </c>
       <c r="C159" t="n">
-        <v>259.4</v>
+        <v>259.3</v>
       </c>
       <c r="D159" t="n">
-        <v>259.4</v>
+        <v>259.3</v>
       </c>
       <c r="E159" t="n">
-        <v>259.4</v>
+        <v>259.3</v>
       </c>
       <c r="F159" t="n">
-        <v>245.714</v>
+        <v>177.2337</v>
       </c>
       <c r="G159" t="n">
-        <v>262.8933333333333</v>
+        <v>262.8816666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5983,22 +6207,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>264.8</v>
+        <v>259.4</v>
       </c>
       <c r="C160" t="n">
-        <v>264.8</v>
+        <v>259.4</v>
       </c>
       <c r="D160" t="n">
-        <v>264.8</v>
+        <v>259.4</v>
       </c>
       <c r="E160" t="n">
-        <v>264.8</v>
+        <v>259.4</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>245.714</v>
       </c>
       <c r="G160" t="n">
-        <v>262.9949999999999</v>
+        <v>262.8933333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6018,22 +6242,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>263.5</v>
+        <v>264.8</v>
       </c>
       <c r="C161" t="n">
-        <v>261.2</v>
+        <v>264.8</v>
       </c>
       <c r="D161" t="n">
-        <v>263.5</v>
+        <v>264.8</v>
       </c>
       <c r="E161" t="n">
-        <v>261.2</v>
+        <v>264.8</v>
       </c>
       <c r="F161" t="n">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="G161" t="n">
-        <v>263.0316666666666</v>
+        <v>262.9949999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6053,22 +6277,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="C162" t="n">
         <v>261.2</v>
       </c>
-      <c r="C162" t="n">
-        <v>261.1</v>
-      </c>
       <c r="D162" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="E162" t="n">
         <v>261.2</v>
       </c>
-      <c r="E162" t="n">
-        <v>261.1</v>
-      </c>
       <c r="F162" t="n">
-        <v>3902.2776</v>
+        <v>5000</v>
       </c>
       <c r="G162" t="n">
-        <v>263.0666666666666</v>
+        <v>263.0316666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6088,22 +6312,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>262</v>
+        <v>261.2</v>
       </c>
       <c r="C163" t="n">
-        <v>262.9</v>
+        <v>261.1</v>
       </c>
       <c r="D163" t="n">
-        <v>262.9</v>
+        <v>261.2</v>
       </c>
       <c r="E163" t="n">
-        <v>262</v>
+        <v>261.1</v>
       </c>
       <c r="F163" t="n">
-        <v>1312.999</v>
+        <v>3902.2776</v>
       </c>
       <c r="G163" t="n">
-        <v>263.1816666666666</v>
+        <v>263.0666666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6126,19 +6350,19 @@
         <v>262</v>
       </c>
       <c r="C164" t="n">
-        <v>261.2</v>
+        <v>262.9</v>
       </c>
       <c r="D164" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="E164" t="n">
         <v>262</v>
       </c>
-      <c r="E164" t="n">
-        <v>261.2</v>
-      </c>
       <c r="F164" t="n">
-        <v>17849.3587</v>
+        <v>1312.999</v>
       </c>
       <c r="G164" t="n">
-        <v>263.2016666666666</v>
+        <v>263.1816666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6158,22 +6382,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>261.2</v>
+        <v>262</v>
       </c>
       <c r="C165" t="n">
         <v>261.2</v>
       </c>
       <c r="D165" t="n">
-        <v>261.2</v>
+        <v>262</v>
       </c>
       <c r="E165" t="n">
         <v>261.2</v>
       </c>
       <c r="F165" t="n">
-        <v>35565.2385</v>
+        <v>17849.3587</v>
       </c>
       <c r="G165" t="n">
-        <v>263.23</v>
+        <v>263.2016666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6193,22 +6417,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>262</v>
+        <v>261.2</v>
       </c>
       <c r="C166" t="n">
-        <v>263</v>
+        <v>261.2</v>
       </c>
       <c r="D166" t="n">
-        <v>263</v>
+        <v>261.2</v>
       </c>
       <c r="E166" t="n">
-        <v>262</v>
+        <v>261.2</v>
       </c>
       <c r="F166" t="n">
-        <v>156812</v>
+        <v>35565.2385</v>
       </c>
       <c r="G166" t="n">
-        <v>263.28</v>
+        <v>263.23</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6228,22 +6452,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>261.2</v>
+        <v>262</v>
       </c>
       <c r="C167" t="n">
-        <v>261.2</v>
+        <v>263</v>
       </c>
       <c r="D167" t="n">
-        <v>261.2</v>
+        <v>263</v>
       </c>
       <c r="E167" t="n">
-        <v>261.2</v>
+        <v>262</v>
       </c>
       <c r="F167" t="n">
-        <v>185.0191</v>
+        <v>156812</v>
       </c>
       <c r="G167" t="n">
-        <v>263.3</v>
+        <v>263.28</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6275,10 +6499,10 @@
         <v>261.2</v>
       </c>
       <c r="F168" t="n">
-        <v>806.8221</v>
+        <v>185.0191</v>
       </c>
       <c r="G168" t="n">
-        <v>263.32</v>
+        <v>263.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6301,16 +6525,16 @@
         <v>261.2</v>
       </c>
       <c r="C169" t="n">
-        <v>261</v>
+        <v>261.2</v>
       </c>
       <c r="D169" t="n">
         <v>261.2</v>
       </c>
       <c r="E169" t="n">
-        <v>261</v>
+        <v>261.2</v>
       </c>
       <c r="F169" t="n">
-        <v>15814.1074</v>
+        <v>806.8221</v>
       </c>
       <c r="G169" t="n">
         <v>263.32</v>
@@ -6336,7 +6560,7 @@
         <v>261.2</v>
       </c>
       <c r="C170" t="n">
-        <v>261.2</v>
+        <v>261</v>
       </c>
       <c r="D170" t="n">
         <v>261.2</v>
@@ -6345,10 +6569,10 @@
         <v>261</v>
       </c>
       <c r="F170" t="n">
-        <v>3262.4683</v>
+        <v>15814.1074</v>
       </c>
       <c r="G170" t="n">
-        <v>263.3233333333333</v>
+        <v>263.32</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6368,7 +6592,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>261</v>
+        <v>261.2</v>
       </c>
       <c r="C171" t="n">
         <v>261.2</v>
@@ -6380,10 +6604,10 @@
         <v>261</v>
       </c>
       <c r="F171" t="n">
-        <v>8612.3932</v>
+        <v>3262.4683</v>
       </c>
       <c r="G171" t="n">
-        <v>263.3266666666667</v>
+        <v>263.3233333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6403,22 +6627,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>263.8</v>
+        <v>261</v>
       </c>
       <c r="C172" t="n">
-        <v>263.8</v>
+        <v>261.2</v>
       </c>
       <c r="D172" t="n">
-        <v>263.8</v>
+        <v>261.2</v>
       </c>
       <c r="E172" t="n">
-        <v>263.8</v>
+        <v>261</v>
       </c>
       <c r="F172" t="n">
-        <v>5.0883</v>
+        <v>8612.3932</v>
       </c>
       <c r="G172" t="n">
-        <v>263.3716666666667</v>
+        <v>263.3266666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6438,22 +6662,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>261.2</v>
+        <v>263.8</v>
       </c>
       <c r="C173" t="n">
-        <v>259</v>
+        <v>263.8</v>
       </c>
       <c r="D173" t="n">
-        <v>261.2</v>
+        <v>263.8</v>
       </c>
       <c r="E173" t="n">
-        <v>259</v>
+        <v>263.8</v>
       </c>
       <c r="F173" t="n">
-        <v>20664.8144</v>
+        <v>5.0883</v>
       </c>
       <c r="G173" t="n">
-        <v>263.3883333333333</v>
+        <v>263.3716666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6473,22 +6697,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>259.7</v>
+        <v>261.2</v>
       </c>
       <c r="C174" t="n">
-        <v>259.7</v>
+        <v>259</v>
       </c>
       <c r="D174" t="n">
-        <v>259.7</v>
+        <v>261.2</v>
       </c>
       <c r="E174" t="n">
-        <v>259.7</v>
+        <v>259</v>
       </c>
       <c r="F174" t="n">
-        <v>78.4032</v>
+        <v>20664.8144</v>
       </c>
       <c r="G174" t="n">
-        <v>263.375</v>
+        <v>263.3883333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6508,22 +6732,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>260</v>
+        <v>259.7</v>
       </c>
       <c r="C175" t="n">
-        <v>260</v>
+        <v>259.7</v>
       </c>
       <c r="D175" t="n">
-        <v>260</v>
+        <v>259.7</v>
       </c>
       <c r="E175" t="n">
-        <v>260</v>
+        <v>259.7</v>
       </c>
       <c r="F175" t="n">
-        <v>10000</v>
+        <v>78.4032</v>
       </c>
       <c r="G175" t="n">
-        <v>263.4083333333334</v>
+        <v>263.375</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6555,10 +6779,10 @@
         <v>260</v>
       </c>
       <c r="F176" t="n">
-        <v>5201.35</v>
+        <v>10000</v>
       </c>
       <c r="G176" t="n">
-        <v>263.4416666666667</v>
+        <v>263.4083333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6578,19 +6802,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>261.5</v>
+        <v>260</v>
       </c>
       <c r="C177" t="n">
         <v>260</v>
       </c>
       <c r="D177" t="n">
-        <v>261.5</v>
+        <v>260</v>
       </c>
       <c r="E177" t="n">
         <v>260</v>
       </c>
       <c r="F177" t="n">
-        <v>15172.6133</v>
+        <v>5201.35</v>
       </c>
       <c r="G177" t="n">
         <v>263.4416666666667</v>
@@ -6613,22 +6837,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>260</v>
+        <v>261.5</v>
       </c>
       <c r="C178" t="n">
         <v>260</v>
       </c>
       <c r="D178" t="n">
-        <v>260</v>
+        <v>261.5</v>
       </c>
       <c r="E178" t="n">
         <v>260</v>
       </c>
       <c r="F178" t="n">
-        <v>2397.4736</v>
+        <v>15172.6133</v>
       </c>
       <c r="G178" t="n">
-        <v>263.4233333333333</v>
+        <v>263.4416666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6872,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>263.6</v>
+        <v>260</v>
       </c>
       <c r="C179" t="n">
-        <v>263.6</v>
+        <v>260</v>
       </c>
       <c r="D179" t="n">
-        <v>263.6</v>
+        <v>260</v>
       </c>
       <c r="E179" t="n">
-        <v>263.6</v>
+        <v>260</v>
       </c>
       <c r="F179" t="n">
-        <v>4638.6534</v>
+        <v>2397.4736</v>
       </c>
       <c r="G179" t="n">
-        <v>263.465</v>
+        <v>263.4233333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6683,22 +6907,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>260.5</v>
+        <v>263.6</v>
       </c>
       <c r="C180" t="n">
-        <v>259.1</v>
+        <v>263.6</v>
       </c>
       <c r="D180" t="n">
-        <v>260.5</v>
+        <v>263.6</v>
       </c>
       <c r="E180" t="n">
-        <v>259.1</v>
+        <v>263.6</v>
       </c>
       <c r="F180" t="n">
-        <v>23529.2603</v>
+        <v>4638.6534</v>
       </c>
       <c r="G180" t="n">
-        <v>263.4316666666667</v>
+        <v>263.465</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6718,22 +6942,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>261.1</v>
+        <v>260.5</v>
       </c>
       <c r="C181" t="n">
-        <v>261.1</v>
+        <v>259.1</v>
       </c>
       <c r="D181" t="n">
-        <v>261.1</v>
+        <v>260.5</v>
       </c>
       <c r="E181" t="n">
-        <v>261.1</v>
+        <v>259.1</v>
       </c>
       <c r="F181" t="n">
-        <v>318.8897</v>
+        <v>23529.2603</v>
       </c>
       <c r="G181" t="n">
-        <v>263.45</v>
+        <v>263.4316666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6765,10 +6989,10 @@
         <v>261.1</v>
       </c>
       <c r="F182" t="n">
-        <v>1815.5037</v>
+        <v>318.8897</v>
       </c>
       <c r="G182" t="n">
-        <v>263.4683333333334</v>
+        <v>263.45</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6788,22 +7012,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>259.2</v>
+        <v>261.1</v>
       </c>
       <c r="C183" t="n">
-        <v>259.2</v>
+        <v>261.1</v>
       </c>
       <c r="D183" t="n">
-        <v>259.2</v>
+        <v>261.1</v>
       </c>
       <c r="E183" t="n">
-        <v>259.2</v>
+        <v>261.1</v>
       </c>
       <c r="F183" t="n">
-        <v>2232.4311</v>
+        <v>1815.5037</v>
       </c>
       <c r="G183" t="n">
-        <v>263.4366666666667</v>
+        <v>263.4683333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6823,22 +7047,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>259</v>
+        <v>259.2</v>
       </c>
       <c r="C184" t="n">
-        <v>259</v>
+        <v>259.2</v>
       </c>
       <c r="D184" t="n">
-        <v>259</v>
+        <v>259.2</v>
       </c>
       <c r="E184" t="n">
-        <v>259</v>
+        <v>259.2</v>
       </c>
       <c r="F184" t="n">
-        <v>2410.5885</v>
+        <v>2232.4311</v>
       </c>
       <c r="G184" t="n">
-        <v>263.4016666666667</v>
+        <v>263.4366666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6867,13 +7091,13 @@
         <v>259</v>
       </c>
       <c r="E185" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F185" t="n">
-        <v>9534.9823</v>
+        <v>2410.5885</v>
       </c>
       <c r="G185" t="n">
-        <v>263.335</v>
+        <v>263.4016666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6893,22 +7117,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>257.6</v>
+        <v>259</v>
       </c>
       <c r="C186" t="n">
-        <v>257.6</v>
+        <v>259</v>
       </c>
       <c r="D186" t="n">
-        <v>257.6</v>
+        <v>259</v>
       </c>
       <c r="E186" t="n">
-        <v>257.6</v>
+        <v>258</v>
       </c>
       <c r="F186" t="n">
-        <v>372.1385</v>
+        <v>9534.9823</v>
       </c>
       <c r="G186" t="n">
-        <v>263.245</v>
+        <v>263.335</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6928,22 +7152,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>259</v>
+        <v>257.6</v>
       </c>
       <c r="C187" t="n">
-        <v>259</v>
+        <v>257.6</v>
       </c>
       <c r="D187" t="n">
-        <v>259</v>
+        <v>257.6</v>
       </c>
       <c r="E187" t="n">
-        <v>259</v>
+        <v>257.6</v>
       </c>
       <c r="F187" t="n">
-        <v>799.3715</v>
+        <v>372.1385</v>
       </c>
       <c r="G187" t="n">
-        <v>263.2116666666667</v>
+        <v>263.245</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6966,19 +7190,19 @@
         <v>259</v>
       </c>
       <c r="C188" t="n">
-        <v>258.4</v>
+        <v>259</v>
       </c>
       <c r="D188" t="n">
         <v>259</v>
       </c>
       <c r="E188" t="n">
-        <v>258.4</v>
+        <v>259</v>
       </c>
       <c r="F188" t="n">
-        <v>5807.5289</v>
+        <v>799.3715</v>
       </c>
       <c r="G188" t="n">
-        <v>263.1183333333333</v>
+        <v>263.2116666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6998,22 +7222,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>259.2</v>
+        <v>259</v>
       </c>
       <c r="C189" t="n">
-        <v>259.2</v>
+        <v>258.4</v>
       </c>
       <c r="D189" t="n">
-        <v>259.2</v>
+        <v>259</v>
       </c>
       <c r="E189" t="n">
-        <v>259.2</v>
+        <v>258.4</v>
       </c>
       <c r="F189" t="n">
-        <v>29.6314</v>
+        <v>5807.5289</v>
       </c>
       <c r="G189" t="n">
-        <v>263.055</v>
+        <v>263.1183333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7033,22 +7257,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>263.8</v>
+        <v>259.2</v>
       </c>
       <c r="C190" t="n">
-        <v>263.9</v>
+        <v>259.2</v>
       </c>
       <c r="D190" t="n">
-        <v>263.9</v>
+        <v>259.2</v>
       </c>
       <c r="E190" t="n">
-        <v>263.8</v>
+        <v>259.2</v>
       </c>
       <c r="F190" t="n">
-        <v>500</v>
+        <v>29.6314</v>
       </c>
       <c r="G190" t="n">
-        <v>263.07</v>
+        <v>263.055</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7068,7 +7292,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>263.9</v>
+        <v>263.8</v>
       </c>
       <c r="C191" t="n">
         <v>263.9</v>
@@ -7077,13 +7301,13 @@
         <v>263.9</v>
       </c>
       <c r="E191" t="n">
-        <v>263.9</v>
+        <v>263.8</v>
       </c>
       <c r="F191" t="n">
-        <v>5218.5339</v>
+        <v>500</v>
       </c>
       <c r="G191" t="n">
-        <v>263.0683333333333</v>
+        <v>263.07</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7103,22 +7327,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>262</v>
+        <v>263.9</v>
       </c>
       <c r="C192" t="n">
-        <v>261</v>
+        <v>263.9</v>
       </c>
       <c r="D192" t="n">
-        <v>262</v>
+        <v>263.9</v>
       </c>
       <c r="E192" t="n">
-        <v>261</v>
+        <v>263.9</v>
       </c>
       <c r="F192" t="n">
-        <v>1595.5452</v>
+        <v>5218.5339</v>
       </c>
       <c r="G192" t="n">
-        <v>263.0016666666667</v>
+        <v>263.0683333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7138,22 +7362,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>262.8</v>
+        <v>262</v>
       </c>
       <c r="C193" t="n">
-        <v>262.8</v>
+        <v>261</v>
       </c>
       <c r="D193" t="n">
-        <v>262.8</v>
+        <v>262</v>
       </c>
       <c r="E193" t="n">
-        <v>262.8</v>
+        <v>261</v>
       </c>
       <c r="F193" t="n">
-        <v>4.3737</v>
+        <v>1595.5452</v>
       </c>
       <c r="G193" t="n">
-        <v>262.9816666666667</v>
+        <v>263.0016666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7173,22 +7397,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>260.2</v>
+        <v>262.8</v>
       </c>
       <c r="C194" t="n">
-        <v>260.2</v>
+        <v>262.8</v>
       </c>
       <c r="D194" t="n">
-        <v>260.2</v>
+        <v>262.8</v>
       </c>
       <c r="E194" t="n">
-        <v>260.2</v>
+        <v>262.8</v>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>4.3737</v>
       </c>
       <c r="G194" t="n">
-        <v>262.8783333333333</v>
+        <v>262.9816666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7208,22 +7432,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>261.2</v>
+        <v>260.2</v>
       </c>
       <c r="C195" t="n">
-        <v>261.2</v>
+        <v>260.2</v>
       </c>
       <c r="D195" t="n">
-        <v>261.2</v>
+        <v>260.2</v>
       </c>
       <c r="E195" t="n">
-        <v>261.2</v>
+        <v>260.2</v>
       </c>
       <c r="F195" t="n">
-        <v>549.9</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>262.7566666666667</v>
+        <v>262.8783333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7255,10 +7479,10 @@
         <v>261.2</v>
       </c>
       <c r="F196" t="n">
-        <v>228.2</v>
+        <v>549.9</v>
       </c>
       <c r="G196" t="n">
-        <v>262.595</v>
+        <v>262.7566666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7278,22 +7502,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>260.2</v>
+        <v>261.2</v>
       </c>
       <c r="C197" t="n">
-        <v>260.2</v>
+        <v>261.2</v>
       </c>
       <c r="D197" t="n">
-        <v>260.2</v>
+        <v>261.2</v>
       </c>
       <c r="E197" t="n">
-        <v>260.2</v>
+        <v>261.2</v>
       </c>
       <c r="F197" t="n">
-        <v>700</v>
+        <v>228.2</v>
       </c>
       <c r="G197" t="n">
-        <v>262.4483333333334</v>
+        <v>262.595</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7316,19 +7540,19 @@
         <v>260.2</v>
       </c>
       <c r="C198" t="n">
-        <v>259.2</v>
+        <v>260.2</v>
       </c>
       <c r="D198" t="n">
         <v>260.2</v>
       </c>
       <c r="E198" t="n">
-        <v>259.2</v>
+        <v>260.2</v>
       </c>
       <c r="F198" t="n">
-        <v>214</v>
+        <v>700</v>
       </c>
       <c r="G198" t="n">
-        <v>262.2283333333334</v>
+        <v>262.4483333333334</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7348,22 +7572,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>262</v>
+        <v>260.2</v>
       </c>
       <c r="C199" t="n">
-        <v>262</v>
+        <v>259.2</v>
       </c>
       <c r="D199" t="n">
-        <v>262</v>
+        <v>260.2</v>
       </c>
       <c r="E199" t="n">
-        <v>262</v>
+        <v>259.2</v>
       </c>
       <c r="F199" t="n">
-        <v>18.5</v>
+        <v>214</v>
       </c>
       <c r="G199" t="n">
-        <v>262.0950000000001</v>
+        <v>262.2283333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7383,22 +7607,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C200" t="n">
-        <v>257.7</v>
+        <v>262</v>
       </c>
       <c r="D200" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E200" t="n">
-        <v>257.7</v>
+        <v>262</v>
       </c>
       <c r="F200" t="n">
-        <v>6956.3693</v>
+        <v>18.5</v>
       </c>
       <c r="G200" t="n">
-        <v>261.8083333333335</v>
+        <v>262.0950000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7418,22 +7642,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C201" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="D201" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E201" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="F201" t="n">
-        <v>29.1202</v>
+        <v>6956.3693</v>
       </c>
       <c r="G201" t="n">
-        <v>261.5916666666668</v>
+        <v>261.8083333333335</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7453,22 +7677,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>258.5</v>
+        <v>262</v>
       </c>
       <c r="C202" t="n">
-        <v>258.5</v>
+        <v>262</v>
       </c>
       <c r="D202" t="n">
-        <v>258.5</v>
+        <v>262</v>
       </c>
       <c r="E202" t="n">
-        <v>258.5</v>
+        <v>262</v>
       </c>
       <c r="F202" t="n">
-        <v>4933.488</v>
+        <v>29.1202</v>
       </c>
       <c r="G202" t="n">
-        <v>261.3650000000001</v>
+        <v>261.5916666666668</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7500,10 +7724,10 @@
         <v>258.5</v>
       </c>
       <c r="F203" t="n">
-        <v>1000</v>
+        <v>4933.488</v>
       </c>
       <c r="G203" t="n">
-        <v>261.2300000000001</v>
+        <v>261.3650000000001</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7535,10 +7759,10 @@
         <v>258.5</v>
       </c>
       <c r="F204" t="n">
-        <v>2772.2394</v>
+        <v>1000</v>
       </c>
       <c r="G204" t="n">
-        <v>261.0950000000001</v>
+        <v>261.2300000000001</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7570,10 +7794,10 @@
         <v>258.5</v>
       </c>
       <c r="F205" t="n">
-        <v>1549.6426</v>
+        <v>2772.2394</v>
       </c>
       <c r="G205" t="n">
-        <v>260.9366666666667</v>
+        <v>261.0950000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7593,22 +7817,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>260.9</v>
+        <v>258.5</v>
       </c>
       <c r="C206" t="n">
-        <v>260.9</v>
+        <v>258.5</v>
       </c>
       <c r="D206" t="n">
-        <v>260.9</v>
+        <v>258.5</v>
       </c>
       <c r="E206" t="n">
-        <v>260.9</v>
+        <v>258.5</v>
       </c>
       <c r="F206" t="n">
-        <v>773.2935</v>
+        <v>1549.6426</v>
       </c>
       <c r="G206" t="n">
-        <v>260.8450000000001</v>
+        <v>260.9366666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7640,10 +7864,10 @@
         <v>260.9</v>
       </c>
       <c r="F207" t="n">
-        <v>814.3488</v>
+        <v>773.2935</v>
       </c>
       <c r="G207" t="n">
-        <v>260.7533333333334</v>
+        <v>260.8450000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7666,19 +7890,19 @@
         <v>260.9</v>
       </c>
       <c r="C208" t="n">
-        <v>261</v>
+        <v>260.9</v>
       </c>
       <c r="D208" t="n">
-        <v>261</v>
+        <v>260.9</v>
       </c>
       <c r="E208" t="n">
         <v>260.9</v>
       </c>
       <c r="F208" t="n">
-        <v>550.9451</v>
+        <v>814.3488</v>
       </c>
       <c r="G208" t="n">
-        <v>260.7033333333334</v>
+        <v>260.7533333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7698,22 +7922,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>261.5</v>
+        <v>260.9</v>
       </c>
       <c r="C209" t="n">
-        <v>261.5</v>
+        <v>261</v>
       </c>
       <c r="D209" t="n">
-        <v>261.5</v>
+        <v>261</v>
       </c>
       <c r="E209" t="n">
-        <v>261.5</v>
+        <v>260.9</v>
       </c>
       <c r="F209" t="n">
-        <v>901</v>
+        <v>550.9451</v>
       </c>
       <c r="G209" t="n">
-        <v>260.6450000000001</v>
+        <v>260.7033333333334</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7733,22 +7957,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>263</v>
+        <v>261.5</v>
       </c>
       <c r="C210" t="n">
         <v>261.5</v>
       </c>
       <c r="D210" t="n">
-        <v>263</v>
+        <v>261.5</v>
       </c>
       <c r="E210" t="n">
         <v>261.5</v>
       </c>
       <c r="F210" t="n">
-        <v>973.3736390886157</v>
+        <v>901</v>
       </c>
       <c r="G210" t="n">
-        <v>260.6066666666667</v>
+        <v>260.6450000000001</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7768,22 +7992,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C211" t="n">
-        <v>260</v>
+        <v>261.5</v>
       </c>
       <c r="D211" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E211" t="n">
-        <v>260</v>
+        <v>261.5</v>
       </c>
       <c r="F211" t="n">
-        <v>125.91</v>
+        <v>973.3736390886157</v>
       </c>
       <c r="G211" t="n">
-        <v>260.5450000000001</v>
+        <v>260.6066666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7815,10 +8039,10 @@
         <v>260</v>
       </c>
       <c r="F212" t="n">
-        <v>647.3835</v>
+        <v>125.91</v>
       </c>
       <c r="G212" t="n">
-        <v>260.4816666666667</v>
+        <v>260.5450000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7838,22 +8062,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C213" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D213" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E213" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F213" t="n">
-        <v>9484.201814448668</v>
+        <v>647.3835</v>
       </c>
       <c r="G213" t="n">
-        <v>260.4683333333334</v>
+        <v>260.4816666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7873,22 +8097,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>263.7</v>
+        <v>262</v>
       </c>
       <c r="C214" t="n">
-        <v>263.7</v>
+        <v>263</v>
       </c>
       <c r="D214" t="n">
-        <v>263.7</v>
+        <v>263</v>
       </c>
       <c r="E214" t="n">
-        <v>263.7</v>
+        <v>262</v>
       </c>
       <c r="F214" t="n">
-        <v>250</v>
+        <v>9484.201814448668</v>
       </c>
       <c r="G214" t="n">
-        <v>260.5300000000001</v>
+        <v>260.4683333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7908,22 +8132,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>263.4</v>
+        <v>263.7</v>
       </c>
       <c r="C215" t="n">
-        <v>263.4</v>
+        <v>263.7</v>
       </c>
       <c r="D215" t="n">
-        <v>263.4</v>
+        <v>263.7</v>
       </c>
       <c r="E215" t="n">
-        <v>263.4</v>
+        <v>263.7</v>
       </c>
       <c r="F215" t="n">
-        <v>2729.7687</v>
+        <v>250</v>
       </c>
       <c r="G215" t="n">
-        <v>260.6350000000001</v>
+        <v>260.5300000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7943,22 +8167,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>263</v>
+        <v>263.4</v>
       </c>
       <c r="C216" t="n">
-        <v>263</v>
+        <v>263.4</v>
       </c>
       <c r="D216" t="n">
-        <v>263</v>
+        <v>263.4</v>
       </c>
       <c r="E216" t="n">
-        <v>263</v>
+        <v>263.4</v>
       </c>
       <c r="F216" t="n">
-        <v>2338.871</v>
+        <v>2729.7687</v>
       </c>
       <c r="G216" t="n">
-        <v>260.7333333333334</v>
+        <v>260.6350000000001</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7978,22 +8202,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>263.7</v>
+        <v>263</v>
       </c>
       <c r="C217" t="n">
-        <v>263.7</v>
+        <v>263</v>
       </c>
       <c r="D217" t="n">
-        <v>263.7</v>
+        <v>263</v>
       </c>
       <c r="E217" t="n">
-        <v>263.7</v>
+        <v>263</v>
       </c>
       <c r="F217" t="n">
-        <v>500</v>
+        <v>2338.871</v>
       </c>
       <c r="G217" t="n">
-        <v>260.8433333333334</v>
+        <v>260.7333333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8013,22 +8237,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>263</v>
+        <v>263.7</v>
       </c>
       <c r="C218" t="n">
-        <v>260.6</v>
+        <v>263.7</v>
       </c>
       <c r="D218" t="n">
-        <v>263</v>
+        <v>263.7</v>
       </c>
       <c r="E218" t="n">
-        <v>260.6</v>
+        <v>263.7</v>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G218" t="n">
-        <v>260.8650000000001</v>
+        <v>260.8433333333334</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8048,22 +8272,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>263.7</v>
+        <v>263</v>
       </c>
       <c r="C219" t="n">
-        <v>263.7</v>
+        <v>260.6</v>
       </c>
       <c r="D219" t="n">
-        <v>263.7</v>
+        <v>263</v>
       </c>
       <c r="E219" t="n">
-        <v>263.7</v>
+        <v>260.6</v>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="n">
-        <v>260.9366666666668</v>
+        <v>260.8650000000001</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8095,10 +8319,10 @@
         <v>263.7</v>
       </c>
       <c r="F220" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G220" t="n">
-        <v>260.9183333333335</v>
+        <v>260.9366666666668</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8118,22 +8342,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>261</v>
+        <v>263.7</v>
       </c>
       <c r="C221" t="n">
-        <v>260</v>
+        <v>263.7</v>
       </c>
       <c r="D221" t="n">
-        <v>261</v>
+        <v>263.7</v>
       </c>
       <c r="E221" t="n">
-        <v>260</v>
+        <v>263.7</v>
       </c>
       <c r="F221" t="n">
-        <v>7323.919585551331</v>
+        <v>110</v>
       </c>
       <c r="G221" t="n">
-        <v>260.8983333333335</v>
+        <v>260.9183333333335</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8153,22 +8377,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C222" t="n">
         <v>260</v>
       </c>
       <c r="D222" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E222" t="n">
         <v>260</v>
       </c>
       <c r="F222" t="n">
-        <v>11.6239</v>
+        <v>7323.919585551331</v>
       </c>
       <c r="G222" t="n">
-        <v>260.8800000000002</v>
+        <v>260.8983333333335</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8200,10 +8424,10 @@
         <v>260</v>
       </c>
       <c r="F223" t="n">
-        <v>592.0197144486692</v>
+        <v>11.6239</v>
       </c>
       <c r="G223" t="n">
-        <v>260.8316666666668</v>
+        <v>260.8800000000002</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8223,22 +8447,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C224" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D224" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E224" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F224" t="n">
-        <v>52</v>
+        <v>592.0197144486692</v>
       </c>
       <c r="G224" t="n">
-        <v>260.8616666666668</v>
+        <v>260.8316666666668</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8258,7 +8482,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C225" t="n">
         <v>263</v>
@@ -8267,13 +8491,13 @@
         <v>263</v>
       </c>
       <c r="E225" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F225" t="n">
-        <v>123.6737</v>
+        <v>52</v>
       </c>
       <c r="G225" t="n">
-        <v>260.8916666666668</v>
+        <v>260.8616666666668</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8305,7 +8529,7 @@
         <v>263</v>
       </c>
       <c r="F226" t="n">
-        <v>1473.7958</v>
+        <v>123.6737</v>
       </c>
       <c r="G226" t="n">
         <v>260.8916666666668</v>
@@ -8328,22 +8552,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>263.4</v>
+        <v>263</v>
       </c>
       <c r="C227" t="n">
-        <v>263.4</v>
+        <v>263</v>
       </c>
       <c r="D227" t="n">
-        <v>263.4</v>
+        <v>263</v>
       </c>
       <c r="E227" t="n">
-        <v>263.4</v>
+        <v>263</v>
       </c>
       <c r="F227" t="n">
-        <v>2</v>
+        <v>1473.7958</v>
       </c>
       <c r="G227" t="n">
-        <v>260.9283333333335</v>
+        <v>260.8916666666668</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8363,22 +8587,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>263</v>
+        <v>263.4</v>
       </c>
       <c r="C228" t="n">
-        <v>263</v>
+        <v>263.4</v>
       </c>
       <c r="D228" t="n">
-        <v>263</v>
+        <v>263.4</v>
       </c>
       <c r="E228" t="n">
-        <v>263</v>
+        <v>263.4</v>
       </c>
       <c r="F228" t="n">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="G228" t="n">
-        <v>260.9583333333334</v>
+        <v>260.9283333333335</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8398,22 +8622,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="C229" t="n">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="D229" t="n">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="E229" t="n">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="F229" t="n">
-        <v>5989.5434</v>
+        <v>298</v>
       </c>
       <c r="G229" t="n">
-        <v>261.0000000000001</v>
+        <v>260.9583333333334</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8445,10 +8669,10 @@
         <v>263.5</v>
       </c>
       <c r="F230" t="n">
-        <v>2.2678</v>
+        <v>5989.5434</v>
       </c>
       <c r="G230" t="n">
-        <v>261.0383333333334</v>
+        <v>261.0000000000001</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8480,10 +8704,10 @@
         <v>263.5</v>
       </c>
       <c r="F231" t="n">
-        <v>4.9122</v>
+        <v>2.2678</v>
       </c>
       <c r="G231" t="n">
-        <v>261.0766666666667</v>
+        <v>261.0383333333334</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8515,10 +8739,10 @@
         <v>263.5</v>
       </c>
       <c r="F232" t="n">
-        <v>11.9004</v>
+        <v>4.9122</v>
       </c>
       <c r="G232" t="n">
-        <v>261.0716666666668</v>
+        <v>261.0766666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8541,19 +8765,19 @@
         <v>263.5</v>
       </c>
       <c r="C233" t="n">
-        <v>263.6</v>
+        <v>263.5</v>
       </c>
       <c r="D233" t="n">
-        <v>263.6</v>
+        <v>263.5</v>
       </c>
       <c r="E233" t="n">
         <v>263.5</v>
       </c>
       <c r="F233" t="n">
-        <v>7568.3326</v>
+        <v>11.9004</v>
       </c>
       <c r="G233" t="n">
-        <v>261.1483333333334</v>
+        <v>261.0716666666668</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8573,7 +8797,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>263.6</v>
+        <v>263.5</v>
       </c>
       <c r="C234" t="n">
         <v>263.6</v>
@@ -8582,13 +8806,13 @@
         <v>263.6</v>
       </c>
       <c r="E234" t="n">
-        <v>263.6</v>
+        <v>263.5</v>
       </c>
       <c r="F234" t="n">
-        <v>918.5682</v>
+        <v>7568.3326</v>
       </c>
       <c r="G234" t="n">
-        <v>261.2133333333334</v>
+        <v>261.1483333333334</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8608,22 +8832,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>265</v>
+        <v>263.6</v>
       </c>
       <c r="C235" t="n">
-        <v>265</v>
+        <v>263.6</v>
       </c>
       <c r="D235" t="n">
-        <v>265</v>
+        <v>263.6</v>
       </c>
       <c r="E235" t="n">
-        <v>265</v>
+        <v>263.6</v>
       </c>
       <c r="F235" t="n">
-        <v>5</v>
+        <v>918.5682</v>
       </c>
       <c r="G235" t="n">
-        <v>261.2966666666667</v>
+        <v>261.2133333333334</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8643,22 +8867,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="C236" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="D236" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="E236" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="F236" t="n">
-        <v>2.447</v>
+        <v>5</v>
       </c>
       <c r="G236" t="n">
-        <v>261.4033333333334</v>
+        <v>261.2966666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8690,10 +8914,10 @@
         <v>266.4</v>
       </c>
       <c r="F237" t="n">
-        <v>4708.7848</v>
+        <v>2.447</v>
       </c>
       <c r="G237" t="n">
-        <v>261.51</v>
+        <v>261.4033333333334</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8713,7 +8937,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>266</v>
+        <v>266.4</v>
       </c>
       <c r="C238" t="n">
         <v>266.4</v>
@@ -8722,13 +8946,13 @@
         <v>266.4</v>
       </c>
       <c r="E238" t="n">
-        <v>266</v>
+        <v>266.4</v>
       </c>
       <c r="F238" t="n">
-        <v>2396.3049</v>
+        <v>4708.7848</v>
       </c>
       <c r="G238" t="n">
-        <v>261.6166666666667</v>
+        <v>261.51</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8748,22 +8972,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>266.1</v>
+        <v>266</v>
       </c>
       <c r="C239" t="n">
-        <v>266.1</v>
+        <v>266.4</v>
       </c>
       <c r="D239" t="n">
-        <v>266.1</v>
+        <v>266.4</v>
       </c>
       <c r="E239" t="n">
-        <v>266.1</v>
+        <v>266</v>
       </c>
       <c r="F239" t="n">
-        <v>2658.4803</v>
+        <v>2396.3049</v>
       </c>
       <c r="G239" t="n">
-        <v>261.6583333333334</v>
+        <v>261.6166666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8783,22 +9007,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>264</v>
+        <v>266.1</v>
       </c>
       <c r="C240" t="n">
-        <v>266.3</v>
+        <v>266.1</v>
       </c>
       <c r="D240" t="n">
-        <v>266.3</v>
+        <v>266.1</v>
       </c>
       <c r="E240" t="n">
-        <v>263.2</v>
+        <v>266.1</v>
       </c>
       <c r="F240" t="n">
-        <v>3926.7764</v>
+        <v>2658.4803</v>
       </c>
       <c r="G240" t="n">
-        <v>261.7783333333334</v>
+        <v>261.6583333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8818,22 +9042,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>263.5</v>
+        <v>264</v>
       </c>
       <c r="C241" t="n">
-        <v>263.1</v>
+        <v>266.3</v>
       </c>
       <c r="D241" t="n">
-        <v>263.5</v>
+        <v>266.3</v>
       </c>
       <c r="E241" t="n">
-        <v>263.1</v>
+        <v>263.2</v>
       </c>
       <c r="F241" t="n">
-        <v>1438.9663</v>
+        <v>3926.7764</v>
       </c>
       <c r="G241" t="n">
-        <v>261.8116666666667</v>
+        <v>261.7783333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8853,22 +9077,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>263.1</v>
+        <v>263.5</v>
       </c>
       <c r="C242" t="n">
         <v>263.1</v>
       </c>
       <c r="D242" t="n">
-        <v>263.1</v>
+        <v>263.5</v>
       </c>
       <c r="E242" t="n">
         <v>263.1</v>
       </c>
       <c r="F242" t="n">
-        <v>0.5065</v>
+        <v>1438.9663</v>
       </c>
       <c r="G242" t="n">
-        <v>261.845</v>
+        <v>261.8116666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8888,22 +9112,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>262.4</v>
+        <v>263.1</v>
       </c>
       <c r="C243" t="n">
-        <v>258.8</v>
+        <v>263.1</v>
       </c>
       <c r="D243" t="n">
-        <v>262.4</v>
+        <v>263.1</v>
       </c>
       <c r="E243" t="n">
-        <v>258.8</v>
+        <v>263.1</v>
       </c>
       <c r="F243" t="n">
-        <v>34245.0848</v>
+        <v>0.5065</v>
       </c>
       <c r="G243" t="n">
-        <v>261.8383333333334</v>
+        <v>261.845</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8923,22 +9147,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>260.9</v>
+        <v>262.4</v>
       </c>
       <c r="C244" t="n">
-        <v>262.1</v>
+        <v>258.8</v>
       </c>
       <c r="D244" t="n">
-        <v>262.1</v>
+        <v>262.4</v>
       </c>
       <c r="E244" t="n">
-        <v>260.9</v>
+        <v>258.8</v>
       </c>
       <c r="F244" t="n">
-        <v>3169.7237</v>
+        <v>34245.0848</v>
       </c>
       <c r="G244" t="n">
-        <v>261.89</v>
+        <v>261.8383333333334</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8958,22 +9182,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>261.7</v>
+        <v>260.9</v>
       </c>
       <c r="C245" t="n">
-        <v>260.2</v>
+        <v>262.1</v>
       </c>
       <c r="D245" t="n">
-        <v>261.7</v>
+        <v>262.1</v>
       </c>
       <c r="E245" t="n">
-        <v>260.2</v>
+        <v>260.9</v>
       </c>
       <c r="F245" t="n">
-        <v>10546.4265</v>
+        <v>3169.7237</v>
       </c>
       <c r="G245" t="n">
-        <v>261.91</v>
+        <v>261.89</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8993,22 +9217,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>262.3</v>
+        <v>261.7</v>
       </c>
       <c r="C246" t="n">
-        <v>262.3</v>
+        <v>260.2</v>
       </c>
       <c r="D246" t="n">
-        <v>262.3</v>
+        <v>261.7</v>
       </c>
       <c r="E246" t="n">
-        <v>262.3</v>
+        <v>260.2</v>
       </c>
       <c r="F246" t="n">
-        <v>16.8496</v>
+        <v>10546.4265</v>
       </c>
       <c r="G246" t="n">
-        <v>261.9883333333333</v>
+        <v>261.91</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9028,22 +9252,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>261.7</v>
+        <v>262.3</v>
       </c>
       <c r="C247" t="n">
-        <v>261.7</v>
+        <v>262.3</v>
       </c>
       <c r="D247" t="n">
-        <v>261.7</v>
+        <v>262.3</v>
       </c>
       <c r="E247" t="n">
-        <v>261.7</v>
+        <v>262.3</v>
       </c>
       <c r="F247" t="n">
-        <v>2563.7028</v>
+        <v>16.8496</v>
       </c>
       <c r="G247" t="n">
-        <v>262.0333333333334</v>
+        <v>261.9883333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9063,22 +9287,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>261.5</v>
+        <v>261.7</v>
       </c>
       <c r="C248" t="n">
-        <v>261.5</v>
+        <v>261.7</v>
       </c>
       <c r="D248" t="n">
-        <v>261.5</v>
+        <v>261.7</v>
       </c>
       <c r="E248" t="n">
-        <v>261.5</v>
+        <v>261.7</v>
       </c>
       <c r="F248" t="n">
-        <v>250</v>
+        <v>2563.7028</v>
       </c>
       <c r="G248" t="n">
-        <v>262.085</v>
+        <v>262.0333333333334</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9110,10 +9334,10 @@
         <v>261.5</v>
       </c>
       <c r="F249" t="n">
-        <v>911.4959</v>
+        <v>250</v>
       </c>
       <c r="G249" t="n">
-        <v>262.1233333333333</v>
+        <v>262.085</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9136,19 +9360,19 @@
         <v>261.5</v>
       </c>
       <c r="C250" t="n">
-        <v>261.7</v>
+        <v>261.5</v>
       </c>
       <c r="D250" t="n">
-        <v>261.7</v>
+        <v>261.5</v>
       </c>
       <c r="E250" t="n">
         <v>261.5</v>
       </c>
       <c r="F250" t="n">
-        <v>1640.8639</v>
+        <v>911.4959</v>
       </c>
       <c r="G250" t="n">
-        <v>262.0866666666667</v>
+        <v>262.1233333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9168,22 +9392,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>264.4</v>
+        <v>261.5</v>
       </c>
       <c r="C251" t="n">
-        <v>264.4</v>
+        <v>261.7</v>
       </c>
       <c r="D251" t="n">
-        <v>264.4</v>
+        <v>261.7</v>
       </c>
       <c r="E251" t="n">
-        <v>264.4</v>
+        <v>261.5</v>
       </c>
       <c r="F251" t="n">
-        <v>731.5091</v>
+        <v>1640.8639</v>
       </c>
       <c r="G251" t="n">
-        <v>262.095</v>
+        <v>262.0866666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9215,10 +9439,10 @@
         <v>264.4</v>
       </c>
       <c r="F252" t="n">
-        <v>1500</v>
+        <v>731.5091</v>
       </c>
       <c r="G252" t="n">
-        <v>262.1516666666667</v>
+        <v>262.095</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9250,10 +9474,10 @@
         <v>264.4</v>
       </c>
       <c r="F253" t="n">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="G253" t="n">
-        <v>262.1783333333334</v>
+        <v>262.1516666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9285,10 +9509,10 @@
         <v>264.4</v>
       </c>
       <c r="F254" t="n">
-        <v>7546.2554</v>
+        <v>15</v>
       </c>
       <c r="G254" t="n">
-        <v>262.2483333333333</v>
+        <v>262.1783333333334</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9308,22 +9532,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>263.3</v>
+        <v>264.4</v>
       </c>
       <c r="C255" t="n">
-        <v>263.3</v>
+        <v>264.4</v>
       </c>
       <c r="D255" t="n">
-        <v>263.3</v>
+        <v>264.4</v>
       </c>
       <c r="E255" t="n">
-        <v>263.3</v>
+        <v>264.4</v>
       </c>
       <c r="F255" t="n">
-        <v>2</v>
+        <v>7546.2554</v>
       </c>
       <c r="G255" t="n">
-        <v>262.2833333333334</v>
+        <v>262.2483333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9343,22 +9567,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>264.3</v>
+        <v>263.3</v>
       </c>
       <c r="C256" t="n">
-        <v>262.4</v>
+        <v>263.3</v>
       </c>
       <c r="D256" t="n">
-        <v>264.3</v>
+        <v>263.3</v>
       </c>
       <c r="E256" t="n">
-        <v>262.4</v>
+        <v>263.3</v>
       </c>
       <c r="F256" t="n">
-        <v>1096.3</v>
+        <v>2</v>
       </c>
       <c r="G256" t="n">
-        <v>262.3033333333333</v>
+        <v>262.2833333333334</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9378,22 +9602,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>262.2</v>
+        <v>264.3</v>
       </c>
       <c r="C257" t="n">
-        <v>262.2</v>
+        <v>262.4</v>
       </c>
       <c r="D257" t="n">
-        <v>262.2</v>
+        <v>264.3</v>
       </c>
       <c r="E257" t="n">
-        <v>262.2</v>
+        <v>262.4</v>
       </c>
       <c r="F257" t="n">
-        <v>183.9</v>
+        <v>1096.3</v>
       </c>
       <c r="G257" t="n">
-        <v>262.3366666666666</v>
+        <v>262.3033333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9413,22 +9637,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>261.4</v>
+        <v>262.2</v>
       </c>
       <c r="C258" t="n">
-        <v>261.4</v>
+        <v>262.2</v>
       </c>
       <c r="D258" t="n">
-        <v>261.4</v>
+        <v>262.2</v>
       </c>
       <c r="E258" t="n">
-        <v>261.4</v>
+        <v>262.2</v>
       </c>
       <c r="F258" t="n">
-        <v>1111.3751</v>
+        <v>183.9</v>
       </c>
       <c r="G258" t="n">
-        <v>262.3733333333333</v>
+        <v>262.3366666666666</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9448,22 +9672,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>263.3</v>
+        <v>261.4</v>
       </c>
       <c r="C259" t="n">
-        <v>263.3</v>
+        <v>261.4</v>
       </c>
       <c r="D259" t="n">
-        <v>263.3</v>
+        <v>261.4</v>
       </c>
       <c r="E259" t="n">
-        <v>263.3</v>
+        <v>261.4</v>
       </c>
       <c r="F259" t="n">
-        <v>3.79794910748196</v>
+        <v>1111.3751</v>
       </c>
       <c r="G259" t="n">
-        <v>262.3949999999999</v>
+        <v>262.3733333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9483,22 +9707,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>261.5</v>
+        <v>263.3</v>
       </c>
       <c r="C260" t="n">
-        <v>261.5</v>
+        <v>263.3</v>
       </c>
       <c r="D260" t="n">
-        <v>261.5</v>
+        <v>263.3</v>
       </c>
       <c r="E260" t="n">
-        <v>261.5</v>
+        <v>263.3</v>
       </c>
       <c r="F260" t="n">
-        <v>150</v>
+        <v>3.79794910748196</v>
       </c>
       <c r="G260" t="n">
-        <v>262.4583333333333</v>
+        <v>262.3949999999999</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9530,10 +9754,10 @@
         <v>261.5</v>
       </c>
       <c r="F261" t="n">
-        <v>1684.8012</v>
+        <v>150</v>
       </c>
       <c r="G261" t="n">
-        <v>262.4499999999999</v>
+        <v>262.4583333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9565,10 +9789,10 @@
         <v>261.5</v>
       </c>
       <c r="F262" t="n">
-        <v>1924.2128</v>
+        <v>1684.8012</v>
       </c>
       <c r="G262" t="n">
-        <v>262.4999999999999</v>
+        <v>262.4499999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9588,22 +9812,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>261.4</v>
+        <v>261.5</v>
       </c>
       <c r="C263" t="n">
-        <v>261.4</v>
+        <v>261.5</v>
       </c>
       <c r="D263" t="n">
-        <v>261.4</v>
+        <v>261.5</v>
       </c>
       <c r="E263" t="n">
-        <v>261.4</v>
+        <v>261.5</v>
       </c>
       <c r="F263" t="n">
-        <v>2041.9776</v>
+        <v>1924.2128</v>
       </c>
       <c r="G263" t="n">
-        <v>262.5483333333333</v>
+        <v>262.4999999999999</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9623,22 +9847,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>261</v>
+        <v>261.4</v>
       </c>
       <c r="C264" t="n">
-        <v>260.5</v>
+        <v>261.4</v>
       </c>
       <c r="D264" t="n">
-        <v>261</v>
+        <v>261.4</v>
       </c>
       <c r="E264" t="n">
-        <v>260.5</v>
+        <v>261.4</v>
       </c>
       <c r="F264" t="n">
-        <v>242.3601</v>
+        <v>2041.9776</v>
       </c>
       <c r="G264" t="n">
-        <v>262.5816666666666</v>
+        <v>262.5483333333333</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9658,22 +9882,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>260.5</v>
+        <v>261</v>
       </c>
       <c r="C265" t="n">
         <v>260.5</v>
       </c>
       <c r="D265" t="n">
-        <v>260.5</v>
+        <v>261</v>
       </c>
       <c r="E265" t="n">
         <v>260.5</v>
       </c>
       <c r="F265" t="n">
-        <v>403.9335</v>
+        <v>242.3601</v>
       </c>
       <c r="G265" t="n">
-        <v>262.615</v>
+        <v>262.5816666666666</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9693,22 +9917,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>262</v>
+        <v>260.5</v>
       </c>
       <c r="C266" t="n">
-        <v>262</v>
+        <v>260.5</v>
       </c>
       <c r="D266" t="n">
-        <v>262</v>
+        <v>260.5</v>
       </c>
       <c r="E266" t="n">
-        <v>262</v>
+        <v>260.5</v>
       </c>
       <c r="F266" t="n">
-        <v>1271.75</v>
+        <v>403.9335</v>
       </c>
       <c r="G266" t="n">
-        <v>262.6333333333333</v>
+        <v>262.615</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9740,10 +9964,10 @@
         <v>262</v>
       </c>
       <c r="F267" t="n">
-        <v>554.1133</v>
+        <v>1271.75</v>
       </c>
       <c r="G267" t="n">
-        <v>262.6516666666666</v>
+        <v>262.6333333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9763,22 +9987,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="C268" t="n">
-        <v>260.1</v>
+        <v>262</v>
       </c>
       <c r="D268" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="E268" t="n">
-        <v>260.1</v>
+        <v>262</v>
       </c>
       <c r="F268" t="n">
-        <v>2546.2554</v>
+        <v>554.1133</v>
       </c>
       <c r="G268" t="n">
-        <v>262.6366666666666</v>
+        <v>262.6516666666666</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9798,22 +10022,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>260.1</v>
+        <v>260.5</v>
       </c>
       <c r="C269" t="n">
         <v>260.1</v>
       </c>
       <c r="D269" t="n">
-        <v>260.1</v>
+        <v>260.5</v>
       </c>
       <c r="E269" t="n">
         <v>260.1</v>
       </c>
       <c r="F269" t="n">
-        <v>5200.517</v>
+        <v>2546.2554</v>
       </c>
       <c r="G269" t="n">
-        <v>262.6133333333333</v>
+        <v>262.6366666666666</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9833,22 +10057,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>261</v>
+        <v>260.1</v>
       </c>
       <c r="C270" t="n">
-        <v>260.2</v>
+        <v>260.1</v>
       </c>
       <c r="D270" t="n">
-        <v>261</v>
+        <v>260.1</v>
       </c>
       <c r="E270" t="n">
-        <v>260.2</v>
+        <v>260.1</v>
       </c>
       <c r="F270" t="n">
-        <v>2790.8423</v>
+        <v>5200.517</v>
       </c>
       <c r="G270" t="n">
-        <v>262.5916666666666</v>
+        <v>262.6133333333333</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9871,16 +10095,16 @@
         <v>261</v>
       </c>
       <c r="C271" t="n">
-        <v>260</v>
+        <v>260.2</v>
       </c>
       <c r="D271" t="n">
         <v>261</v>
       </c>
       <c r="E271" t="n">
-        <v>260</v>
+        <v>260.2</v>
       </c>
       <c r="F271" t="n">
-        <v>6472.796</v>
+        <v>2790.8423</v>
       </c>
       <c r="G271" t="n">
         <v>262.5916666666666</v>
@@ -9903,22 +10127,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>260.7</v>
+        <v>261</v>
       </c>
       <c r="C272" t="n">
-        <v>260.7</v>
+        <v>260</v>
       </c>
       <c r="D272" t="n">
-        <v>260.7</v>
+        <v>261</v>
       </c>
       <c r="E272" t="n">
-        <v>260.7</v>
+        <v>260</v>
       </c>
       <c r="F272" t="n">
-        <v>1360</v>
+        <v>6472.796</v>
       </c>
       <c r="G272" t="n">
-        <v>262.6033333333333</v>
+        <v>262.5916666666666</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9950,10 +10174,10 @@
         <v>260.7</v>
       </c>
       <c r="F273" t="n">
-        <v>1917.8615</v>
+        <v>1360</v>
       </c>
       <c r="G273" t="n">
-        <v>262.565</v>
+        <v>262.6033333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9973,22 +10197,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>260.8</v>
+        <v>260.7</v>
       </c>
       <c r="C274" t="n">
-        <v>260.8</v>
+        <v>260.7</v>
       </c>
       <c r="D274" t="n">
-        <v>260.8</v>
+        <v>260.7</v>
       </c>
       <c r="E274" t="n">
-        <v>260.8</v>
+        <v>260.7</v>
       </c>
       <c r="F274" t="n">
-        <v>823.2071</v>
+        <v>1917.8615</v>
       </c>
       <c r="G274" t="n">
-        <v>262.5166666666667</v>
+        <v>262.565</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10008,22 +10232,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>262.5</v>
+        <v>260.8</v>
       </c>
       <c r="C275" t="n">
-        <v>261</v>
+        <v>260.8</v>
       </c>
       <c r="D275" t="n">
-        <v>262.5</v>
+        <v>260.8</v>
       </c>
       <c r="E275" t="n">
-        <v>261</v>
+        <v>260.8</v>
       </c>
       <c r="F275" t="n">
-        <v>1672.5584</v>
+        <v>823.2071</v>
       </c>
       <c r="G275" t="n">
-        <v>262.4766666666666</v>
+        <v>262.5166666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10046,19 +10270,19 @@
         <v>262.5</v>
       </c>
       <c r="C276" t="n">
-        <v>262.5</v>
+        <v>261</v>
       </c>
       <c r="D276" t="n">
         <v>262.5</v>
       </c>
       <c r="E276" t="n">
-        <v>262.5</v>
+        <v>261</v>
       </c>
       <c r="F276" t="n">
-        <v>851.0906</v>
+        <v>1672.5584</v>
       </c>
       <c r="G276" t="n">
-        <v>262.4683333333333</v>
+        <v>262.4766666666666</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10090,10 +10314,10 @@
         <v>262.5</v>
       </c>
       <c r="F277" t="n">
-        <v>4</v>
+        <v>851.0906</v>
       </c>
       <c r="G277" t="n">
-        <v>262.4483333333333</v>
+        <v>262.4683333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10125,10 +10349,10 @@
         <v>262.5</v>
       </c>
       <c r="F278" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G278" t="n">
-        <v>262.48</v>
+        <v>262.4483333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10160,10 +10384,10 @@
         <v>262.5</v>
       </c>
       <c r="F279" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G279" t="n">
-        <v>262.4599999999999</v>
+        <v>262.48</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10198,7 +10422,7 @@
         <v>2</v>
       </c>
       <c r="G280" t="n">
-        <v>262.4399999999999</v>
+        <v>262.4599999999999</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10230,10 +10454,10 @@
         <v>262.5</v>
       </c>
       <c r="F281" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G281" t="n">
-        <v>262.4816666666666</v>
+        <v>262.4399999999999</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10265,10 +10489,10 @@
         <v>262.5</v>
       </c>
       <c r="F282" t="n">
-        <v>1334.0106</v>
+        <v>50</v>
       </c>
       <c r="G282" t="n">
-        <v>262.5233333333333</v>
+        <v>262.4816666666666</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10300,10 +10524,10 @@
         <v>262.5</v>
       </c>
       <c r="F283" t="n">
-        <v>80</v>
+        <v>1334.0106</v>
       </c>
       <c r="G283" t="n">
-        <v>262.5649999999999</v>
+        <v>262.5233333333333</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10323,19 +10547,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>263</v>
+        <v>262.5</v>
       </c>
       <c r="C284" t="n">
-        <v>263</v>
+        <v>262.5</v>
       </c>
       <c r="D284" t="n">
-        <v>263</v>
+        <v>262.5</v>
       </c>
       <c r="E284" t="n">
-        <v>263</v>
+        <v>262.5</v>
       </c>
       <c r="F284" t="n">
-        <v>5186.3015</v>
+        <v>80</v>
       </c>
       <c r="G284" t="n">
         <v>262.5649999999999</v>
@@ -10370,7 +10594,7 @@
         <v>263</v>
       </c>
       <c r="F285" t="n">
-        <v>3683.954</v>
+        <v>5186.3015</v>
       </c>
       <c r="G285" t="n">
         <v>262.5649999999999</v>
@@ -10393,22 +10617,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="C286" t="n">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="D286" t="n">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="E286" t="n">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="F286" t="n">
-        <v>526.621</v>
+        <v>3683.954</v>
       </c>
       <c r="G286" t="n">
-        <v>262.5733333333333</v>
+        <v>262.5649999999999</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10431,19 +10655,19 @@
         <v>263.5</v>
       </c>
       <c r="C287" t="n">
-        <v>266.3</v>
+        <v>263.5</v>
       </c>
       <c r="D287" t="n">
-        <v>266.3</v>
+        <v>263.5</v>
       </c>
       <c r="E287" t="n">
         <v>263.5</v>
       </c>
       <c r="F287" t="n">
-        <v>100</v>
+        <v>526.621</v>
       </c>
       <c r="G287" t="n">
-        <v>262.6216666666666</v>
+        <v>262.5733333333333</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10463,19 +10687,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>264</v>
+        <v>263.5</v>
       </c>
       <c r="C288" t="n">
-        <v>263</v>
+        <v>266.3</v>
       </c>
       <c r="D288" t="n">
-        <v>264</v>
+        <v>266.3</v>
       </c>
       <c r="E288" t="n">
-        <v>263</v>
+        <v>263.5</v>
       </c>
       <c r="F288" t="n">
-        <v>130.3963</v>
+        <v>100</v>
       </c>
       <c r="G288" t="n">
         <v>262.6216666666666</v>
@@ -10498,22 +10722,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>264.5</v>
+        <v>264</v>
       </c>
       <c r="C289" t="n">
-        <v>264.5</v>
+        <v>263</v>
       </c>
       <c r="D289" t="n">
-        <v>264.5</v>
+        <v>264</v>
       </c>
       <c r="E289" t="n">
-        <v>264.5</v>
+        <v>263</v>
       </c>
       <c r="F289" t="n">
-        <v>11.5791</v>
+        <v>130.3963</v>
       </c>
       <c r="G289" t="n">
-        <v>262.6383333333333</v>
+        <v>262.6216666666666</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10545,10 +10769,10 @@
         <v>264.5</v>
       </c>
       <c r="F290" t="n">
-        <v>148.4439</v>
+        <v>11.5791</v>
       </c>
       <c r="G290" t="n">
-        <v>262.6549999999999</v>
+        <v>262.6383333333333</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10580,10 +10804,10 @@
         <v>264.5</v>
       </c>
       <c r="F291" t="n">
-        <v>351.5561</v>
+        <v>148.4439</v>
       </c>
       <c r="G291" t="n">
-        <v>262.6716666666666</v>
+        <v>262.6549999999999</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10606,19 +10830,19 @@
         <v>264.5</v>
       </c>
       <c r="C292" t="n">
-        <v>266.1</v>
+        <v>264.5</v>
       </c>
       <c r="D292" t="n">
-        <v>266.1</v>
+        <v>264.5</v>
       </c>
       <c r="E292" t="n">
         <v>264.5</v>
       </c>
       <c r="F292" t="n">
-        <v>325.2668</v>
+        <v>351.5561</v>
       </c>
       <c r="G292" t="n">
-        <v>262.7149999999999</v>
+        <v>262.6716666666666</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10638,22 +10862,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>264</v>
+        <v>264.5</v>
       </c>
       <c r="C293" t="n">
-        <v>264</v>
+        <v>266.1</v>
       </c>
       <c r="D293" t="n">
-        <v>264</v>
+        <v>266.1</v>
       </c>
       <c r="E293" t="n">
-        <v>264</v>
+        <v>264.5</v>
       </c>
       <c r="F293" t="n">
-        <v>500</v>
+        <v>325.2668</v>
       </c>
       <c r="G293" t="n">
-        <v>262.7216666666666</v>
+        <v>262.7149999999999</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10685,10 +10909,10 @@
         <v>264</v>
       </c>
       <c r="F294" t="n">
-        <v>84.9044</v>
+        <v>500</v>
       </c>
       <c r="G294" t="n">
-        <v>262.7283333333332</v>
+        <v>262.7216666666666</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10720,10 +10944,10 @@
         <v>264</v>
       </c>
       <c r="F295" t="n">
-        <v>10599.536</v>
+        <v>84.9044</v>
       </c>
       <c r="G295" t="n">
-        <v>262.7116666666666</v>
+        <v>262.7283333333332</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10743,22 +10967,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>263.5</v>
+        <v>264</v>
       </c>
       <c r="C296" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D296" t="n">
-        <v>263.5</v>
+        <v>264</v>
       </c>
       <c r="E296" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F296" t="n">
-        <v>2014.6707</v>
+        <v>10599.536</v>
       </c>
       <c r="G296" t="n">
-        <v>262.6549999999999</v>
+        <v>262.7116666666666</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10778,22 +11002,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>264.8</v>
+        <v>263.5</v>
       </c>
       <c r="C297" t="n">
-        <v>264.8</v>
+        <v>263</v>
       </c>
       <c r="D297" t="n">
-        <v>264.8</v>
+        <v>263.5</v>
       </c>
       <c r="E297" t="n">
-        <v>264.8</v>
+        <v>263</v>
       </c>
       <c r="F297" t="n">
-        <v>3.4194</v>
+        <v>2014.6707</v>
       </c>
       <c r="G297" t="n">
-        <v>262.6283333333333</v>
+        <v>262.6549999999999</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10813,22 +11037,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>264</v>
+        <v>264.8</v>
       </c>
       <c r="C298" t="n">
-        <v>263</v>
+        <v>264.8</v>
       </c>
       <c r="D298" t="n">
-        <v>264</v>
+        <v>264.8</v>
       </c>
       <c r="E298" t="n">
-        <v>263</v>
+        <v>264.8</v>
       </c>
       <c r="F298" t="n">
-        <v>5881.929</v>
+        <v>3.4194</v>
       </c>
       <c r="G298" t="n">
-        <v>262.5716666666666</v>
+        <v>262.6283333333333</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10848,22 +11072,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C299" t="n">
         <v>263</v>
       </c>
       <c r="D299" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E299" t="n">
         <v>263</v>
       </c>
       <c r="F299" t="n">
-        <v>286.7517</v>
+        <v>5881.929</v>
       </c>
       <c r="G299" t="n">
-        <v>262.5199999999999</v>
+        <v>262.5716666666666</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10883,22 +11107,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>262.6</v>
+        <v>263</v>
       </c>
       <c r="C300" t="n">
-        <v>262.6</v>
+        <v>263</v>
       </c>
       <c r="D300" t="n">
-        <v>262.6</v>
+        <v>263</v>
       </c>
       <c r="E300" t="n">
-        <v>262.6</v>
+        <v>263</v>
       </c>
       <c r="F300" t="n">
-        <v>2557.4463</v>
+        <v>286.7517</v>
       </c>
       <c r="G300" t="n">
-        <v>262.4583333333333</v>
+        <v>262.5199999999999</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10918,22 +11142,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>262.7</v>
+        <v>262.6</v>
       </c>
       <c r="C301" t="n">
         <v>262.6</v>
       </c>
       <c r="D301" t="n">
-        <v>262.7</v>
+        <v>262.6</v>
       </c>
       <c r="E301" t="n">
         <v>262.6</v>
       </c>
       <c r="F301" t="n">
-        <v>2399.7969</v>
+        <v>2557.4463</v>
       </c>
       <c r="G301" t="n">
-        <v>262.4499999999999</v>
+        <v>262.4583333333333</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10948,6 +11172,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="C302" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="E302" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2399.7969</v>
+      </c>
+      <c r="G302" t="n">
+        <v>262.4499999999999</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-21 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:N312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>389.1237</v>
       </c>
       <c r="G2" t="n">
+        <v>256.7333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>260.0783333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>7294.3766</v>
       </c>
       <c r="G3" t="n">
+        <v>256.8200000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>260.02</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>255</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>67.0177</v>
       </c>
       <c r="G4" t="n">
+        <v>256.4200000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>259.895</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>254.5</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,25 @@
         <v>52.0899</v>
       </c>
       <c r="G5" t="n">
+        <v>255.9933333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>259.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,25 @@
         <v>1019.921</v>
       </c>
       <c r="G6" t="n">
+        <v>256.0666666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>259.6683333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +663,25 @@
         <v>2568.1368</v>
       </c>
       <c r="G7" t="n">
+        <v>255.7000000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>259.5933333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +705,25 @@
         <v>1486.7895</v>
       </c>
       <c r="G8" t="n">
+        <v>255.7600000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>259.6583333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +747,25 @@
         <v>460.6959</v>
       </c>
       <c r="G9" t="n">
+        <v>256.0000000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>259.6583333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +789,25 @@
         <v>341.3353</v>
       </c>
       <c r="G10" t="n">
+        <v>256.2266666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>259.675</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,25 @@
         <v>224.8</v>
       </c>
       <c r="G11" t="n">
+        <v>256.3866666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>259.6966666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +873,25 @@
         <v>705</v>
       </c>
       <c r="G12" t="n">
+        <v>256.5600000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>259.7916666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +915,25 @@
         <v>7561.7733</v>
       </c>
       <c r="G13" t="n">
+        <v>256.5333333333335</v>
+      </c>
+      <c r="H13" t="n">
         <v>259.7033333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +957,25 @@
         <v>126.0037</v>
       </c>
       <c r="G14" t="n">
+        <v>256.7933333333335</v>
+      </c>
+      <c r="H14" t="n">
         <v>259.6866666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +999,25 @@
         <v>1315.0787</v>
       </c>
       <c r="G15" t="n">
+        <v>257.0600000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>259.6716666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1041,25 @@
         <v>2500.2929</v>
       </c>
       <c r="G16" t="n">
+        <v>257.3800000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>259.67</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1083,25 @@
         <v>1080.527614703618</v>
       </c>
       <c r="G17" t="n">
+        <v>257.7000000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>259.6683333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1125,25 @@
         <v>400</v>
       </c>
       <c r="G18" t="n">
+        <v>258.0533333333335</v>
+      </c>
+      <c r="H18" t="n">
         <v>259.625</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1167,25 @@
         <v>680.3649</v>
       </c>
       <c r="G19" t="n">
+        <v>258.3733333333335</v>
+      </c>
+      <c r="H19" t="n">
         <v>259.695</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1209,25 @@
         <v>8283.824699999999</v>
       </c>
       <c r="G20" t="n">
+        <v>258.3400000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>259.6683333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1251,25 @@
         <v>500</v>
       </c>
       <c r="G21" t="n">
+        <v>258.3200000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>259.5733333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1293,25 @@
         <v>2808.912</v>
       </c>
       <c r="G22" t="n">
+        <v>258.2866666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>259.5466666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1335,25 @@
         <v>50</v>
       </c>
       <c r="G23" t="n">
+        <v>257.7600000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>259.4516666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1377,25 @@
         <v>704.2910000000001</v>
       </c>
       <c r="G24" t="n">
+        <v>257.4133333333335</v>
+      </c>
+      <c r="H24" t="n">
         <v>259.3149999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1419,25 @@
         <v>2909.4224</v>
       </c>
       <c r="G25" t="n">
+        <v>257.0133333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>259.1649999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1461,25 @@
         <v>244.49</v>
       </c>
       <c r="G26" t="n">
+        <v>256.6200000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>258.9783333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1503,25 @@
         <v>118.7727</v>
       </c>
       <c r="G27" t="n">
+        <v>255.7466666666668</v>
+      </c>
+      <c r="H27" t="n">
         <v>258.6583333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1545,25 @@
         <v>281.2273</v>
       </c>
       <c r="G28" t="n">
+        <v>255.6066666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>258.3216666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1587,25 @@
         <v>75.09099999999999</v>
       </c>
       <c r="G29" t="n">
+        <v>255.1400000000002</v>
+      </c>
+      <c r="H29" t="n">
         <v>258.0816666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1629,25 @@
         <v>80</v>
       </c>
       <c r="G30" t="n">
+        <v>254.7066666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>257.8483333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1671,25 @@
         <v>928.9638</v>
       </c>
       <c r="G31" t="n">
+        <v>254.6533333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>257.7233333333332</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1713,25 @@
         <v>748.9639</v>
       </c>
       <c r="G32" t="n">
+        <v>254.2066666666668</v>
+      </c>
+      <c r="H32" t="n">
         <v>257.5016666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1755,25 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
+        <v>253.9533333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>257.4183333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1797,25 @@
         <v>2780.8423</v>
       </c>
       <c r="G34" t="n">
+        <v>253.8933333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>257.3666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1839,25 @@
         <v>125.0485</v>
       </c>
       <c r="G35" t="n">
+        <v>254.0933333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>257.3166666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1881,25 @@
         <v>405</v>
       </c>
       <c r="G36" t="n">
+        <v>254.4866666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>257.3149999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1923,25 @@
         <v>570.9932</v>
       </c>
       <c r="G37" t="n">
+        <v>254.8800000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>257.2133333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1965,25 @@
         <v>2</v>
       </c>
       <c r="G38" t="n">
+        <v>255.2666666666668</v>
+      </c>
+      <c r="H38" t="n">
         <v>257.1099999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2007,25 @@
         <v>5951.251317653846</v>
       </c>
       <c r="G39" t="n">
+        <v>255.7466666666668</v>
+      </c>
+      <c r="H39" t="n">
         <v>256.9783333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2049,25 @@
         <v>788.0116</v>
       </c>
       <c r="G40" t="n">
+        <v>256.1466666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>256.8449999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2091,25 @@
         <v>627.3434</v>
       </c>
       <c r="G41" t="n">
+        <v>256.7400000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>256.6949999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2133,25 @@
         <v>20</v>
       </c>
       <c r="G42" t="n">
+        <v>257.2333333333335</v>
+      </c>
+      <c r="H42" t="n">
         <v>256.6766666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2175,25 @@
         <v>20</v>
       </c>
       <c r="G43" t="n">
+        <v>257.7200000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>256.6733333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2217,25 @@
         <v>132.365</v>
       </c>
       <c r="G44" t="n">
+        <v>258.1200000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>256.6066666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2259,25 @@
         <v>16.8719</v>
       </c>
       <c r="G45" t="n">
+        <v>258.5533333333335</v>
+      </c>
+      <c r="H45" t="n">
         <v>256.7033333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2301,25 @@
         <v>17740.6638</v>
       </c>
       <c r="G46" t="n">
+        <v>258.3533333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>256.7499999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2343,25 @@
         <v>68.2884</v>
       </c>
       <c r="G47" t="n">
+        <v>258.6133333333335</v>
+      </c>
+      <c r="H47" t="n">
         <v>256.8133333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2385,27 @@
         <v>8762.7852</v>
       </c>
       <c r="G48" t="n">
+        <v>258.8800000000002</v>
+      </c>
+      <c r="H48" t="n">
         <v>256.9266666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>257</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2429,25 @@
         <v>3360.0145</v>
       </c>
       <c r="G49" t="n">
+        <v>258.9533333333335</v>
+      </c>
+      <c r="H49" t="n">
         <v>256.9099999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2471,25 @@
         <v>13934.5776</v>
       </c>
       <c r="G50" t="n">
+        <v>259.1533333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>256.8949999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2513,25 @@
         <v>1563.8368</v>
       </c>
       <c r="G51" t="n">
+        <v>259.0933333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>256.9916666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2555,25 @@
         <v>69</v>
       </c>
       <c r="G52" t="n">
+        <v>259.1000000000002</v>
+      </c>
+      <c r="H52" t="n">
         <v>256.9916666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2597,25 @@
         <v>3899.0934</v>
       </c>
       <c r="G53" t="n">
+        <v>259.0466666666669</v>
+      </c>
+      <c r="H53" t="n">
         <v>256.9583333333332</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2639,25 @@
         <v>7964.661</v>
       </c>
       <c r="G54" t="n">
+        <v>259.6400000000002</v>
+      </c>
+      <c r="H54" t="n">
         <v>257.1999999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2681,25 @@
         <v>15767.8256</v>
       </c>
       <c r="G55" t="n">
+        <v>259.4733333333335</v>
+      </c>
+      <c r="H55" t="n">
         <v>257.2149999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2723,25 @@
         <v>2</v>
       </c>
       <c r="G56" t="n">
+        <v>259.7933333333336</v>
+      </c>
+      <c r="H56" t="n">
         <v>257.3849999999998</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2765,25 @@
         <v>1221.355</v>
       </c>
       <c r="G57" t="n">
+        <v>259.9933333333335</v>
+      </c>
+      <c r="H57" t="n">
         <v>257.3833333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2807,25 @@
         <v>11.7416</v>
       </c>
       <c r="G58" t="n">
+        <v>259.9400000000002</v>
+      </c>
+      <c r="H58" t="n">
         <v>257.4499999999998</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2849,25 @@
         <v>491.1399</v>
       </c>
       <c r="G59" t="n">
+        <v>259.8066666666669</v>
+      </c>
+      <c r="H59" t="n">
         <v>257.4649999999998</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2891,25 @@
         <v>54</v>
       </c>
       <c r="G60" t="n">
+        <v>259.9333333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>257.5633333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2933,25 @@
         <v>7461.3881</v>
       </c>
       <c r="G61" t="n">
+        <v>260.2666666666668</v>
+      </c>
+      <c r="H61" t="n">
         <v>257.6633333333331</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2975,25 @@
         <v>4681.8256</v>
       </c>
       <c r="G62" t="n">
+        <v>260.6333333333335</v>
+      </c>
+      <c r="H62" t="n">
         <v>257.7883333333331</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3017,25 @@
         <v>421</v>
       </c>
       <c r="G63" t="n">
+        <v>261.0333333333335</v>
+      </c>
+      <c r="H63" t="n">
         <v>257.9799999999998</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3059,25 @@
         <v>2216.39</v>
       </c>
       <c r="G64" t="n">
+        <v>261.0333333333335</v>
+      </c>
+      <c r="H64" t="n">
         <v>258.0633333333332</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3101,25 @@
         <v>1963.969</v>
       </c>
       <c r="G65" t="n">
+        <v>261.2933333333335</v>
+      </c>
+      <c r="H65" t="n">
         <v>258.2199999999998</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3143,25 @@
         <v>5575.937</v>
       </c>
       <c r="G66" t="n">
+        <v>261.6933333333335</v>
+      </c>
+      <c r="H66" t="n">
         <v>258.3983333333331</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3185,25 @@
         <v>111</v>
       </c>
       <c r="G67" t="n">
+        <v>262.0533333333335</v>
+      </c>
+      <c r="H67" t="n">
         <v>258.5799999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3227,25 @@
         <v>735</v>
       </c>
       <c r="G68" t="n">
+        <v>262.4733333333335</v>
+      </c>
+      <c r="H68" t="n">
         <v>258.6366666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3269,25 @@
         <v>2503.2787</v>
       </c>
       <c r="G69" t="n">
+        <v>261.9466666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>258.6866666666664</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3311,25 @@
         <v>3</v>
       </c>
       <c r="G70" t="n">
+        <v>262.3800000000002</v>
+      </c>
+      <c r="H70" t="n">
         <v>258.7533333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3353,25 @@
         <v>2156.3118</v>
       </c>
       <c r="G71" t="n">
+        <v>262.0666666666668</v>
+      </c>
+      <c r="H71" t="n">
         <v>258.8049999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3395,25 @@
         <v>4.5988</v>
       </c>
       <c r="G72" t="n">
+        <v>262.0066666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>258.7449999999998</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3437,25 @@
         <v>21496.2055</v>
       </c>
       <c r="G73" t="n">
+        <v>261.9400000000002</v>
+      </c>
+      <c r="H73" t="n">
         <v>258.8016666666664</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3479,25 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
+        <v>262.2133333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>258.8199999999998</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3521,25 @@
         <v>1863.2916</v>
       </c>
       <c r="G75" t="n">
+        <v>262.1533333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>258.8366666666665</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3563,25 @@
         <v>1880.468</v>
       </c>
       <c r="G76" t="n">
+        <v>261.8333333333335</v>
+      </c>
+      <c r="H76" t="n">
         <v>258.7766666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3605,25 @@
         <v>1137.7477</v>
       </c>
       <c r="G77" t="n">
+        <v>261.6000000000002</v>
+      </c>
+      <c r="H77" t="n">
         <v>258.7633333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3647,25 @@
         <v>125.8721</v>
       </c>
       <c r="G78" t="n">
+        <v>261.0000000000002</v>
+      </c>
+      <c r="H78" t="n">
         <v>258.7166666666665</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3689,25 @@
         <v>21741.9537</v>
       </c>
       <c r="G79" t="n">
+        <v>260.7800000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>258.6649999999998</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3731,25 @@
         <v>27976.328</v>
       </c>
       <c r="G80" t="n">
+        <v>260.0400000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>258.6449999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3773,27 @@
         <v>4531.7674</v>
       </c>
       <c r="G81" t="n">
+        <v>259.2266666666668</v>
+      </c>
+      <c r="H81" t="n">
         <v>258.6249999999998</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>252.8</v>
+      </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,24 +3817,27 @@
         <v>9243.7415</v>
       </c>
       <c r="G82" t="n">
+        <v>258.3133333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>258.5866666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
         <v>252.8</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,24 +3861,27 @@
         <v>1393.0889</v>
       </c>
       <c r="G83" t="n">
+        <v>257.4800000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>258.5666666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
         <v>251.7</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,24 +3905,27 @@
         <v>5098.4658</v>
       </c>
       <c r="G84" t="n">
+        <v>256.9400000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>258.5683333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
         <v>252.8</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,22 +3949,27 @@
         <v>20615.0056</v>
       </c>
       <c r="G85" t="n">
+        <v>256.2466666666668</v>
+      </c>
+      <c r="H85" t="n">
         <v>258.5616666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,22 +3993,27 @@
         <v>2023.9882</v>
       </c>
       <c r="G86" t="n">
+        <v>255.6800000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>258.5699999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3449,22 +4037,27 @@
         <v>114.192</v>
       </c>
       <c r="G87" t="n">
+        <v>255.0266666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>258.5649999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,22 +4081,27 @@
         <v>2952.4348</v>
       </c>
       <c r="G88" t="n">
+        <v>254.6133333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>258.5533333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,22 +4125,27 @@
         <v>4588.245</v>
       </c>
       <c r="G89" t="n">
+        <v>254.2666666666668</v>
+      </c>
+      <c r="H89" t="n">
         <v>258.6016666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,22 +4169,27 @@
         <v>131.495</v>
       </c>
       <c r="G90" t="n">
+        <v>253.9133333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>258.6383333333332</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>254.9</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3605,22 +4213,27 @@
         <v>178.7614</v>
       </c>
       <c r="G91" t="n">
+        <v>253.8200000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>258.5683333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>254.7</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,22 +4257,27 @@
         <v>712.4325</v>
       </c>
       <c r="G92" t="n">
+        <v>253.5933333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>258.6099999999998</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>254.8</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3683,22 +4301,27 @@
         <v>78.4658</v>
       </c>
       <c r="G93" t="n">
+        <v>253.5066666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>258.6049999999998</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,22 +4345,25 @@
         <v>15852.5197</v>
       </c>
       <c r="G94" t="n">
+        <v>253.1933333333335</v>
+      </c>
+      <c r="H94" t="n">
         <v>258.4899999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3761,22 +4387,25 @@
         <v>6309.2214</v>
       </c>
       <c r="G95" t="n">
+        <v>253.1400000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>258.4066666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,22 +4429,25 @@
         <v>4130.5344</v>
       </c>
       <c r="G96" t="n">
+        <v>253.0866666666668</v>
+      </c>
+      <c r="H96" t="n">
         <v>258.2749999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,22 +4471,27 @@
         <v>2281.2785</v>
       </c>
       <c r="G97" t="n">
+        <v>253.1333333333335</v>
+      </c>
+      <c r="H97" t="n">
         <v>258.1499999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>252</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,22 +4515,27 @@
         <v>11615.63087029627</v>
       </c>
       <c r="G98" t="n">
+        <v>253.6066666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>258.1516666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3917,22 +4559,27 @@
         <v>80.2731</v>
       </c>
       <c r="G99" t="n">
+        <v>253.9933333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>258.1299999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,22 +4603,25 @@
         <v>1089.2384</v>
       </c>
       <c r="G100" t="n">
+        <v>254.4666666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>258.1416666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3995,22 +4645,25 @@
         <v>4776.5931</v>
       </c>
       <c r="G101" t="n">
+        <v>254.9400000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>258.1199999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,22 +4687,25 @@
         <v>54.05405405405406</v>
       </c>
       <c r="G102" t="n">
+        <v>255.3933333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>258.1049999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,22 +4729,25 @@
         <v>607.9877</v>
       </c>
       <c r="G103" t="n">
+        <v>255.8733333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>258.0916666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,22 +4771,25 @@
         <v>1583.1398</v>
       </c>
       <c r="G104" t="n">
+        <v>255.9466666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>258.0583333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,22 +4813,25 @@
         <v>4961.5893</v>
       </c>
       <c r="G105" t="n">
+        <v>256.3000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>258.0749999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,22 +4855,25 @@
         <v>778.2034</v>
       </c>
       <c r="G106" t="n">
+        <v>256.6133333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>258.1333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,22 +4897,25 @@
         <v>3954.5364</v>
       </c>
       <c r="G107" t="n">
+        <v>256.9066666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>258.1833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,22 +4939,25 @@
         <v>2869.5035</v>
       </c>
       <c r="G108" t="n">
+        <v>257.1933333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>258.1833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4307,22 +4981,25 @@
         <v>825</v>
       </c>
       <c r="G109" t="n">
+        <v>257.7266666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>258.1833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,22 +5023,25 @@
         <v>9534.407800000001</v>
       </c>
       <c r="G110" t="n">
+        <v>258.3266666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>258.1999999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,22 +5065,25 @@
         <v>0.08954594594594595</v>
       </c>
       <c r="G111" t="n">
+        <v>258.9266666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>258.2333333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,22 +5107,25 @@
         <v>1707.694754054054</v>
       </c>
       <c r="G112" t="n">
+        <v>259.5000000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>258.2499999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4463,22 +5149,25 @@
         <v>1280.853734201455</v>
       </c>
       <c r="G113" t="n">
+        <v>259.58</v>
+      </c>
+      <c r="H113" t="n">
         <v>258.285</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,22 +5191,25 @@
         <v>6.6878</v>
       </c>
       <c r="G114" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>258.1033333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4541,22 +5233,25 @@
         <v>3.2657</v>
       </c>
       <c r="G115" t="n">
+        <v>259.6533333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>258.1866666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,22 +5275,25 @@
         <v>2634.3705</v>
       </c>
       <c r="G116" t="n">
+        <v>259.6066666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>258.0733333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4619,22 +5317,25 @@
         <v>1975.7779</v>
       </c>
       <c r="G117" t="n">
+        <v>259.5400000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>257.9916666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,22 +5359,27 @@
         <v>1614.7472</v>
       </c>
       <c r="G118" t="n">
+        <v>259.6066666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>258.0083333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>258</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,22 +5403,27 @@
         <v>4109.9399</v>
       </c>
       <c r="G119" t="n">
+        <v>259.9466666666668</v>
+      </c>
+      <c r="H119" t="n">
         <v>258.0933333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>260</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,22 +5447,25 @@
         <v>10889.57936579855</v>
       </c>
       <c r="G120" t="n">
+        <v>260.0200000000002</v>
+      </c>
+      <c r="H120" t="n">
         <v>258.0966666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4775,22 +5489,25 @@
         <v>1280.8538</v>
       </c>
       <c r="G121" t="n">
+        <v>260.1266666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>258.0983333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,22 +5531,25 @@
         <v>3458.540734201456</v>
       </c>
       <c r="G122" t="n">
+        <v>260.1266666666668</v>
+      </c>
+      <c r="H122" t="n">
         <v>258.0566666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4853,22 +5573,25 @@
         <v>427.6412</v>
       </c>
       <c r="G123" t="n">
+        <v>260.1266666666668</v>
+      </c>
+      <c r="H123" t="n">
         <v>257.9566666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,22 +5615,25 @@
         <v>3254.346165798544</v>
       </c>
       <c r="G124" t="n">
+        <v>260.2000000000002</v>
+      </c>
+      <c r="H124" t="n">
         <v>257.975</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4931,22 +5657,25 @@
         <v>1296.896134201455</v>
       </c>
       <c r="G125" t="n">
+        <v>260.2066666666669</v>
+      </c>
+      <c r="H125" t="n">
         <v>257.9283333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,22 +5699,25 @@
         <v>1775.9705</v>
       </c>
       <c r="G126" t="n">
+        <v>260.3400000000002</v>
+      </c>
+      <c r="H126" t="n">
         <v>257.895</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,22 +5741,25 @@
         <v>2541.578</v>
       </c>
       <c r="G127" t="n">
+        <v>260.4733333333335</v>
+      </c>
+      <c r="H127" t="n">
         <v>257.855</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,22 +5783,25 @@
         <v>115.6215</v>
       </c>
       <c r="G128" t="n">
+        <v>260.4666666666669</v>
+      </c>
+      <c r="H128" t="n">
         <v>257.7833333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,22 +5825,25 @@
         <v>12683.1616</v>
       </c>
       <c r="G129" t="n">
+        <v>260.8666666666669</v>
+      </c>
+      <c r="H129" t="n">
         <v>257.8333333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,22 +5867,25 @@
         <v>36.7144</v>
       </c>
       <c r="G130" t="n">
+        <v>261.0333333333336</v>
+      </c>
+      <c r="H130" t="n">
         <v>257.85</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5165,22 +5909,25 @@
         <v>767.6428</v>
       </c>
       <c r="G131" t="n">
+        <v>261.3666666666669</v>
+      </c>
+      <c r="H131" t="n">
         <v>257.8983333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,22 +5951,25 @@
         <v>2453.9435</v>
       </c>
       <c r="G132" t="n">
+        <v>261.7666666666669</v>
+      </c>
+      <c r="H132" t="n">
         <v>257.9316666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,22 +5993,25 @@
         <v>9660.690489348231</v>
       </c>
       <c r="G133" t="n">
+        <v>262.1000000000003</v>
+      </c>
+      <c r="H133" t="n">
         <v>258.0483333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,22 +6035,25 @@
         <v>8.9312</v>
       </c>
       <c r="G134" t="n">
+        <v>262.2933333333336</v>
+      </c>
+      <c r="H134" t="n">
         <v>258.1133333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5321,22 +6077,25 @@
         <v>881.3</v>
       </c>
       <c r="G135" t="n">
+        <v>262.6466666666669</v>
+      </c>
+      <c r="H135" t="n">
         <v>258.22</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,22 +6119,25 @@
         <v>4950.079410651769</v>
       </c>
       <c r="G136" t="n">
+        <v>263.1400000000003</v>
+      </c>
+      <c r="H136" t="n">
         <v>258.425</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,22 +6161,25 @@
         <v>8293.9863</v>
       </c>
       <c r="G137" t="n">
+        <v>263.866666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>258.6233333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,22 +6203,25 @@
         <v>2667.3583</v>
       </c>
       <c r="G138" t="n">
+        <v>264.466666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>258.8233333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5477,22 +6245,25 @@
         <v>6136.4167</v>
       </c>
       <c r="G139" t="n">
+        <v>265.2200000000003</v>
+      </c>
+      <c r="H139" t="n">
         <v>259.085</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,22 +6287,25 @@
         <v>2033.0999</v>
       </c>
       <c r="G140" t="n">
+        <v>265.8133333333337</v>
+      </c>
+      <c r="H140" t="n">
         <v>259.3716666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,22 +6329,27 @@
         <v>11274.0795</v>
       </c>
       <c r="G141" t="n">
+        <v>266.606666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>259.74</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5592,20 +6371,25 @@
         <v>1915.0178</v>
       </c>
       <c r="G142" t="n">
+        <v>267.406666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>260.1283333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5627,18 +6411,21 @@
         <v>3130.7452</v>
       </c>
       <c r="G143" t="n">
+        <v>268.146666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>260.45</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6449,21 @@
         <v>23628.7569</v>
       </c>
       <c r="G144" t="n">
+        <v>268.3200000000004</v>
+      </c>
+      <c r="H144" t="n">
         <v>260.6783333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +6487,21 @@
         <v>1455.5801</v>
       </c>
       <c r="G145" t="n">
+        <v>268.5600000000004</v>
+      </c>
+      <c r="H145" t="n">
         <v>260.9283333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +6525,21 @@
         <v>2</v>
       </c>
       <c r="G146" t="n">
+        <v>268.8933333333337</v>
+      </c>
+      <c r="H146" t="n">
         <v>261.2016666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +6563,21 @@
         <v>9282.0591</v>
       </c>
       <c r="G147" t="n">
+        <v>269.0533333333337</v>
+      </c>
+      <c r="H147" t="n">
         <v>261.4383333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +6601,21 @@
         <v>344.1333</v>
       </c>
       <c r="G148" t="n">
+        <v>269.146666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>261.6816666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +6639,21 @@
         <v>4</v>
       </c>
       <c r="G149" t="n">
+        <v>269.146666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>261.8333333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,18 +6677,21 @@
         <v>2</v>
       </c>
       <c r="G150" t="n">
+        <v>269.0533333333337</v>
+      </c>
+      <c r="H150" t="n">
         <v>262.005</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,18 +6715,21 @@
         <v>3213.2815</v>
       </c>
       <c r="G151" t="n">
+        <v>268.7400000000004</v>
+      </c>
+      <c r="H151" t="n">
         <v>262.155</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,18 +6753,21 @@
         <v>644.598</v>
       </c>
       <c r="G152" t="n">
+        <v>268.2600000000003</v>
+      </c>
+      <c r="H152" t="n">
         <v>262.29</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,18 +6791,21 @@
         <v>665.3638</v>
       </c>
       <c r="G153" t="n">
+        <v>267.9133333333336</v>
+      </c>
+      <c r="H153" t="n">
         <v>262.425</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,18 +6829,21 @@
         <v>1310.2062</v>
       </c>
       <c r="G154" t="n">
+        <v>267.3400000000003</v>
+      </c>
+      <c r="H154" t="n">
         <v>262.6216666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6047,18 +6867,21 @@
         <v>3000</v>
       </c>
       <c r="G155" t="n">
+        <v>266.6733333333336</v>
+      </c>
+      <c r="H155" t="n">
         <v>262.7549999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,18 +6905,21 @@
         <v>4127.8634</v>
       </c>
       <c r="G156" t="n">
+        <v>265.486666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>262.84</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,18 +6943,21 @@
         <v>613.6344</v>
       </c>
       <c r="G157" t="n">
+        <v>264.2933333333336</v>
+      </c>
+      <c r="H157" t="n">
         <v>262.9183333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,18 +6981,21 @@
         <v>5000</v>
       </c>
       <c r="G158" t="n">
+        <v>263.2933333333336</v>
+      </c>
+      <c r="H158" t="n">
         <v>262.8716666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6187,18 +7019,21 @@
         <v>177.2337</v>
       </c>
       <c r="G159" t="n">
+        <v>262.806666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>262.8816666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,18 +7057,21 @@
         <v>245.714</v>
       </c>
       <c r="G160" t="n">
+        <v>262.326666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>262.8933333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6257,18 +7095,21 @@
         <v>2</v>
       </c>
       <c r="G161" t="n">
+        <v>262.1133333333336</v>
+      </c>
+      <c r="H161" t="n">
         <v>262.9949999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,18 +7133,21 @@
         <v>5000</v>
       </c>
       <c r="G162" t="n">
+        <v>261.7666666666669</v>
+      </c>
+      <c r="H162" t="n">
         <v>263.0316666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6327,18 +7171,21 @@
         <v>3902.2776</v>
       </c>
       <c r="G163" t="n">
+        <v>261.4133333333336</v>
+      </c>
+      <c r="H163" t="n">
         <v>263.0666666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,18 +7209,21 @@
         <v>1312.999</v>
       </c>
       <c r="G164" t="n">
+        <v>261.3400000000003</v>
+      </c>
+      <c r="H164" t="n">
         <v>263.1816666666666</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6397,18 +7247,21 @@
         <v>17849.3587</v>
       </c>
       <c r="G165" t="n">
+        <v>261.0866666666669</v>
+      </c>
+      <c r="H165" t="n">
         <v>263.2016666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6432,18 +7285,21 @@
         <v>35565.2385</v>
       </c>
       <c r="G166" t="n">
+        <v>260.9133333333336</v>
+      </c>
+      <c r="H166" t="n">
         <v>263.23</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,18 +7323,21 @@
         <v>156812</v>
       </c>
       <c r="G167" t="n">
+        <v>260.8666666666669</v>
+      </c>
+      <c r="H167" t="n">
         <v>263.28</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,18 +7361,21 @@
         <v>185.0191</v>
       </c>
       <c r="G168" t="n">
+        <v>260.6933333333336</v>
+      </c>
+      <c r="H168" t="n">
         <v>263.3</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6537,18 +7399,21 @@
         <v>806.8221</v>
       </c>
       <c r="G169" t="n">
+        <v>260.5200000000002</v>
+      </c>
+      <c r="H169" t="n">
         <v>263.32</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6572,18 +7437,21 @@
         <v>15814.1074</v>
       </c>
       <c r="G170" t="n">
+        <v>260.5866666666669</v>
+      </c>
+      <c r="H170" t="n">
         <v>263.32</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6607,18 +7475,21 @@
         <v>3262.4683</v>
       </c>
       <c r="G171" t="n">
+        <v>260.8600000000002</v>
+      </c>
+      <c r="H171" t="n">
         <v>263.3233333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,18 +7513,21 @@
         <v>8612.3932</v>
       </c>
       <c r="G172" t="n">
+        <v>261.1333333333336</v>
+      </c>
+      <c r="H172" t="n">
         <v>263.3266666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6677,18 +7551,21 @@
         <v>5.0883</v>
       </c>
       <c r="G173" t="n">
+        <v>261.5800000000002</v>
+      </c>
+      <c r="H173" t="n">
         <v>263.3716666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6712,18 +7589,21 @@
         <v>20664.8144</v>
       </c>
       <c r="G174" t="n">
+        <v>261.5600000000002</v>
+      </c>
+      <c r="H174" t="n">
         <v>263.3883333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6747,18 +7627,21 @@
         <v>78.4032</v>
       </c>
       <c r="G175" t="n">
+        <v>261.5800000000002</v>
+      </c>
+      <c r="H175" t="n">
         <v>263.375</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6782,18 +7665,21 @@
         <v>10000</v>
       </c>
       <c r="G176" t="n">
+        <v>261.2600000000002</v>
+      </c>
+      <c r="H176" t="n">
         <v>263.4083333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6817,18 +7703,21 @@
         <v>5201.35</v>
       </c>
       <c r="G177" t="n">
+        <v>261.1800000000002</v>
+      </c>
+      <c r="H177" t="n">
         <v>263.4416666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6852,18 +7741,21 @@
         <v>15172.6133</v>
       </c>
       <c r="G178" t="n">
+        <v>261.1066666666669</v>
+      </c>
+      <c r="H178" t="n">
         <v>263.4416666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6887,18 +7779,21 @@
         <v>2397.4736</v>
       </c>
       <c r="G179" t="n">
+        <v>260.9133333333335</v>
+      </c>
+      <c r="H179" t="n">
         <v>263.4233333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,18 +7817,21 @@
         <v>4638.6534</v>
       </c>
       <c r="G180" t="n">
+        <v>261.0733333333335</v>
+      </c>
+      <c r="H180" t="n">
         <v>263.465</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6957,18 +7855,21 @@
         <v>23529.2603</v>
       </c>
       <c r="G181" t="n">
+        <v>260.9333333333335</v>
+      </c>
+      <c r="H181" t="n">
         <v>263.4316666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6992,18 +7893,21 @@
         <v>318.8897</v>
       </c>
       <c r="G182" t="n">
+        <v>260.8066666666669</v>
+      </c>
+      <c r="H182" t="n">
         <v>263.45</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,18 +7931,21 @@
         <v>1815.5037</v>
       </c>
       <c r="G183" t="n">
+        <v>260.8000000000002</v>
+      </c>
+      <c r="H183" t="n">
         <v>263.4683333333334</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7062,18 +7969,21 @@
         <v>2232.4311</v>
       </c>
       <c r="G184" t="n">
+        <v>260.6666666666669</v>
+      </c>
+      <c r="H184" t="n">
         <v>263.4366666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,18 +8007,21 @@
         <v>2410.5885</v>
       </c>
       <c r="G185" t="n">
+        <v>260.5333333333336</v>
+      </c>
+      <c r="H185" t="n">
         <v>263.4016666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7132,18 +8045,21 @@
         <v>9534.9823</v>
       </c>
       <c r="G186" t="n">
+        <v>260.3866666666669</v>
+      </c>
+      <c r="H186" t="n">
         <v>263.335</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7167,18 +8083,21 @@
         <v>372.1385</v>
       </c>
       <c r="G187" t="n">
+        <v>260.1466666666669</v>
+      </c>
+      <c r="H187" t="n">
         <v>263.245</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7202,18 +8121,21 @@
         <v>799.3715</v>
       </c>
       <c r="G188" t="n">
+        <v>259.8266666666669</v>
+      </c>
+      <c r="H188" t="n">
         <v>263.2116666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7237,18 +8159,21 @@
         <v>5807.5289</v>
       </c>
       <c r="G189" t="n">
+        <v>259.7866666666669</v>
+      </c>
+      <c r="H189" t="n">
         <v>263.1183333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7272,18 +8197,21 @@
         <v>29.6314</v>
       </c>
       <c r="G190" t="n">
+        <v>259.7533333333336</v>
+      </c>
+      <c r="H190" t="n">
         <v>263.055</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7307,18 +8235,21 @@
         <v>500</v>
       </c>
       <c r="G191" t="n">
+        <v>260.0133333333335</v>
+      </c>
+      <c r="H191" t="n">
         <v>263.07</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,18 +8273,21 @@
         <v>5218.5339</v>
       </c>
       <c r="G192" t="n">
+        <v>260.2733333333335</v>
+      </c>
+      <c r="H192" t="n">
         <v>263.0683333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,18 +8311,21 @@
         <v>1595.5452</v>
       </c>
       <c r="G193" t="n">
+        <v>260.3400000000002</v>
+      </c>
+      <c r="H193" t="n">
         <v>263.0016666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7412,18 +8349,21 @@
         <v>4.3737</v>
       </c>
       <c r="G194" t="n">
+        <v>260.5266666666669</v>
+      </c>
+      <c r="H194" t="n">
         <v>262.9816666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,18 +8387,21 @@
         <v>1000</v>
       </c>
       <c r="G195" t="n">
+        <v>260.3000000000002</v>
+      </c>
+      <c r="H195" t="n">
         <v>262.8783333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,18 +8425,21 @@
         <v>549.9</v>
       </c>
       <c r="G196" t="n">
+        <v>260.4400000000002</v>
+      </c>
+      <c r="H196" t="n">
         <v>262.7566666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7517,18 +8463,21 @@
         <v>228.2</v>
       </c>
       <c r="G197" t="n">
+        <v>260.4466666666669</v>
+      </c>
+      <c r="H197" t="n">
         <v>262.595</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7552,18 +8501,21 @@
         <v>700</v>
       </c>
       <c r="G198" t="n">
+        <v>260.3866666666669</v>
+      </c>
+      <c r="H198" t="n">
         <v>262.4483333333334</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7587,18 +8539,21 @@
         <v>214</v>
       </c>
       <c r="G199" t="n">
+        <v>260.386666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>262.2283333333334</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7622,18 +8577,21 @@
         <v>18.5</v>
       </c>
       <c r="G200" t="n">
+        <v>260.586666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>262.0950000000001</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7657,18 +8615,21 @@
         <v>6956.3693</v>
       </c>
       <c r="G201" t="n">
+        <v>260.5000000000003</v>
+      </c>
+      <c r="H201" t="n">
         <v>261.8083333333335</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7692,18 +8653,21 @@
         <v>29.1202</v>
       </c>
       <c r="G202" t="n">
+        <v>260.7933333333336</v>
+      </c>
+      <c r="H202" t="n">
         <v>261.5916666666668</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7727,18 +8691,21 @@
         <v>4933.488</v>
       </c>
       <c r="G203" t="n">
+        <v>260.7600000000003</v>
+      </c>
+      <c r="H203" t="n">
         <v>261.3650000000001</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7762,18 +8729,21 @@
         <v>1000</v>
       </c>
       <c r="G204" t="n">
+        <v>260.766666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>261.2300000000001</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7797,18 +8767,21 @@
         <v>2772.2394</v>
       </c>
       <c r="G205" t="n">
+        <v>260.7200000000004</v>
+      </c>
+      <c r="H205" t="n">
         <v>261.0950000000001</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7832,18 +8805,21 @@
         <v>1549.6426</v>
       </c>
       <c r="G206" t="n">
+        <v>260.3600000000004</v>
+      </c>
+      <c r="H206" t="n">
         <v>260.9366666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7867,18 +8843,21 @@
         <v>773.2935</v>
       </c>
       <c r="G207" t="n">
+        <v>260.1600000000004</v>
+      </c>
+      <c r="H207" t="n">
         <v>260.8450000000001</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7902,18 +8881,21 @@
         <v>814.3488</v>
       </c>
       <c r="G208" t="n">
+        <v>260.1533333333337</v>
+      </c>
+      <c r="H208" t="n">
         <v>260.7533333333334</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7937,18 +8919,21 @@
         <v>550.9451</v>
       </c>
       <c r="G209" t="n">
+        <v>260.0333333333337</v>
+      </c>
+      <c r="H209" t="n">
         <v>260.7033333333334</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7972,18 +8957,21 @@
         <v>901</v>
       </c>
       <c r="G210" t="n">
+        <v>260.1200000000004</v>
+      </c>
+      <c r="H210" t="n">
         <v>260.6450000000001</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8007,18 +8995,21 @@
         <v>973.3736390886157</v>
       </c>
       <c r="G211" t="n">
+        <v>260.1400000000004</v>
+      </c>
+      <c r="H211" t="n">
         <v>260.6066666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8042,18 +9033,21 @@
         <v>125.91</v>
       </c>
       <c r="G212" t="n">
+        <v>260.0600000000004</v>
+      </c>
+      <c r="H212" t="n">
         <v>260.5450000000001</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8077,18 +9071,21 @@
         <v>647.3835</v>
       </c>
       <c r="G213" t="n">
+        <v>260.0466666666671</v>
+      </c>
+      <c r="H213" t="n">
         <v>260.4816666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8112,18 +9109,21 @@
         <v>9484.201814448668</v>
       </c>
       <c r="G214" t="n">
+        <v>260.3000000000004</v>
+      </c>
+      <c r="H214" t="n">
         <v>260.4683333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8147,18 +9147,21 @@
         <v>250</v>
       </c>
       <c r="G215" t="n">
+        <v>260.4133333333338</v>
+      </c>
+      <c r="H215" t="n">
         <v>260.5300000000001</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8182,18 +9185,21 @@
         <v>2729.7687</v>
       </c>
       <c r="G216" t="n">
+        <v>260.7933333333337</v>
+      </c>
+      <c r="H216" t="n">
         <v>260.6350000000001</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8217,18 +9223,21 @@
         <v>2338.871</v>
       </c>
       <c r="G217" t="n">
+        <v>260.8600000000004</v>
+      </c>
+      <c r="H217" t="n">
         <v>260.7333333333334</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8252,18 +9261,21 @@
         <v>500</v>
       </c>
       <c r="G218" t="n">
+        <v>261.206666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>260.8433333333334</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8287,18 +9299,21 @@
         <v>2000</v>
       </c>
       <c r="G219" t="n">
+        <v>261.3466666666671</v>
+      </c>
+      <c r="H219" t="n">
         <v>260.8650000000001</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8322,18 +9337,21 @@
         <v>10</v>
       </c>
       <c r="G220" t="n">
+        <v>261.6933333333337</v>
+      </c>
+      <c r="H220" t="n">
         <v>260.9366666666668</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8357,18 +9375,21 @@
         <v>110</v>
       </c>
       <c r="G221" t="n">
+        <v>262.0400000000004</v>
+      </c>
+      <c r="H221" t="n">
         <v>260.9183333333335</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8392,18 +9413,21 @@
         <v>7323.919585551331</v>
       </c>
       <c r="G222" t="n">
+        <v>261.9800000000004</v>
+      </c>
+      <c r="H222" t="n">
         <v>260.8983333333335</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8427,18 +9451,21 @@
         <v>11.6239</v>
       </c>
       <c r="G223" t="n">
+        <v>261.9200000000004</v>
+      </c>
+      <c r="H223" t="n">
         <v>260.8800000000002</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8462,18 +9489,21 @@
         <v>592.0197144486692</v>
       </c>
       <c r="G224" t="n">
+        <v>261.8533333333338</v>
+      </c>
+      <c r="H224" t="n">
         <v>260.8316666666668</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8497,18 +9527,21 @@
         <v>52</v>
       </c>
       <c r="G225" t="n">
+        <v>261.9533333333338</v>
+      </c>
+      <c r="H225" t="n">
         <v>260.8616666666668</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8532,18 +9565,21 @@
         <v>123.6737</v>
       </c>
       <c r="G226" t="n">
+        <v>262.0533333333338</v>
+      </c>
+      <c r="H226" t="n">
         <v>260.8916666666668</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8567,18 +9603,21 @@
         <v>1473.7958</v>
       </c>
       <c r="G227" t="n">
+        <v>262.2533333333338</v>
+      </c>
+      <c r="H227" t="n">
         <v>260.8916666666668</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8602,18 +9641,21 @@
         <v>2</v>
       </c>
       <c r="G228" t="n">
+        <v>262.4800000000004</v>
+      </c>
+      <c r="H228" t="n">
         <v>260.9283333333335</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8637,18 +9679,21 @@
         <v>298</v>
       </c>
       <c r="G229" t="n">
+        <v>262.4800000000004</v>
+      </c>
+      <c r="H229" t="n">
         <v>260.9583333333334</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8672,18 +9717,21 @@
         <v>5989.5434</v>
       </c>
       <c r="G230" t="n">
+        <v>262.4666666666671</v>
+      </c>
+      <c r="H230" t="n">
         <v>261.0000000000001</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8707,18 +9755,21 @@
         <v>2.2678</v>
       </c>
       <c r="G231" t="n">
+        <v>262.4733333333338</v>
+      </c>
+      <c r="H231" t="n">
         <v>261.0383333333334</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8742,18 +9793,21 @@
         <v>4.9122</v>
       </c>
       <c r="G232" t="n">
+        <v>262.5066666666671</v>
+      </c>
+      <c r="H232" t="n">
         <v>261.0766666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8777,18 +9831,21 @@
         <v>11.9004</v>
       </c>
       <c r="G233" t="n">
+        <v>262.4933333333337</v>
+      </c>
+      <c r="H233" t="n">
         <v>261.0716666666668</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,18 +9869,21 @@
         <v>7568.3326</v>
       </c>
       <c r="G234" t="n">
+        <v>262.6933333333338</v>
+      </c>
+      <c r="H234" t="n">
         <v>261.1483333333334</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8847,18 +9907,21 @@
         <v>918.5682</v>
       </c>
       <c r="G235" t="n">
+        <v>262.6866666666671</v>
+      </c>
+      <c r="H235" t="n">
         <v>261.2133333333334</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8882,18 +9945,21 @@
         <v>5</v>
       </c>
       <c r="G236" t="n">
+        <v>262.7733333333338</v>
+      </c>
+      <c r="H236" t="n">
         <v>261.2966666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8917,18 +9983,21 @@
         <v>2.447</v>
       </c>
       <c r="G237" t="n">
+        <v>263.2000000000004</v>
+      </c>
+      <c r="H237" t="n">
         <v>261.4033333333334</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8952,18 +10021,21 @@
         <v>4708.7848</v>
       </c>
       <c r="G238" t="n">
+        <v>263.6266666666671</v>
+      </c>
+      <c r="H238" t="n">
         <v>261.51</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8987,18 +10059,21 @@
         <v>2396.3049</v>
       </c>
       <c r="G239" t="n">
+        <v>264.0533333333337</v>
+      </c>
+      <c r="H239" t="n">
         <v>261.6166666666667</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9022,18 +10097,21 @@
         <v>2658.4803</v>
       </c>
       <c r="G240" t="n">
+        <v>264.2600000000004</v>
+      </c>
+      <c r="H240" t="n">
         <v>261.6583333333334</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9057,18 +10135,21 @@
         <v>3926.7764</v>
       </c>
       <c r="G241" t="n">
+        <v>264.4800000000004</v>
+      </c>
+      <c r="H241" t="n">
         <v>261.7783333333334</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9092,18 +10173,21 @@
         <v>1438.9663</v>
       </c>
       <c r="G242" t="n">
+        <v>264.4866666666671</v>
+      </c>
+      <c r="H242" t="n">
         <v>261.8116666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9127,18 +10211,21 @@
         <v>0.5065</v>
       </c>
       <c r="G243" t="n">
+        <v>264.4666666666671</v>
+      </c>
+      <c r="H243" t="n">
         <v>261.845</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9162,18 +10249,21 @@
         <v>34245.0848</v>
       </c>
       <c r="G244" t="n">
+        <v>264.1866666666671</v>
+      </c>
+      <c r="H244" t="n">
         <v>261.8383333333334</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9197,18 +10287,21 @@
         <v>3169.7237</v>
       </c>
       <c r="G245" t="n">
+        <v>264.0933333333338</v>
+      </c>
+      <c r="H245" t="n">
         <v>261.89</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9232,18 +10325,21 @@
         <v>10546.4265</v>
       </c>
       <c r="G246" t="n">
+        <v>263.8733333333338</v>
+      </c>
+      <c r="H246" t="n">
         <v>261.91</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9267,18 +10363,21 @@
         <v>16.8496</v>
       </c>
       <c r="G247" t="n">
+        <v>263.7933333333338</v>
+      </c>
+      <c r="H247" t="n">
         <v>261.9883333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9302,18 +10401,21 @@
         <v>2563.7028</v>
       </c>
       <c r="G248" t="n">
+        <v>263.6733333333338</v>
+      </c>
+      <c r="H248" t="n">
         <v>262.0333333333334</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9337,18 +10439,21 @@
         <v>250</v>
       </c>
       <c r="G249" t="n">
+        <v>263.5333333333338</v>
+      </c>
+      <c r="H249" t="n">
         <v>262.085</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9372,18 +10477,21 @@
         <v>911.4959</v>
       </c>
       <c r="G250" t="n">
+        <v>263.3933333333338</v>
+      </c>
+      <c r="H250" t="n">
         <v>262.1233333333333</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9407,18 +10515,21 @@
         <v>1640.8639</v>
       </c>
       <c r="G251" t="n">
+        <v>263.1733333333339</v>
+      </c>
+      <c r="H251" t="n">
         <v>262.0866666666667</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9442,18 +10553,21 @@
         <v>731.5091</v>
       </c>
       <c r="G252" t="n">
+        <v>263.0400000000005</v>
+      </c>
+      <c r="H252" t="n">
         <v>262.095</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9477,18 +10591,21 @@
         <v>1500</v>
       </c>
       <c r="G253" t="n">
+        <v>262.9066666666671</v>
+      </c>
+      <c r="H253" t="n">
         <v>262.1516666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9512,18 +10629,21 @@
         <v>15</v>
       </c>
       <c r="G254" t="n">
+        <v>262.7733333333338</v>
+      </c>
+      <c r="H254" t="n">
         <v>262.1783333333334</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9547,18 +10667,21 @@
         <v>7546.2554</v>
       </c>
       <c r="G255" t="n">
+        <v>262.6600000000005</v>
+      </c>
+      <c r="H255" t="n">
         <v>262.2483333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9582,18 +10705,21 @@
         <v>2</v>
       </c>
       <c r="G256" t="n">
+        <v>262.4600000000004</v>
+      </c>
+      <c r="H256" t="n">
         <v>262.2833333333334</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9617,18 +10743,21 @@
         <v>1096.3</v>
       </c>
       <c r="G257" t="n">
+        <v>262.4133333333338</v>
+      </c>
+      <c r="H257" t="n">
         <v>262.3033333333333</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9652,18 +10781,21 @@
         <v>183.9</v>
       </c>
       <c r="G258" t="n">
+        <v>262.3533333333338</v>
+      </c>
+      <c r="H258" t="n">
         <v>262.3366666666666</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9687,18 +10819,21 @@
         <v>1111.3751</v>
       </c>
       <c r="G259" t="n">
+        <v>262.5266666666672</v>
+      </c>
+      <c r="H259" t="n">
         <v>262.3733333333333</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9722,18 +10857,21 @@
         <v>3.79794910748196</v>
       </c>
       <c r="G260" t="n">
+        <v>262.6066666666671</v>
+      </c>
+      <c r="H260" t="n">
         <v>262.3949999999999</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9757,18 +10895,21 @@
         <v>150</v>
       </c>
       <c r="G261" t="n">
+        <v>262.6933333333338</v>
+      </c>
+      <c r="H261" t="n">
         <v>262.4583333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9792,18 +10933,21 @@
         <v>1684.8012</v>
       </c>
       <c r="G262" t="n">
+        <v>262.6400000000005</v>
+      </c>
+      <c r="H262" t="n">
         <v>262.4499999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9827,18 +10971,21 @@
         <v>1924.2128</v>
       </c>
       <c r="G263" t="n">
+        <v>262.6266666666672</v>
+      </c>
+      <c r="H263" t="n">
         <v>262.4999999999999</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9862,18 +11009,21 @@
         <v>2041.9776</v>
       </c>
       <c r="G264" t="n">
+        <v>262.6200000000005</v>
+      </c>
+      <c r="H264" t="n">
         <v>262.5483333333333</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9897,18 +11047,21 @@
         <v>242.3601</v>
       </c>
       <c r="G265" t="n">
+        <v>262.5533333333339</v>
+      </c>
+      <c r="H265" t="n">
         <v>262.5816666666666</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9932,18 +11085,21 @@
         <v>403.9335</v>
       </c>
       <c r="G266" t="n">
+        <v>262.4733333333339</v>
+      </c>
+      <c r="H266" t="n">
         <v>262.615</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9967,18 +11123,21 @@
         <v>1271.75</v>
       </c>
       <c r="G267" t="n">
+        <v>262.3133333333338</v>
+      </c>
+      <c r="H267" t="n">
         <v>262.6333333333333</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10002,18 +11161,21 @@
         <v>554.1133</v>
       </c>
       <c r="G268" t="n">
+        <v>262.1533333333339</v>
+      </c>
+      <c r="H268" t="n">
         <v>262.6516666666666</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10037,18 +11199,21 @@
         <v>2546.2554</v>
       </c>
       <c r="G269" t="n">
+        <v>261.8666666666672</v>
+      </c>
+      <c r="H269" t="n">
         <v>262.6366666666666</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10072,18 +11237,21 @@
         <v>5200.517</v>
       </c>
       <c r="G270" t="n">
+        <v>261.5800000000005</v>
+      </c>
+      <c r="H270" t="n">
         <v>262.6133333333333</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10107,18 +11275,25 @@
         <v>2790.8423</v>
       </c>
       <c r="G271" t="n">
+        <v>261.3733333333338</v>
+      </c>
+      <c r="H271" t="n">
         <v>262.5916666666666</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10142,18 +11317,29 @@
         <v>6472.796</v>
       </c>
       <c r="G272" t="n">
+        <v>261.2133333333338</v>
+      </c>
+      <c r="H272" t="n">
         <v>262.5916666666666</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10177,18 +11363,29 @@
         <v>1360</v>
       </c>
       <c r="G273" t="n">
+        <v>261.1133333333339</v>
+      </c>
+      <c r="H273" t="n">
         <v>262.6033333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>260</v>
+      </c>
+      <c r="L273" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10212,18 +11409,29 @@
         <v>1917.8615</v>
       </c>
       <c r="G274" t="n">
+        <v>261.0666666666672</v>
+      </c>
+      <c r="H274" t="n">
         <v>262.565</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="L274" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10247,18 +11455,29 @@
         <v>823.2071</v>
       </c>
       <c r="G275" t="n">
+        <v>260.9000000000005</v>
+      </c>
+      <c r="H275" t="n">
         <v>262.5166666666667</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="L275" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10282,18 +11501,29 @@
         <v>1672.5584</v>
       </c>
       <c r="G276" t="n">
+        <v>260.8666666666671</v>
+      </c>
+      <c r="H276" t="n">
         <v>262.4766666666666</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="L276" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10317,18 +11547,27 @@
         <v>851.0906</v>
       </c>
       <c r="G277" t="n">
+        <v>260.9333333333338</v>
+      </c>
+      <c r="H277" t="n">
         <v>262.4683333333333</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="L277" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10352,18 +11591,27 @@
         <v>4</v>
       </c>
       <c r="G278" t="n">
+        <v>261.0000000000005</v>
+      </c>
+      <c r="H278" t="n">
         <v>262.4483333333333</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="L278" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10387,18 +11635,27 @@
         <v>22</v>
       </c>
       <c r="G279" t="n">
+        <v>261.0733333333338</v>
+      </c>
+      <c r="H279" t="n">
         <v>262.48</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="L279" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10422,18 +11679,27 @@
         <v>2</v>
       </c>
       <c r="G280" t="n">
+        <v>261.2066666666672</v>
+      </c>
+      <c r="H280" t="n">
         <v>262.4599999999999</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="L280" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10457,18 +11723,27 @@
         <v>2</v>
       </c>
       <c r="G281" t="n">
+        <v>261.3400000000005</v>
+      </c>
+      <c r="H281" t="n">
         <v>262.4399999999999</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="L281" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10492,18 +11767,27 @@
         <v>50</v>
       </c>
       <c r="G282" t="n">
+        <v>261.3733333333338</v>
+      </c>
+      <c r="H282" t="n">
         <v>262.4816666666666</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="L282" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10527,18 +11811,27 @@
         <v>1334.0106</v>
       </c>
       <c r="G283" t="n">
+        <v>261.4066666666671</v>
+      </c>
+      <c r="H283" t="n">
         <v>262.5233333333333</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="L283" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10562,18 +11855,27 @@
         <v>80</v>
       </c>
       <c r="G284" t="n">
+        <v>261.5666666666672</v>
+      </c>
+      <c r="H284" t="n">
         <v>262.5649999999999</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="L284" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10597,18 +11899,27 @@
         <v>5186.3015</v>
       </c>
       <c r="G285" t="n">
+        <v>261.7600000000005</v>
+      </c>
+      <c r="H285" t="n">
         <v>262.5649999999999</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="L285" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10632,18 +11943,27 @@
         <v>3683.954</v>
       </c>
       <c r="G286" t="n">
+        <v>261.9466666666671</v>
+      </c>
+      <c r="H286" t="n">
         <v>262.5649999999999</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="L286" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10667,18 +11987,27 @@
         <v>526.621</v>
       </c>
       <c r="G287" t="n">
+        <v>262.1800000000005</v>
+      </c>
+      <c r="H287" t="n">
         <v>262.5733333333333</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="L287" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10702,18 +12031,27 @@
         <v>100</v>
       </c>
       <c r="G288" t="n">
+        <v>262.5533333333339</v>
+      </c>
+      <c r="H288" t="n">
         <v>262.6216666666666</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="L288" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10737,18 +12075,27 @@
         <v>130.3963</v>
       </c>
       <c r="G289" t="n">
+        <v>262.7066666666672</v>
+      </c>
+      <c r="H289" t="n">
         <v>262.6216666666666</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="L289" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10772,18 +12119,27 @@
         <v>11.5791</v>
       </c>
       <c r="G290" t="n">
+        <v>262.9533333333338</v>
+      </c>
+      <c r="H290" t="n">
         <v>262.6383333333333</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="L290" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10807,18 +12163,27 @@
         <v>148.4439</v>
       </c>
       <c r="G291" t="n">
+        <v>263.1866666666672</v>
+      </c>
+      <c r="H291" t="n">
         <v>262.6549999999999</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="L291" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10842,18 +12207,27 @@
         <v>351.5561</v>
       </c>
       <c r="G292" t="n">
+        <v>263.3200000000005</v>
+      </c>
+      <c r="H292" t="n">
         <v>262.6716666666666</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="L292" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10877,18 +12251,27 @@
         <v>325.2668</v>
       </c>
       <c r="G293" t="n">
+        <v>263.5600000000005</v>
+      </c>
+      <c r="H293" t="n">
         <v>262.7149999999999</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="L293" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10912,18 +12295,27 @@
         <v>500</v>
       </c>
       <c r="G294" t="n">
+        <v>263.6600000000005</v>
+      </c>
+      <c r="H294" t="n">
         <v>262.7216666666666</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="L294" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10947,18 +12339,27 @@
         <v>84.9044</v>
       </c>
       <c r="G295" t="n">
+        <v>263.7600000000005</v>
+      </c>
+      <c r="H295" t="n">
         <v>262.7283333333332</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="L295" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10982,18 +12383,27 @@
         <v>10599.536</v>
       </c>
       <c r="G296" t="n">
+        <v>263.8600000000005</v>
+      </c>
+      <c r="H296" t="n">
         <v>262.7116666666666</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="L296" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11017,18 +12427,27 @@
         <v>2014.6707</v>
       </c>
       <c r="G297" t="n">
+        <v>263.8933333333338</v>
+      </c>
+      <c r="H297" t="n">
         <v>262.6549999999999</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="L297" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11052,18 +12471,27 @@
         <v>3.4194</v>
       </c>
       <c r="G298" t="n">
+        <v>264.0466666666672</v>
+      </c>
+      <c r="H298" t="n">
         <v>262.6283333333333</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="L298" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11087,18 +12515,27 @@
         <v>5881.929</v>
       </c>
       <c r="G299" t="n">
+        <v>264.0800000000006</v>
+      </c>
+      <c r="H299" t="n">
         <v>262.5716666666666</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="L299" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11122,18 +12559,27 @@
         <v>286.7517</v>
       </c>
       <c r="G300" t="n">
+        <v>264.0800000000006</v>
+      </c>
+      <c r="H300" t="n">
         <v>262.5199999999999</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="L300" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11157,18 +12603,27 @@
         <v>2557.4463</v>
       </c>
       <c r="G301" t="n">
+        <v>264.0533333333339</v>
+      </c>
+      <c r="H301" t="n">
         <v>262.4583333333333</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+      <c r="L301" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11192,18 +12647,489 @@
         <v>2399.7969</v>
       </c>
       <c r="G302" t="n">
+        <v>263.9933333333339</v>
+      </c>
+      <c r="H302" t="n">
         <v>262.4499999999999</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="L302" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>263</v>
+      </c>
+      <c r="C303" t="n">
+        <v>263</v>
+      </c>
+      <c r="D303" t="n">
+        <v>263</v>
+      </c>
+      <c r="E303" t="n">
+        <v>263</v>
+      </c>
+      <c r="F303" t="n">
+        <v>58.9894</v>
+      </c>
+      <c r="G303" t="n">
+        <v>263.7733333333339</v>
+      </c>
+      <c r="H303" t="n">
+        <v>262.4483333333333</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="L303" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="C304" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="D304" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="E304" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1465.8907</v>
+      </c>
+      <c r="G304" t="n">
+        <v>263.7533333333339</v>
+      </c>
+      <c r="H304" t="n">
+        <v>262.5133333333333</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>263</v>
+      </c>
+      <c r="L304" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="C305" t="n">
+        <v>260</v>
+      </c>
+      <c r="D305" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="E305" t="n">
+        <v>260</v>
+      </c>
+      <c r="F305" t="n">
+        <v>8312.956200000001</v>
+      </c>
+      <c r="G305" t="n">
+        <v>263.4533333333339</v>
+      </c>
+      <c r="H305" t="n">
+        <v>262.4783333333333</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="L305" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>261</v>
+      </c>
+      <c r="C306" t="n">
+        <v>260</v>
+      </c>
+      <c r="D306" t="n">
+        <v>261</v>
+      </c>
+      <c r="E306" t="n">
+        <v>260</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1406.1196</v>
+      </c>
+      <c r="G306" t="n">
+        <v>263.1533333333339</v>
+      </c>
+      <c r="H306" t="n">
+        <v>262.475</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>260</v>
+      </c>
+      <c r="L306" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>261</v>
+      </c>
+      <c r="C307" t="n">
+        <v>260</v>
+      </c>
+      <c r="D307" t="n">
+        <v>261</v>
+      </c>
+      <c r="E307" t="n">
+        <v>260</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G307" t="n">
+        <v>262.8533333333339</v>
+      </c>
+      <c r="H307" t="n">
+        <v>262.4366666666666</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>260</v>
+      </c>
+      <c r="L307" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>260</v>
+      </c>
+      <c r="C308" t="n">
+        <v>260</v>
+      </c>
+      <c r="D308" t="n">
+        <v>260</v>
+      </c>
+      <c r="E308" t="n">
+        <v>260</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1048.761</v>
+      </c>
+      <c r="G308" t="n">
+        <v>262.4466666666672</v>
+      </c>
+      <c r="H308" t="n">
+        <v>262.4083333333332</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>260</v>
+      </c>
+      <c r="L308" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>260</v>
+      </c>
+      <c r="C309" t="n">
+        <v>260</v>
+      </c>
+      <c r="D309" t="n">
+        <v>260</v>
+      </c>
+      <c r="E309" t="n">
+        <v>260</v>
+      </c>
+      <c r="F309" t="n">
+        <v>50.657</v>
+      </c>
+      <c r="G309" t="n">
+        <v>262.1800000000005</v>
+      </c>
+      <c r="H309" t="n">
+        <v>262.3833333333333</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>260</v>
+      </c>
+      <c r="L309" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>260</v>
+      </c>
+      <c r="C310" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D310" t="n">
+        <v>260</v>
+      </c>
+      <c r="E310" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2987.0094</v>
+      </c>
+      <c r="G310" t="n">
+        <v>261.9066666666671</v>
+      </c>
+      <c r="H310" t="n">
+        <v>262.3566666666666</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>260</v>
+      </c>
+      <c r="L310" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C311" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D311" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E311" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1284.2948</v>
+      </c>
+      <c r="G311" t="n">
+        <v>261.6333333333338</v>
+      </c>
+      <c r="H311" t="n">
+        <v>262.3266666666666</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="L311" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>261</v>
+      </c>
+      <c r="C312" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D312" t="n">
+        <v>261</v>
+      </c>
+      <c r="E312" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1649.1271</v>
+      </c>
+      <c r="G312" t="n">
+        <v>261.4000000000005</v>
+      </c>
+      <c r="H312" t="n">
+        <v>262.2449999999999</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="L312" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-21 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N370"/>
+  <dimension ref="A1:M370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-207170.2531940013</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-204994.7381940013</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-204934.2196606679</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-201366.6422606679</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-201363.0503606679</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-202421.1700606679</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,19 @@
         <v>-316821.8289430139</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>252.8</v>
+      </c>
+      <c r="J139" t="n">
+        <v>252.8</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5011,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5050,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5089,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,24 +5126,21 @@
         <v>-340189.0213430139</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5574,24 +5165,21 @@
         <v>-340189.0213430139</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5616,24 +5204,21 @@
         <v>-340074.8293430139</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5658,24 +5243,21 @@
         <v>-343027.2641430139</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5700,24 +5282,21 @@
         <v>-338439.0191430139</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5742,24 +5321,21 @@
         <v>-338570.5141430139</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5784,24 +5360,21 @@
         <v>-338391.7527430139</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>254.7</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5826,24 +5399,21 @@
         <v>-337679.3202430139</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>254.8</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5868,24 +5438,21 @@
         <v>-337600.8544430139</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>255.6</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5910,24 +5477,21 @@
         <v>-353453.3741430139</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>255.7</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5952,24 +5516,21 @@
         <v>-353453.3741430139</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>252</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5994,24 +5555,21 @@
         <v>-353453.3741430139</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>252</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6036,24 +5594,21 @@
         <v>-351172.0956430139</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>252</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6078,24 +5633,23 @@
         <v>-339556.4647727176</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>252.4</v>
       </c>
       <c r="J156" t="n">
-        <v>252.4</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6120,24 +5674,21 @@
         <v>-339636.7378727176</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6164,20 +5715,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6202,22 +5752,23 @@
         <v>-339636.7378727176</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+        <v>258.7</v>
+      </c>
+      <c r="J159" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6244,20 +5795,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6284,20 +5834,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6324,20 +5873,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6364,20 +5912,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6404,20 +5951,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6444,20 +5990,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6484,20 +6029,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6524,20 +6068,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6564,20 +6107,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6604,20 +6146,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6644,20 +6185,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6684,20 +6224,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6724,20 +6263,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6764,20 +6302,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6804,20 +6341,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6844,20 +6380,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6882,24 +6417,21 @@
         <v>-323235.6851844622</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>258</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6926,20 +6458,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6966,20 +6497,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7006,20 +6536,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7046,20 +6575,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7084,24 +6612,23 @@
         <v>-322584.2860186636</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J181" t="n">
-        <v>260</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7126,24 +6653,21 @@
         <v>-319329.9398528651</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>260</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7168,24 +6692,21 @@
         <v>-319329.9398528651</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7212,20 +6733,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7250,22 +6770,23 @@
         <v>-317553.9693528651</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+        <v>263</v>
+      </c>
+      <c r="J185" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7292,20 +6813,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7330,24 +6850,23 @@
         <v>-304986.4292528651</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="J187" t="n">
-        <v>261</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7372,24 +6891,23 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J188" t="n">
-        <v>264</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7414,24 +6932,23 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="J189" t="n">
-        <v>263</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7456,24 +6973,23 @@
         <v>-302569.2001528651</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="J190" t="n">
-        <v>263</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7498,24 +7014,23 @@
         <v>-292908.5096635168</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J191" t="n">
-        <v>264</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7540,22 +7055,23 @@
         <v>-292917.4408635168</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+        <v>265</v>
+      </c>
+      <c r="J192" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7580,24 +7096,23 @@
         <v>-292036.1408635168</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J193" t="n">
-        <v>264</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+        <v>252.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7622,22 +7137,23 @@
         <v>-287086.0614528651</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+        <v>266.4</v>
+      </c>
+      <c r="J194" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7664,20 +7180,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7704,20 +7219,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7744,20 +7258,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7784,20 +7297,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7824,20 +7336,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7864,20 +7375,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7902,20 +7412,23 @@
         <v>-267297.7645528651</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1.071344936708861</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.086021505376344</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7940,18 +7453,15 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7976,18 +7486,15 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8014,16 +7521,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8050,16 +7554,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8086,16 +7587,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8122,16 +7620,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8158,16 +7653,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8194,16 +7686,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8230,16 +7719,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8266,16 +7752,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8302,16 +7785,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8338,16 +7818,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8374,16 +7851,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8408,22 +7882,15 @@
         <v>-310528.9596528651</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="K215" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8448,26 +7915,15 @@
         <v>-310528.9596528651</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="K216" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8492,26 +7948,15 @@
         <v>-310351.7259528651</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="K217" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8536,22 +7981,15 @@
         <v>-310106.0119528651</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="K218" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8578,24 +8016,13 @@
       <c r="H219" t="n">
         <v>1</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>259.4</v>
-      </c>
-      <c r="K219" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8622,22 +8049,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8662,18 +8080,15 @@
         <v>-319006.2895528651</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8700,16 +8115,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8734,18 +8146,15 @@
         <v>-335542.6492528651</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8772,16 +8181,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8806,18 +8212,15 @@
         <v>-178730.6492528651</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8844,16 +8247,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8878,18 +8278,15 @@
         <v>-178915.6683528651</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8914,18 +8311,15 @@
         <v>-194729.7757528651</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8950,18 +8344,15 @@
         <v>-191467.3074528651</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8988,16 +8379,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9024,16 +8412,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9060,16 +8445,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9096,16 +8478,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9132,16 +8511,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9168,16 +8544,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9204,16 +8577,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9240,16 +8610,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9276,16 +8643,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9310,18 +8674,15 @@
         <v>-220939.237252865</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9348,16 +8709,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9382,18 +8740,15 @@
         <v>-220620.347552865</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9420,16 +8775,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9456,16 +8808,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9492,16 +8841,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9526,18 +8872,15 @@
         <v>-225635.505652865</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9562,18 +8905,15 @@
         <v>-224836.134152865</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9598,18 +8938,15 @@
         <v>-230643.663052865</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9634,18 +8971,15 @@
         <v>-230614.031652865</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9670,18 +9004,15 @@
         <v>-230114.031652865</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9706,18 +9037,15 @@
         <v>-230114.031652865</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9742,18 +9070,15 @@
         <v>-231709.576852865</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9780,16 +9105,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9816,16 +9138,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9852,16 +9171,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9886,18 +9202,15 @@
         <v>-232155.303152865</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9924,16 +9237,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9960,16 +9270,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9994,18 +9301,15 @@
         <v>-233050.803152865</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10032,16 +9336,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10068,16 +9369,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10104,16 +9402,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10140,16 +9435,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10176,16 +9468,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10212,16 +9501,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10248,16 +9534,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10284,16 +9567,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10320,16 +9600,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10354,18 +9631,15 @@
         <v>-242686.301652865</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10392,16 +9666,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10426,18 +9697,15 @@
         <v>-242812.211652865</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10464,16 +9732,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10500,16 +9765,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10536,16 +9798,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10572,16 +9831,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10608,16 +9864,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10644,16 +9897,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10680,16 +9930,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10716,16 +9963,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10752,16 +9996,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10786,18 +10027,15 @@
         <v>-246960.5691239677</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10824,16 +10062,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10858,18 +10093,15 @@
         <v>-246960.5691239677</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10896,16 +10128,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10930,18 +10159,15 @@
         <v>-246908.5691239677</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10968,16 +10194,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11002,18 +10225,15 @@
         <v>-246906.5691239677</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11040,16 +10260,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11074,18 +10291,15 @@
         <v>-241215.0257239677</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11112,16 +10326,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11148,16 +10359,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11184,16 +10392,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11220,16 +10425,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11256,16 +10458,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11292,16 +10491,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11328,16 +10524,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11364,16 +10557,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11398,18 +10588,15 @@
         <v>-233639.2461239677</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11436,16 +10623,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11472,16 +10656,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11508,16 +10689,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11544,16 +10722,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11580,16 +10755,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11616,16 +10788,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11652,16 +10821,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11688,16 +10854,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11724,16 +10887,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11760,16 +10920,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11796,16 +10953,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11832,16 +10986,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11868,16 +11019,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11904,16 +11052,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11940,16 +11085,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11976,16 +11118,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12012,16 +11151,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12048,16 +11184,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12084,16 +11217,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12120,16 +11250,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12156,16 +11283,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12192,16 +11316,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12228,16 +11349,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12264,16 +11382,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12300,16 +11415,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12336,16 +11448,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12372,16 +11481,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12406,22 +11512,15 @@
         <v>-279408.5489748602</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="K325" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12446,24 +11545,15 @@
         <v>-279408.5489748602</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12490,22 +11580,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12532,22 +11613,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12574,22 +11646,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12616,22 +11679,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12658,22 +11712,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12700,22 +11745,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12740,26 +11776,15 @@
         <v>-283453.5509748602</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="K333" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12784,26 +11809,15 @@
         <v>-281780.9925748602</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="K334" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12828,26 +11842,15 @@
         <v>-280929.9019748602</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="n">
-        <v>261</v>
-      </c>
-      <c r="K335" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12874,22 +11877,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12914,24 +11908,15 @@
         <v>-280929.9019748602</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12958,22 +11943,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13000,22 +11976,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13042,22 +12009,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13084,22 +12042,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13126,24 +12075,13 @@
       <c r="H342" t="n">
         <v>1</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="K342" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13168,26 +12106,15 @@
         <v>-275743.6004748602</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="K343" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13214,22 +12141,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13256,22 +12174,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13298,22 +12207,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13340,22 +12240,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13382,22 +12273,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13424,22 +12306,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13466,22 +12339,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13508,22 +12372,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13550,22 +12405,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13592,22 +12438,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13634,22 +12471,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13676,22 +12504,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13718,22 +12537,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13760,22 +12570,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13802,22 +12603,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13844,22 +12636,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13886,22 +12669,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13926,26 +12700,15 @@
         <v>-285802.1670748603</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
-      <c r="J361" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="K361" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13972,22 +12735,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -14014,22 +12768,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -14054,26 +12799,15 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
-      <c r="J364" t="n">
-        <v>260</v>
-      </c>
-      <c r="K364" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -14098,26 +12832,15 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
-      <c r="J365" t="n">
-        <v>260</v>
-      </c>
-      <c r="K365" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -14142,26 +12865,15 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
-      <c r="J366" t="n">
-        <v>260</v>
-      </c>
-      <c r="K366" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -14186,26 +12898,15 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="n">
-        <v>260</v>
-      </c>
-      <c r="K367" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -14230,26 +12931,15 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" t="n">
-        <v>260</v>
-      </c>
-      <c r="K368" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14274,26 +12964,15 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
-      <c r="J369" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K369" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14318,28 +12997,17 @@
         <v>-300217.1504748603</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
-      <c r="J370" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K370" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-21 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-178495.0589940013</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-178478.6909940013</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-198614.7801940013</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-201498.6206940013</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-207170.2531940013</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-204994.7381940013</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-204934.2196606679</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-201366.6422606679</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-201363.0503606679</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-202421.1700606679</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -4972,14 +4972,10 @@
         <v>-316821.8289430139</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="J139" t="n">
-        <v>252.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
@@ -5012,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5051,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5090,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5129,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5207,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5285,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5324,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5363,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5402,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5441,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5480,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5519,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5558,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5597,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5633,19 +5533,11 @@
         <v>-339556.4647727176</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>252.4</v>
-      </c>
-      <c r="J156" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5677,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5716,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5752,19 +5632,11 @@
         <v>-339636.7378727176</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>258.7</v>
-      </c>
-      <c r="J159" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5796,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5835,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5874,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5913,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5952,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5991,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6030,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6069,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6108,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6147,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6186,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6225,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6264,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6303,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6342,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6381,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6420,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6459,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6498,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6537,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6576,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6612,19 +6358,11 @@
         <v>-322584.2860186636</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>260</v>
-      </c>
-      <c r="J181" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6656,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6695,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6734,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6770,19 +6490,11 @@
         <v>-317553.9693528651</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>263</v>
-      </c>
-      <c r="J185" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6814,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6850,19 +6556,11 @@
         <v>-304986.4292528651</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>261</v>
-      </c>
-      <c r="J187" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6891,19 +6589,11 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>264</v>
-      </c>
-      <c r="J188" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6932,19 +6622,11 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>263</v>
-      </c>
-      <c r="J189" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6973,19 +6655,11 @@
         <v>-302569.2001528651</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>263</v>
-      </c>
-      <c r="J190" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7014,19 +6688,11 @@
         <v>-292908.5096635168</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>264</v>
-      </c>
-      <c r="J191" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7055,19 +6721,11 @@
         <v>-292917.4408635168</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>265</v>
-      </c>
-      <c r="J192" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7096,19 +6754,11 @@
         <v>-292036.1408635168</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>264</v>
-      </c>
-      <c r="J193" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7137,19 +6787,11 @@
         <v>-287086.0614528651</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J194" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7181,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7220,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7259,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7298,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7337,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7376,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7412,23 +7018,15 @@
         <v>-267297.7645528651</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>1.071344936708861</v>
-      </c>
-      <c r="M201" t="n">
-        <v>1.086021505376344</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7453,7 +7051,7 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7486,7 +7084,7 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7882,10 +7480,14 @@
         <v>-310528.9596528651</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>257.1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
@@ -7915,11 +7517,19 @@
         <v>-310528.9596528651</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7948,11 +7558,19 @@
         <v>-310351.7259528651</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7981,10 +7599,14 @@
         <v>-310106.0119528651</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>259.3</v>
+      </c>
+      <c r="J218" t="n">
+        <v>259.3</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
@@ -8016,9 +7638,17 @@
       <c r="H219" t="n">
         <v>1</v>
       </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="J219" t="n">
+        <v>259.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8050,8 +7680,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>259.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8080,7 +7716,7 @@
         <v>-319006.2895528651</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8146,7 +7782,7 @@
         <v>-335542.6492528651</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8212,7 +7848,7 @@
         <v>-178730.6492528651</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8278,7 +7914,7 @@
         <v>-178915.6683528651</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8311,7 +7947,7 @@
         <v>-194729.7757528651</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8344,7 +7980,7 @@
         <v>-191467.3074528651</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8674,7 +8310,7 @@
         <v>-220939.237252865</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8740,7 +8376,7 @@
         <v>-220620.347552865</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8872,7 +8508,7 @@
         <v>-225635.505652865</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8905,7 +8541,7 @@
         <v>-224836.134152865</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8938,7 +8574,7 @@
         <v>-230643.663052865</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8971,7 +8607,7 @@
         <v>-230614.031652865</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9004,7 +8640,7 @@
         <v>-230114.031652865</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9037,7 +8673,7 @@
         <v>-230114.031652865</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9070,7 +8706,7 @@
         <v>-231709.576852865</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9202,7 +8838,7 @@
         <v>-232155.303152865</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9301,7 +8937,7 @@
         <v>-233050.803152865</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9631,7 +9267,7 @@
         <v>-242686.301652865</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9697,7 +9333,7 @@
         <v>-242812.211652865</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10027,7 +9663,7 @@
         <v>-246960.5691239677</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10093,7 +9729,7 @@
         <v>-246960.5691239677</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10159,7 +9795,7 @@
         <v>-246908.5691239677</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10225,7 +9861,7 @@
         <v>-246906.5691239677</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10291,7 +9927,7 @@
         <v>-241215.0257239677</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10588,7 +10224,7 @@
         <v>-233639.2461239677</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11545,7 +11181,7 @@
         <v>-279408.5489748602</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11908,7 +11544,7 @@
         <v>-280929.9019748602</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12073,7 +11709,7 @@
         <v>-280929.9019748602</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13008,6 +12644,6 @@
       <c r="M370" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-21 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-178495.0589940013</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-178478.6909940013</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-198614.7801940013</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-201498.6206940013</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-204934.2196606679</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-199520.8850606679</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-199520.8850606679</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-199521.8854606679</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-201363.0503606679</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-201360.8421606679</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -5236,11 +5236,17 @@
         <v>-338439.0191430139</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>251.8</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5279,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5316,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5353,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5390,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5427,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5464,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5501,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5538,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5575,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5612,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5649,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5686,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5723,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5760,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +5797,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5834,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +5871,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +5908,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +5945,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +5982,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6019,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6056,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6093,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6130,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6167,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6204,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6241,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6278,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6311,17 @@
         <v>-323235.6851844622</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>258</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6354,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6391,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6428,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6465,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6502,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6539,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6576,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6613,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6650,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6687,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6724,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6761,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,14 +6794,16 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
@@ -6655,7 +6829,7 @@
         <v>-302569.2001528651</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6862,7 @@
         <v>-292908.5096635168</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6895,7 @@
         <v>-292917.4408635168</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6928,7 @@
         <v>-292036.1408635168</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6961,7 @@
         <v>-287086.0614528651</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6994,7 @@
         <v>-278792.0751528651</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7480,14 +7654,10 @@
         <v>-310528.9596528651</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="J215" t="n">
-        <v>257.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
@@ -7517,19 +7687,11 @@
         <v>-310528.9596528651</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="J216" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7558,19 +7720,11 @@
         <v>-310351.7259528651</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="J217" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7599,14 +7753,10 @@
         <v>-310106.0119528651</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="J218" t="n">
-        <v>259.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
@@ -7636,19 +7786,11 @@
         <v>-310104.0119528651</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>259.4</v>
-      </c>
-      <c r="J219" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7680,14 +7822,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -12435,11 +12571,17 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>260</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12468,11 +12610,17 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>260</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12501,11 +12649,17 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>260</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12534,11 +12688,17 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>260</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12567,11 +12727,17 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>260</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12600,11 +12766,17 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>259.9</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12633,17 +12805,23 @@
         <v>-300217.1504748603</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>259.9</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
       <c r="M370" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-21 BackTest VALOR.xlsx
@@ -1276,7 +1276,7 @@
         <v>-204934.2196606679</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-199520.8850606679</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-199520.8850606679</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-199521.8854606679</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-201363.0503606679</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-201360.8421606679</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -5137,10 +5137,14 @@
         <v>-340189.0213430139</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="J144" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5170,11 +5174,19 @@
         <v>-340074.8293430139</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="J145" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5215,19 @@
         <v>-343027.2641430139</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5241,7 +5261,9 @@
       <c r="I147" t="n">
         <v>251.8</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5278,7 +5300,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5312,10 +5336,14 @@
         <v>-338391.7527430139</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>254.7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5352,7 +5380,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5389,7 +5419,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,7 +5458,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,7 +5497,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5500,7 +5536,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,7 +5575,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,10 +5611,14 @@
         <v>-339556.4647727176</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="J156" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5611,7 +5655,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,7 +5694,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5682,10 +5730,14 @@
         <v>-339636.7378727176</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>258.7</v>
+      </c>
+      <c r="J159" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5719,10 +5771,14 @@
         <v>-339582.6838186635</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>258.7</v>
+      </c>
+      <c r="J160" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5756,10 +5812,14 @@
         <v>-339582.6838186635</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>259</v>
+      </c>
+      <c r="J161" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5793,10 +5853,14 @@
         <v>-341165.8236186635</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>259</v>
+      </c>
+      <c r="J162" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,10 +5894,14 @@
         <v>-336204.2343186635</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>256</v>
+      </c>
+      <c r="J163" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5870,7 +5938,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5907,7 +5977,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,7 +6016,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5981,7 +6055,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6018,7 +6094,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6055,7 +6133,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6089,10 +6169,14 @@
         <v>-323493.4935186636</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>261</v>
+      </c>
+      <c r="J170" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,10 +6210,14 @@
         <v>-322212.6397844621</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>261</v>
+      </c>
+      <c r="J171" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,7 +6254,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6200,10 +6290,14 @@
         <v>-322216.0618844621</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>258</v>
+      </c>
+      <c r="J173" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6240,7 +6334,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6277,7 +6373,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,7 +6414,9 @@
       <c r="I176" t="n">
         <v>258</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6350,10 +6450,14 @@
         <v>-319125.7452844622</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>260</v>
+      </c>
+      <c r="J177" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,7 +6494,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6427,7 +6533,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,10 +6569,14 @@
         <v>-322584.2860186636</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6498,10 +6610,14 @@
         <v>-322584.2860186636</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>260</v>
+      </c>
+      <c r="J181" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,10 +6651,14 @@
         <v>-319329.9398528651</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>260</v>
+      </c>
+      <c r="J182" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6572,10 +6692,14 @@
         <v>-319329.9398528651</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6609,10 +6733,14 @@
         <v>-317553.9693528651</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6646,10 +6774,14 @@
         <v>-317553.9693528651</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>263</v>
+      </c>
+      <c r="J185" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6683,10 +6815,14 @@
         <v>-317669.5908528651</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>263</v>
+      </c>
+      <c r="J186" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6720,10 +6856,14 @@
         <v>-304986.4292528651</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>261</v>
+      </c>
+      <c r="J187" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,10 +6897,14 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>264</v>
+      </c>
+      <c r="J188" t="n">
+        <v>251.6</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,413 +6938,503 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>263</v>
+      </c>
+      <c r="J189" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>264</v>
+      </c>
+      <c r="C190" t="n">
+        <v>264</v>
+      </c>
+      <c r="D190" t="n">
+        <v>264</v>
+      </c>
+      <c r="E190" t="n">
+        <v>264</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2453.9435</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-302569.2001528651</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>263</v>
+      </c>
+      <c r="J190" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>265</v>
+      </c>
+      <c r="C191" t="n">
+        <v>265</v>
+      </c>
+      <c r="D191" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>264</v>
+      </c>
+      <c r="F191" t="n">
+        <v>9660.690489348231</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-292908.5096635168</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>264</v>
+      </c>
+      <c r="J191" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>264</v>
+      </c>
+      <c r="C192" t="n">
+        <v>264</v>
+      </c>
+      <c r="D192" t="n">
+        <v>264</v>
+      </c>
+      <c r="E192" t="n">
+        <v>264</v>
+      </c>
+      <c r="F192" t="n">
+        <v>8.9312</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-292917.4408635168</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>265</v>
+      </c>
+      <c r="J192" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>881.3</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-292036.1408635168</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>264</v>
+      </c>
+      <c r="J193" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>268.8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4950.079410651769</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-287086.0614528651</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="J194" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="E195" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>8293.9863</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-278792.0751528651</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>269</v>
+      </c>
+      <c r="C196" t="n">
+        <v>269</v>
+      </c>
+      <c r="D196" t="n">
+        <v>269</v>
+      </c>
+      <c r="E196" t="n">
+        <v>269</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2667.3583</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-281459.4334528651</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6136.4167</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-275323.0167528651</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>270</v>
+      </c>
+      <c r="C198" t="n">
+        <v>270</v>
+      </c>
+      <c r="D198" t="n">
+        <v>270</v>
+      </c>
+      <c r="E198" t="n">
+        <v>270</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2033.0999</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-277356.1166528651</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="F199" t="n">
+        <v>11274.0795</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-266082.0371528651</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>275</v>
+      </c>
+      <c r="D200" t="n">
+        <v>275</v>
+      </c>
+      <c r="E200" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1915.0178</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-264167.0193528651</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>273</v>
+      </c>
+      <c r="C201" t="n">
+        <v>272.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>273</v>
+      </c>
+      <c r="E201" t="n">
+        <v>272.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3130.7452</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-267297.7645528651</v>
+      </c>
+      <c r="H201" t="n">
         <v>2</v>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>264</v>
-      </c>
-      <c r="C190" t="n">
-        <v>264</v>
-      </c>
-      <c r="D190" t="n">
-        <v>264</v>
-      </c>
-      <c r="E190" t="n">
-        <v>264</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2453.9435</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-302569.2001528651</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>265</v>
-      </c>
-      <c r="C191" t="n">
-        <v>265</v>
-      </c>
-      <c r="D191" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>264</v>
-      </c>
-      <c r="F191" t="n">
-        <v>9660.690489348231</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-292908.5096635168</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>264</v>
-      </c>
-      <c r="C192" t="n">
-        <v>264</v>
-      </c>
-      <c r="D192" t="n">
-        <v>264</v>
-      </c>
-      <c r="E192" t="n">
-        <v>264</v>
-      </c>
-      <c r="F192" t="n">
-        <v>8.9312</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-292917.4408635168</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="C193" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="D193" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="E193" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="F193" t="n">
-        <v>881.3</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-292036.1408635168</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="C194" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="D194" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="E194" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="F194" t="n">
-        <v>4950.079410651769</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-287086.0614528651</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="C195" t="n">
-        <v>270.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>270.9</v>
-      </c>
-      <c r="E195" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="F195" t="n">
-        <v>8293.9863</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-278792.0751528651</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>269</v>
-      </c>
-      <c r="C196" t="n">
-        <v>269</v>
-      </c>
-      <c r="D196" t="n">
-        <v>269</v>
-      </c>
-      <c r="E196" t="n">
-        <v>269</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2667.3583</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-281459.4334528651</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="C197" t="n">
-        <v>272.4</v>
-      </c>
-      <c r="D197" t="n">
-        <v>272.4</v>
-      </c>
-      <c r="E197" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="F197" t="n">
-        <v>6136.4167</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-275323.0167528651</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>270</v>
-      </c>
-      <c r="C198" t="n">
-        <v>270</v>
-      </c>
-      <c r="D198" t="n">
-        <v>270</v>
-      </c>
-      <c r="E198" t="n">
-        <v>270</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2033.0999</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-277356.1166528651</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>271.4</v>
-      </c>
-      <c r="C199" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="E199" t="n">
-        <v>271.4</v>
-      </c>
-      <c r="F199" t="n">
-        <v>11274.0795</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-266082.0371528651</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="C200" t="n">
-        <v>275</v>
-      </c>
-      <c r="D200" t="n">
-        <v>275</v>
-      </c>
-      <c r="E200" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1915.0178</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-264167.0193528651</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>273</v>
-      </c>
-      <c r="C201" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>273</v>
-      </c>
-      <c r="E201" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="F201" t="n">
-        <v>3130.7452</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-267297.7645528651</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>1.07647853736089</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.086021505376344</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7225,7 +7459,7 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7258,7 +7492,7 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -12571,17 +12805,11 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12610,17 +12838,11 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12649,17 +12871,11 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12688,17 +12904,11 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12727,17 +12937,11 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12766,17 +12970,11 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>259.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12805,17 +13003,11 @@
         <v>-300217.1504748603</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>259.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
